--- a/7. ABSORCION/espectro_abs_hemoglobina.xlsx
+++ b/7. ABSORCION/espectro_abs_hemoglobina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE IX\FUNDAMENTOS DE BIOINGENIERIA\fundamentos-bioingenieria\7. ABSORCION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48294794-287F-4B68-AD4C-A510542BBB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE526E2-8D47-4771-A404-C1AB932D703D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A3B98C9E-432B-4CA6-BFDE-4AB5422D41EB}"/>
+    <workbookView xWindow="11520" yWindow="456" windowWidth="11520" windowHeight="12504" activeTab="1" xr2:uid="{A3B98C9E-432B-4CA6-BFDE-4AB5422D41EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Longitud de onda (nm),Absorbancia SoluciÃ³n NÂº 2,Transmitancia SoluciÃ³n NÂº 2,,Sinnombre.sp,,,SoluciÃ³n NÂº 2,</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Suavizar</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -669,37 +672,36 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>espectro_abs_hemoglobina_aprox_!$A$2:$A$2043</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="2042"/>
                 <c:pt idx="0">
-                  <c:v>174.41499999999999</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.80500000000001</c:v>
+                  <c:v>174.805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.19499999999999</c:v>
+                  <c:v>175.195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.58600000000001</c:v>
+                  <c:v>175.586</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>175.976</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176.36699999999999</c:v>
+                  <c:v>176.367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176.75800000000001</c:v>
+                  <c:v>176.758</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>177.148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>177.53899999999999</c:v>
+                  <c:v>177.539</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>177.93</c:v>
@@ -708,28 +710,28 @@
                   <c:v>178.321</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178.71199999999999</c:v>
+                  <c:v>178.712</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>179.102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>179.49299999999999</c:v>
+                  <c:v>179.493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>179.88399999999999</c:v>
+                  <c:v>179.884</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>180.27600000000001</c:v>
+                  <c:v>180.276</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>180.667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>181.05799999999999</c:v>
+                  <c:v>181.058</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.44900000000001</c:v>
+                  <c:v>181.449</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>181.84</c:v>
@@ -738,25 +740,25 @@
                   <c:v>182.232</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>182.62299999999999</c:v>
+                  <c:v>182.623</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183.01400000000001</c:v>
+                  <c:v>183.014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.40600000000001</c:v>
+                  <c:v>183.406</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>183.797</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>184.18899999999999</c:v>
+                  <c:v>184.189</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>184.58099999999999</c:v>
+                  <c:v>184.581</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>184.97200000000001</c:v>
+                  <c:v>184.972</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>185.364</c:v>
@@ -765,16 +767,16 @@
                   <c:v>185.756</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>186.14699999999999</c:v>
+                  <c:v>186.147</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>186.53899999999999</c:v>
+                  <c:v>186.539</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>186.93100000000001</c:v>
+                  <c:v>186.931</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>187.32300000000001</c:v>
+                  <c:v>187.323</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>187.715</c:v>
@@ -786,28 +788,28 @@
                   <c:v>188.499</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>188.89099999999999</c:v>
+                  <c:v>188.891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>189.28399999999999</c:v>
+                  <c:v>189.284</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>189.67599999999999</c:v>
+                  <c:v>189.676</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>190.06800000000001</c:v>
+                  <c:v>190.068</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>190.46</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>190.85300000000001</c:v>
+                  <c:v>190.853</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>191.245</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>191.63800000000001</c:v>
+                  <c:v>191.638</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>192.03</c:v>
@@ -849,28 +851,28 @@
                   <c:v>196.744</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>197.13800000000001</c:v>
+                  <c:v>197.138</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>197.53100000000001</c:v>
+                  <c:v>197.531</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>197.92400000000001</c:v>
+                  <c:v>197.924</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>198.31700000000001</c:v>
+                  <c:v>198.317</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>198.71100000000001</c:v>
+                  <c:v>198.711</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>199.10400000000001</c:v>
+                  <c:v>199.104</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>199.49799999999999</c:v>
+                  <c:v>199.498</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>199.89099999999999</c:v>
+                  <c:v>199.891</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>200.285</c:v>
@@ -885,13 +887,13 @@
                   <c:v>201.465</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>201.85900000000001</c:v>
+                  <c:v>201.859</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>202.25299999999999</c:v>
+                  <c:v>202.253</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>202.64699999999999</c:v>
+                  <c:v>202.647</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>203.041</c:v>
@@ -900,13 +902,13 @@
                   <c:v>203.435</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>203.82900000000001</c:v>
+                  <c:v>203.829</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>204.22300000000001</c:v>
+                  <c:v>204.223</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.61699999999999</c:v>
+                  <c:v>204.617</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>205.011</c:v>
@@ -915,13 +917,13 @@
                   <c:v>205.405</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>205.79900000000001</c:v>
+                  <c:v>205.799</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>206.19300000000001</c:v>
+                  <c:v>206.193</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>206.58799999999999</c:v>
+                  <c:v>206.588</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>206.982</c:v>
@@ -930,61 +932,61 @@
                   <c:v>207.376</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>207.77099999999999</c:v>
+                  <c:v>207.771</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>208.16499999999999</c:v>
+                  <c:v>208.165</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>208.56</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>208.95500000000001</c:v>
+                  <c:v>208.955</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>209.34899999999999</c:v>
+                  <c:v>209.349</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>209.744</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>210.13900000000001</c:v>
+                  <c:v>210.139</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>210.53299999999999</c:v>
+                  <c:v>210.533</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>210.928</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>211.32300000000001</c:v>
+                  <c:v>211.323</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>211.71799999999999</c:v>
+                  <c:v>211.718</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>212.113</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>212.50800000000001</c:v>
+                  <c:v>212.508</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>212.90299999999999</c:v>
+                  <c:v>212.903</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>213.298</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>213.69300000000001</c:v>
+                  <c:v>213.693</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>214.08799999999999</c:v>
+                  <c:v>214.088</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>214.48400000000001</c:v>
+                  <c:v>214.484</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>214.87899999999999</c:v>
+                  <c:v>214.879</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>215.274</c:v>
@@ -996,25 +998,25 @@
                   <c:v>216.065</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>216.46100000000001</c:v>
+                  <c:v>216.461</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>216.85599999999999</c:v>
+                  <c:v>216.856</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>217.25200000000001</c:v>
+                  <c:v>217.252</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>217.64699999999999</c:v>
+                  <c:v>217.647</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>218.04300000000001</c:v>
+                  <c:v>218.043</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>218.43899999999999</c:v>
+                  <c:v>218.439</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>218.83500000000001</c:v>
+                  <c:v>218.835</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>219.23</c:v>
@@ -1023,43 +1025,43 @@
                   <c:v>219.626</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>220.02199999999999</c:v>
+                  <c:v>220.022</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>220.41800000000001</c:v>
+                  <c:v>220.418</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>220.81399999999999</c:v>
+                  <c:v>220.814</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>221.21</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>221.60599999999999</c:v>
+                  <c:v>221.606</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>222.00200000000001</c:v>
+                  <c:v>222.002</c:v>
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>222.399</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>222.79499999999999</c:v>
+                  <c:v>222.795</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>223.191</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>223.58699999999999</c:v>
+                  <c:v>223.587</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>223.98400000000001</c:v>
+                  <c:v>223.984</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>224.38</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>224.77699999999999</c:v>
+                  <c:v>224.777</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>225.173</c:v>
@@ -1068,7 +1070,7 @@
                   <c:v>225.57</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>225.96600000000001</c:v>
+                  <c:v>225.966</c:v>
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>226.363</c:v>
@@ -1077,7 +1079,7 @@
                   <c:v>226.76</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>227.15600000000001</c:v>
+                  <c:v>227.156</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>227.553</c:v>
@@ -1086,40 +1088,40 @@
                   <c:v>227.95</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>228.34700000000001</c:v>
+                  <c:v>228.347</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>228.744</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>229.14099999999999</c:v>
+                  <c:v>229.141</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>229.53800000000001</c:v>
+                  <c:v>229.538</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>229.935</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>230.33199999999999</c:v>
+                  <c:v>230.332</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>230.72900000000001</c:v>
+                  <c:v>230.729</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>231.12700000000001</c:v>
+                  <c:v>231.127</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>231.524</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>231.92099999999999</c:v>
+                  <c:v>231.921</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>232.31800000000001</c:v>
+                  <c:v>232.318</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>232.71600000000001</c:v>
+                  <c:v>232.716</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>233.113</c:v>
@@ -1128,13 +1130,13 @@
                   <c:v>233.511</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>233.90799999999999</c:v>
+                  <c:v>233.908</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>234.30600000000001</c:v>
+                  <c:v>234.306</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>234.70400000000001</c:v>
+                  <c:v>234.704</c:v>
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>235.101</c:v>
@@ -1143,13 +1145,13 @@
                   <c:v>235.499</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>235.89699999999999</c:v>
+                  <c:v>235.897</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>236.29400000000001</c:v>
+                  <c:v>236.294</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>236.69200000000001</c:v>
+                  <c:v>236.692</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>237.09</c:v>
@@ -1161,22 +1163,22 @@
                   <c:v>237.886</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>238.28399999999999</c:v>
+                  <c:v>238.284</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>238.68199999999999</c:v>
+                  <c:v>238.682</c:v>
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>239.08</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>239.47900000000001</c:v>
+                  <c:v>239.479</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>239.87700000000001</c:v>
+                  <c:v>239.877</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>240.27500000000001</c:v>
+                  <c:v>240.275</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>240.673</c:v>
@@ -1197,28 +1199,28 @@
                   <c:v>242.666</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>243.06399999999999</c:v>
+                  <c:v>243.064</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>243.46299999999999</c:v>
+                  <c:v>243.463</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>243.86199999999999</c:v>
+                  <c:v>243.862</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>244.26</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>244.65899999999999</c:v>
+                  <c:v>244.659</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>245.05799999999999</c:v>
+                  <c:v>245.058</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>245.45699999999999</c:v>
+                  <c:v>245.457</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>245.85599999999999</c:v>
+                  <c:v>245.856</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>246.255</c:v>
@@ -1242,25 +1244,25 @@
                   <c:v>248.649</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>249.04900000000001</c:v>
+                  <c:v>249.049</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>249.44800000000001</c:v>
+                  <c:v>249.448</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>249.84700000000001</c:v>
+                  <c:v>249.847</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>250.24700000000001</c:v>
+                  <c:v>250.247</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>250.64599999999999</c:v>
+                  <c:v>250.646</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>251.04599999999999</c:v>
+                  <c:v>251.046</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>251.44499999999999</c:v>
+                  <c:v>251.445</c:v>
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>251.845</c:v>
@@ -1269,106 +1271,106 @@
                   <c:v>252.245</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>252.64400000000001</c:v>
+                  <c:v>252.644</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>253.04400000000001</c:v>
+                  <c:v>253.044</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>253.44399999999999</c:v>
+                  <c:v>253.444</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>253.84399999999999</c:v>
+                  <c:v>253.844</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>254.24299999999999</c:v>
+                  <c:v>254.243</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>254.643</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>255.04300000000001</c:v>
+                  <c:v>255.043</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>255.44300000000001</c:v>
+                  <c:v>255.443</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>255.84299999999999</c:v>
+                  <c:v>255.843</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>256.24299999999999</c:v>
+                  <c:v>256.243</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>256.64299999999997</c:v>
+                  <c:v>256.643</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>257.04399999999998</c:v>
+                  <c:v>257.044</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>257.44400000000002</c:v>
+                  <c:v>257.444</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>257.84399999999999</c:v>
+                  <c:v>257.844</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>258.24400000000003</c:v>
+                  <c:v>258.244</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>258.64499999999998</c:v>
+                  <c:v>258.645</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>259.04500000000002</c:v>
+                  <c:v>259.045</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>259.44600000000003</c:v>
+                  <c:v>259.446</c:v>
                 </c:pt>
                 <c:pt idx="216">
                   <c:v>259.846</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>260.24700000000001</c:v>
+                  <c:v>260.247</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>260.64699999999999</c:v>
+                  <c:v>260.647</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>261.048</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>261.44900000000001</c:v>
+                  <c:v>261.449</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>261.84899999999999</c:v>
+                  <c:v>261.849</c:v>
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>262.25</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>262.65100000000001</c:v>
+                  <c:v>262.651</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>263.05200000000002</c:v>
+                  <c:v>263.052</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>263.45299999999997</c:v>
+                  <c:v>263.453</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>263.85399999999998</c:v>
+                  <c:v>263.854</c:v>
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>264.255</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>264.65600000000001</c:v>
+                  <c:v>264.656</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>265.05700000000002</c:v>
+                  <c:v>265.057</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>265.45800000000003</c:v>
+                  <c:v>265.458</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>265.85899999999998</c:v>
+                  <c:v>265.859</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>266.26</c:v>
@@ -1377,19 +1379,19 @@
                   <c:v>266.661</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>267.06299999999999</c:v>
+                  <c:v>267.063</c:v>
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>267.464</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>267.86500000000001</c:v>
+                  <c:v>267.865</c:v>
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>268.267</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>268.66800000000001</c:v>
+                  <c:v>268.668</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>269.07</c:v>
@@ -1398,31 +1400,31 @@
                   <c:v>269.471</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>269.87299999999999</c:v>
+                  <c:v>269.873</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>270.27499999999998</c:v>
+                  <c:v>270.275</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>270.67599999999999</c:v>
+                  <c:v>270.676</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>271.07799999999997</c:v>
+                  <c:v>271.078</c:v>
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>271.48</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>271.88200000000001</c:v>
+                  <c:v>271.882</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>272.28399999999999</c:v>
+                  <c:v>272.284</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>272.68599999999998</c:v>
+                  <c:v>272.686</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>273.08800000000002</c:v>
+                  <c:v>273.088</c:v>
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>273.49</c:v>
@@ -1431,25 +1433,25 @@
                   <c:v>273.892</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>274.29399999999998</c:v>
+                  <c:v>274.294</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>274.69600000000003</c:v>
+                  <c:v>274.696</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>275.09800000000001</c:v>
+                  <c:v>275.098</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>275.5</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>275.90199999999999</c:v>
+                  <c:v>275.902</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>276.30500000000001</c:v>
+                  <c:v>276.305</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>276.70699999999999</c:v>
+                  <c:v>276.707</c:v>
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>277.11</c:v>
@@ -1458,19 +1460,19 @@
                   <c:v>277.512</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>277.91500000000002</c:v>
+                  <c:v>277.915</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>278.31700000000001</c:v>
+                  <c:v>278.317</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>278.72000000000003</c:v>
+                  <c:v>278.72</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>279.12200000000001</c:v>
+                  <c:v>279.122</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>279.52499999999998</c:v>
+                  <c:v>279.525</c:v>
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>279.928</c:v>
@@ -1482,61 +1484,61 @@
                   <c:v>280.733</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>281.13600000000002</c:v>
+                  <c:v>281.136</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>281.53899999999999</c:v>
+                  <c:v>281.539</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>281.94200000000001</c:v>
+                  <c:v>281.942</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>282.34500000000003</c:v>
+                  <c:v>282.345</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>282.74799999999999</c:v>
+                  <c:v>282.748</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>283.15100000000001</c:v>
+                  <c:v>283.151</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>283.55399999999997</c:v>
+                  <c:v>283.554</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>283.95699999999999</c:v>
+                  <c:v>283.957</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>284.36</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>284.76400000000001</c:v>
+                  <c:v>284.764</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>285.16699999999997</c:v>
+                  <c:v>285.167</c:v>
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>285.57</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>285.97399999999999</c:v>
+                  <c:v>285.974</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>286.37700000000001</c:v>
+                  <c:v>286.377</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>286.77999999999997</c:v>
+                  <c:v>286.78</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>287.18400000000003</c:v>
+                  <c:v>287.184</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>287.58699999999999</c:v>
+                  <c:v>287.587</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>287.99099999999999</c:v>
+                  <c:v>287.991</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>288.39499999999998</c:v>
+                  <c:v>288.395</c:v>
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>288.798</c:v>
@@ -1545,16 +1547,16 @@
                   <c:v>289.202</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>289.60599999999999</c:v>
+                  <c:v>289.606</c:v>
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>290.01</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>290.41300000000001</c:v>
+                  <c:v>290.413</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>290.81700000000001</c:v>
+                  <c:v>290.817</c:v>
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>291.221</c:v>
@@ -1566,31 +1568,31 @@
                   <c:v>292.029</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>292.43299999999999</c:v>
+                  <c:v>292.433</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>292.83699999999999</c:v>
+                  <c:v>292.837</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>293.24200000000002</c:v>
+                  <c:v>293.242</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>293.64600000000002</c:v>
+                  <c:v>293.646</c:v>
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>294.05</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>294.45400000000001</c:v>
+                  <c:v>294.454</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>294.85899999999998</c:v>
+                  <c:v>294.859</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>295.26299999999998</c:v>
+                  <c:v>295.263</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>295.66699999999997</c:v>
+                  <c:v>295.667</c:v>
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>296.072</c:v>
@@ -1599,70 +1601,70 @@
                   <c:v>296.476</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>296.88099999999997</c:v>
+                  <c:v>296.881</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>297.28500000000003</c:v>
+                  <c:v>297.285</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>297.69</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>298.09500000000003</c:v>
+                  <c:v>298.095</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>298.49900000000002</c:v>
+                  <c:v>298.499</c:v>
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>298.904</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>299.30900000000003</c:v>
+                  <c:v>299.309</c:v>
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>299.714</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>300.11900000000003</c:v>
+                  <c:v>300.119</c:v>
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>300.524</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>300.92899999999997</c:v>
+                  <c:v>300.929</c:v>
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>301.334</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>301.73899999999998</c:v>
+                  <c:v>301.739</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>302.14400000000001</c:v>
+                  <c:v>302.144</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>302.54899999999998</c:v>
+                  <c:v>302.549</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>302.95400000000001</c:v>
+                  <c:v>302.954</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>303.35899999999998</c:v>
+                  <c:v>303.359</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>303.76400000000001</c:v>
+                  <c:v>303.764</c:v>
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>304.17</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>304.57499999999999</c:v>
+                  <c:v>304.575</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>304.98099999999999</c:v>
+                  <c:v>304.981</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>305.38600000000002</c:v>
+                  <c:v>305.386</c:v>
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>305.791</c:v>
@@ -1671,121 +1673,121 @@
                   <c:v>306.197</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>306.60300000000001</c:v>
+                  <c:v>306.603</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>307.00799999999998</c:v>
+                  <c:v>307.008</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>307.41399999999999</c:v>
+                  <c:v>307.414</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>307.81900000000002</c:v>
+                  <c:v>307.819</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>308.22500000000002</c:v>
+                  <c:v>308.225</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>308.63099999999997</c:v>
+                  <c:v>308.631</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>309.03699999999998</c:v>
+                  <c:v>309.037</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>309.44299999999998</c:v>
+                  <c:v>309.443</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>309.84899999999999</c:v>
+                  <c:v>309.849</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>310.25400000000002</c:v>
+                  <c:v>310.254</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>310.66000000000003</c:v>
+                  <c:v>310.66</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>311.06599999999997</c:v>
+                  <c:v>311.066</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>311.47300000000001</c:v>
+                  <c:v>311.473</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>311.87900000000002</c:v>
+                  <c:v>311.879</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>312.28500000000003</c:v>
+                  <c:v>312.285</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>312.69099999999997</c:v>
+                  <c:v>312.691</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>313.09699999999998</c:v>
+                  <c:v>313.097</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>313.50400000000002</c:v>
+                  <c:v>313.504</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>313.91000000000003</c:v>
+                  <c:v>313.91</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>314.31599999999997</c:v>
+                  <c:v>314.316</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>314.72300000000001</c:v>
+                  <c:v>314.723</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>315.12900000000002</c:v>
+                  <c:v>315.129</c:v>
                 </c:pt>
                 <c:pt idx="354">
                   <c:v>315.536</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>315.94200000000001</c:v>
+                  <c:v>315.942</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>316.34899999999999</c:v>
+                  <c:v>316.349</c:v>
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>316.755</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>317.16199999999998</c:v>
+                  <c:v>317.162</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>317.56900000000002</c:v>
+                  <c:v>317.569</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>317.97500000000002</c:v>
+                  <c:v>317.975</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>318.38200000000001</c:v>
+                  <c:v>318.382</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>318.78899999999999</c:v>
+                  <c:v>318.789</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>319.19600000000003</c:v>
+                  <c:v>319.196</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>319.60300000000001</c:v>
+                  <c:v>319.603</c:v>
                 </c:pt>
                 <c:pt idx="365">
                   <c:v>320.01</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>320.41699999999997</c:v>
+                  <c:v>320.417</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>320.82400000000001</c:v>
+                  <c:v>320.824</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>321.23099999999999</c:v>
+                  <c:v>321.231</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>321.63799999999998</c:v>
+                  <c:v>321.638</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>322.04500000000002</c:v>
+                  <c:v>322.045</c:v>
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>322.452</c:v>
@@ -1797,64 +1799,64 @@
                   <c:v>323.267</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>323.67399999999998</c:v>
+                  <c:v>323.674</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>324.08199999999999</c:v>
+                  <c:v>324.082</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>324.48899999999998</c:v>
+                  <c:v>324.489</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>324.89600000000002</c:v>
+                  <c:v>324.896</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>325.30399999999997</c:v>
+                  <c:v>325.304</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>325.71100000000001</c:v>
+                  <c:v>325.711</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>326.11900000000003</c:v>
+                  <c:v>326.119</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>326.52699999999999</c:v>
+                  <c:v>326.527</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>326.93400000000003</c:v>
+                  <c:v>326.934</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>327.34199999999998</c:v>
+                  <c:v>327.342</c:v>
                 </c:pt>
                 <c:pt idx="384">
                   <c:v>327.75</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>328.15800000000002</c:v>
+                  <c:v>328.158</c:v>
                 </c:pt>
                 <c:pt idx="386">
                   <c:v>328.565</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>328.97300000000001</c:v>
+                  <c:v>328.973</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>329.38099999999997</c:v>
+                  <c:v>329.381</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>329.78899999999999</c:v>
+                  <c:v>329.789</c:v>
                 </c:pt>
                 <c:pt idx="390">
                   <c:v>330.197</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>330.60500000000002</c:v>
+                  <c:v>330.605</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>331.01299999999998</c:v>
+                  <c:v>331.013</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>331.42099999999999</c:v>
+                  <c:v>331.421</c:v>
                 </c:pt>
                 <c:pt idx="394">
                   <c:v>331.83</c:v>
@@ -1863,22 +1865,22 @@
                   <c:v>332.238</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>332.64600000000002</c:v>
+                  <c:v>332.646</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>333.05399999999997</c:v>
+                  <c:v>333.054</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>333.46300000000002</c:v>
+                  <c:v>333.463</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>333.87099999999998</c:v>
+                  <c:v>333.871</c:v>
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>334.279</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>334.68799999999999</c:v>
+                  <c:v>334.688</c:v>
                 </c:pt>
                 <c:pt idx="402">
                   <c:v>335.096</c:v>
@@ -1887,85 +1889,85 @@
                   <c:v>335.505</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>335.91300000000001</c:v>
+                  <c:v>335.913</c:v>
                 </c:pt>
                 <c:pt idx="405">
                   <c:v>336.322</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>336.73099999999999</c:v>
+                  <c:v>336.731</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>337.13900000000001</c:v>
+                  <c:v>337.139</c:v>
                 </c:pt>
                 <c:pt idx="408">
                   <c:v>337.548</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>337.95699999999999</c:v>
+                  <c:v>337.957</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>338.36599999999999</c:v>
+                  <c:v>338.366</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>338.77499999999998</c:v>
+                  <c:v>338.775</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>339.18299999999999</c:v>
+                  <c:v>339.183</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>339.59199999999998</c:v>
+                  <c:v>339.592</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>340.00099999999998</c:v>
+                  <c:v>340.001</c:v>
                 </c:pt>
                 <c:pt idx="415">
                   <c:v>340.41</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>340.81900000000002</c:v>
+                  <c:v>340.819</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>341.22899999999998</c:v>
+                  <c:v>341.229</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>341.63799999999998</c:v>
+                  <c:v>341.638</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>342.04700000000003</c:v>
+                  <c:v>342.047</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>342.45600000000002</c:v>
+                  <c:v>342.456</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>342.86500000000001</c:v>
+                  <c:v>342.865</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>343.27499999999998</c:v>
+                  <c:v>343.275</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>343.68400000000003</c:v>
+                  <c:v>343.684</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>344.09300000000002</c:v>
+                  <c:v>344.093</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>344.50299999999999</c:v>
+                  <c:v>344.503</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>344.91199999999998</c:v>
+                  <c:v>344.912</c:v>
                 </c:pt>
                 <c:pt idx="427">
                   <c:v>345.322</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>345.73099999999999</c:v>
+                  <c:v>345.731</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>346.14100000000002</c:v>
+                  <c:v>346.141</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>346.55099999999999</c:v>
+                  <c:v>346.551</c:v>
                 </c:pt>
                 <c:pt idx="431">
                   <c:v>346.96</c:v>
@@ -1980,31 +1982,31 @@
                   <c:v>348.19</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>348.59899999999999</c:v>
+                  <c:v>348.599</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>349.00900000000001</c:v>
+                  <c:v>349.009</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>349.41899999999998</c:v>
+                  <c:v>349.419</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>349.82900000000001</c:v>
+                  <c:v>349.829</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>350.23899999999998</c:v>
+                  <c:v>350.239</c:v>
                 </c:pt>
                 <c:pt idx="440">
                   <c:v>350.649</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>351.05900000000003</c:v>
+                  <c:v>351.059</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>351.46899999999999</c:v>
+                  <c:v>351.469</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>351.87900000000002</c:v>
+                  <c:v>351.879</c:v>
                 </c:pt>
                 <c:pt idx="444">
                   <c:v>352.29</c:v>
@@ -2016,40 +2018,40 @@
                   <c:v>353.11</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>353.52100000000002</c:v>
+                  <c:v>353.521</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>353.93099999999998</c:v>
+                  <c:v>353.931</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>354.34100000000001</c:v>
+                  <c:v>354.341</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>354.75200000000001</c:v>
+                  <c:v>354.752</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>355.16199999999998</c:v>
+                  <c:v>355.162</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>355.57299999999998</c:v>
+                  <c:v>355.573</c:v>
                 </c:pt>
                 <c:pt idx="453">
                   <c:v>355.983</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>356.39400000000001</c:v>
+                  <c:v>356.394</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>356.80500000000001</c:v>
+                  <c:v>356.805</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>357.21499999999997</c:v>
+                  <c:v>357.215</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>357.62599999999998</c:v>
+                  <c:v>357.626</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>358.03699999999998</c:v>
+                  <c:v>358.037</c:v>
                 </c:pt>
                 <c:pt idx="459">
                   <c:v>358.447</c:v>
@@ -2058,34 +2060,34 @@
                   <c:v>358.858</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>359.26900000000001</c:v>
+                  <c:v>359.269</c:v>
                 </c:pt>
                 <c:pt idx="462">
                   <c:v>359.68</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>360.09100000000001</c:v>
+                  <c:v>360.091</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>360.50200000000001</c:v>
+                  <c:v>360.502</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>360.91300000000001</c:v>
+                  <c:v>360.913</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>361.32400000000001</c:v>
+                  <c:v>361.324</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>361.73500000000001</c:v>
+                  <c:v>361.735</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>362.14600000000002</c:v>
+                  <c:v>362.146</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>362.55799999999999</c:v>
+                  <c:v>362.558</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>362.96899999999999</c:v>
+                  <c:v>362.969</c:v>
                 </c:pt>
                 <c:pt idx="471">
                   <c:v>363.38</c:v>
@@ -2094,37 +2096,37 @@
                   <c:v>363.791</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>364.20299999999997</c:v>
+                  <c:v>364.203</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>364.61399999999998</c:v>
+                  <c:v>364.614</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>365.02600000000001</c:v>
+                  <c:v>365.026</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>365.43700000000001</c:v>
+                  <c:v>365.437</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>365.84899999999999</c:v>
+                  <c:v>365.849</c:v>
                 </c:pt>
                 <c:pt idx="478">
                   <c:v>366.26</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>366.67200000000003</c:v>
+                  <c:v>366.672</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>367.08300000000003</c:v>
+                  <c:v>367.083</c:v>
                 </c:pt>
                 <c:pt idx="481">
                   <c:v>367.495</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>367.90699999999998</c:v>
+                  <c:v>367.907</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>368.31900000000002</c:v>
+                  <c:v>368.319</c:v>
                 </c:pt>
                 <c:pt idx="484">
                   <c:v>368.73</c:v>
@@ -2133,13 +2135,13 @@
                   <c:v>369.142</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>369.55399999999997</c:v>
+                  <c:v>369.554</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>369.96600000000001</c:v>
+                  <c:v>369.966</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>370.37799999999999</c:v>
+                  <c:v>370.378</c:v>
                 </c:pt>
                 <c:pt idx="489">
                   <c:v>370.79</c:v>
@@ -2148,46 +2150,46 @@
                   <c:v>371.202</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>371.61399999999998</c:v>
+                  <c:v>371.614</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>372.02600000000001</c:v>
+                  <c:v>372.026</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>372.43799999999999</c:v>
+                  <c:v>372.438</c:v>
                 </c:pt>
                 <c:pt idx="494">
                   <c:v>372.85</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>373.26299999999998</c:v>
+                  <c:v>373.263</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>373.67500000000001</c:v>
+                  <c:v>373.675</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>374.08699999999999</c:v>
+                  <c:v>374.087</c:v>
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>374.5</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>374.91199999999998</c:v>
+                  <c:v>374.912</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>375.32400000000001</c:v>
+                  <c:v>375.324</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>375.73700000000002</c:v>
+                  <c:v>375.737</c:v>
                 </c:pt>
                 <c:pt idx="502">
                   <c:v>376.149</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>376.56200000000001</c:v>
+                  <c:v>376.562</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>376.97500000000002</c:v>
+                  <c:v>376.975</c:v>
                 </c:pt>
                 <c:pt idx="505">
                   <c:v>377.387</c:v>
@@ -2196,187 +2198,187 @@
                   <c:v>377.8</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>378.21199999999999</c:v>
+                  <c:v>378.212</c:v>
                 </c:pt>
                 <c:pt idx="508">
                   <c:v>378.625</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>379.03800000000001</c:v>
+                  <c:v>379.038</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>379.45100000000002</c:v>
+                  <c:v>379.451</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>379.86399999999998</c:v>
+                  <c:v>379.864</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>380.27699999999999</c:v>
+                  <c:v>380.277</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>380.68900000000002</c:v>
+                  <c:v>380.689</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>381.10199999999998</c:v>
+                  <c:v>381.102</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>381.51499999999999</c:v>
+                  <c:v>381.515</c:v>
                 </c:pt>
                 <c:pt idx="516">
                   <c:v>381.928</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>382.34199999999998</c:v>
+                  <c:v>382.342</c:v>
                 </c:pt>
                 <c:pt idx="518">
                   <c:v>382.755</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>383.16800000000001</c:v>
+                  <c:v>383.168</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>383.58100000000002</c:v>
+                  <c:v>383.581</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>383.99400000000003</c:v>
+                  <c:v>383.994</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>384.40800000000002</c:v>
+                  <c:v>384.408</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>384.82100000000003</c:v>
+                  <c:v>384.821</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>385.23399999999998</c:v>
+                  <c:v>385.234</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>385.64800000000002</c:v>
+                  <c:v>385.648</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>386.06099999999998</c:v>
+                  <c:v>386.061</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>386.47500000000002</c:v>
+                  <c:v>386.475</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>386.88799999999998</c:v>
+                  <c:v>386.888</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>387.30200000000002</c:v>
+                  <c:v>387.302</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>387.71499999999997</c:v>
+                  <c:v>387.715</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>388.12900000000002</c:v>
+                  <c:v>388.129</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>388.54199999999997</c:v>
+                  <c:v>388.542</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>388.95600000000002</c:v>
+                  <c:v>388.956</c:v>
                 </c:pt>
                 <c:pt idx="534">
                   <c:v>389.37</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>389.78399999999999</c:v>
+                  <c:v>389.784</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>390.19799999999998</c:v>
+                  <c:v>390.198</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>390.61099999999999</c:v>
+                  <c:v>390.611</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>391.02499999999998</c:v>
+                  <c:v>391.025</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>391.43900000000002</c:v>
+                  <c:v>391.439</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>391.85300000000001</c:v>
+                  <c:v>391.853</c:v>
                 </c:pt>
                 <c:pt idx="541">
                   <c:v>392.267</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>392.68099999999998</c:v>
+                  <c:v>392.681</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>393.09500000000003</c:v>
+                  <c:v>393.095</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>393.50900000000001</c:v>
+                  <c:v>393.509</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>393.92399999999998</c:v>
+                  <c:v>393.924</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>394.33800000000002</c:v>
+                  <c:v>394.338</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>394.75200000000001</c:v>
+                  <c:v>394.752</c:v>
                 </c:pt>
                 <c:pt idx="548">
                   <c:v>395.166</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>395.58100000000002</c:v>
+                  <c:v>395.581</c:v>
                 </c:pt>
                 <c:pt idx="550">
                   <c:v>395.995</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>396.40899999999999</c:v>
+                  <c:v>396.409</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>396.82400000000001</c:v>
+                  <c:v>396.824</c:v>
                 </c:pt>
                 <c:pt idx="553">
                   <c:v>397.238</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>397.65300000000002</c:v>
+                  <c:v>397.653</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>398.06700000000001</c:v>
+                  <c:v>398.067</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>398.48200000000003</c:v>
+                  <c:v>398.482</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>398.89699999999999</c:v>
+                  <c:v>398.897</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>399.31099999999998</c:v>
+                  <c:v>399.311</c:v>
                 </c:pt>
                 <c:pt idx="559">
                   <c:v>399.726</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>400.14100000000002</c:v>
+                  <c:v>400.141</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>400.55500000000001</c:v>
+                  <c:v>400.555</c:v>
                 </c:pt>
                 <c:pt idx="562">
                   <c:v>400.97</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>401.38499999999999</c:v>
+                  <c:v>401.385</c:v>
                 </c:pt>
                 <c:pt idx="564">
                   <c:v>401.8</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>402.21499999999997</c:v>
+                  <c:v>402.215</c:v>
                 </c:pt>
                 <c:pt idx="566">
                   <c:v>402.63</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>403.04500000000002</c:v>
+                  <c:v>403.045</c:v>
                 </c:pt>
                 <c:pt idx="568">
                   <c:v>403.46</c:v>
@@ -2388,7 +2390,7 @@
                   <c:v>404.29</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>404.70499999999998</c:v>
+                  <c:v>404.705</c:v>
                 </c:pt>
                 <c:pt idx="572">
                   <c:v>405.12</c:v>
@@ -2397,28 +2399,28 @@
                   <c:v>405.536</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>405.95100000000002</c:v>
+                  <c:v>405.951</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>406.36599999999999</c:v>
+                  <c:v>406.366</c:v>
                 </c:pt>
                 <c:pt idx="576">
-                  <c:v>406.78199999999998</c:v>
+                  <c:v>406.782</c:v>
                 </c:pt>
                 <c:pt idx="577">
                   <c:v>407.197</c:v>
                 </c:pt>
                 <c:pt idx="578">
-                  <c:v>407.61200000000002</c:v>
+                  <c:v>407.612</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>408.02800000000002</c:v>
+                  <c:v>408.028</c:v>
                 </c:pt>
                 <c:pt idx="580">
-                  <c:v>408.44299999999998</c:v>
+                  <c:v>408.443</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>408.85899999999998</c:v>
+                  <c:v>408.859</c:v>
                 </c:pt>
                 <c:pt idx="582">
                   <c:v>409.274</c:v>
@@ -2427,37 +2429,37 @@
                   <c:v>409.69</c:v>
                 </c:pt>
                 <c:pt idx="584">
-                  <c:v>410.10599999999999</c:v>
+                  <c:v>410.106</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>410.52100000000002</c:v>
+                  <c:v>410.521</c:v>
                 </c:pt>
                 <c:pt idx="586">
-                  <c:v>410.93700000000001</c:v>
+                  <c:v>410.937</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>411.35300000000001</c:v>
+                  <c:v>411.353</c:v>
                 </c:pt>
                 <c:pt idx="588">
-                  <c:v>411.76900000000001</c:v>
+                  <c:v>411.769</c:v>
                 </c:pt>
                 <c:pt idx="589">
-                  <c:v>412.18400000000003</c:v>
+                  <c:v>412.184</c:v>
                 </c:pt>
                 <c:pt idx="590">
                   <c:v>412.6</c:v>
                 </c:pt>
                 <c:pt idx="591">
-                  <c:v>413.01600000000002</c:v>
+                  <c:v>413.016</c:v>
                 </c:pt>
                 <c:pt idx="592">
-                  <c:v>413.43200000000002</c:v>
+                  <c:v>413.432</c:v>
                 </c:pt>
                 <c:pt idx="593">
-                  <c:v>413.84800000000001</c:v>
+                  <c:v>413.848</c:v>
                 </c:pt>
                 <c:pt idx="594">
-                  <c:v>414.26400000000001</c:v>
+                  <c:v>414.264</c:v>
                 </c:pt>
                 <c:pt idx="595">
                   <c:v>414.68</c:v>
@@ -2472,103 +2474,103 @@
                   <c:v>415.928</c:v>
                 </c:pt>
                 <c:pt idx="599">
-                  <c:v>416.34500000000003</c:v>
+                  <c:v>416.345</c:v>
                 </c:pt>
                 <c:pt idx="600">
-                  <c:v>416.76100000000002</c:v>
+                  <c:v>416.761</c:v>
                 </c:pt>
                 <c:pt idx="601">
-                  <c:v>417.17700000000002</c:v>
+                  <c:v>417.177</c:v>
                 </c:pt>
                 <c:pt idx="602">
-                  <c:v>417.59300000000002</c:v>
+                  <c:v>417.593</c:v>
                 </c:pt>
                 <c:pt idx="603">
                   <c:v>418.01</c:v>
                 </c:pt>
                 <c:pt idx="604">
-                  <c:v>418.42599999999999</c:v>
+                  <c:v>418.426</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>418.84300000000002</c:v>
+                  <c:v>418.843</c:v>
                 </c:pt>
                 <c:pt idx="606">
-                  <c:v>419.25900000000001</c:v>
+                  <c:v>419.259</c:v>
                 </c:pt>
                 <c:pt idx="607">
-                  <c:v>419.67599999999999</c:v>
+                  <c:v>419.676</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>420.09199999999998</c:v>
+                  <c:v>420.092</c:v>
                 </c:pt>
                 <c:pt idx="609">
-                  <c:v>420.50900000000001</c:v>
+                  <c:v>420.509</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>420.92500000000001</c:v>
+                  <c:v>420.925</c:v>
                 </c:pt>
                 <c:pt idx="611">
-                  <c:v>421.34199999999998</c:v>
+                  <c:v>421.342</c:v>
                 </c:pt>
                 <c:pt idx="612">
-                  <c:v>421.75900000000001</c:v>
+                  <c:v>421.759</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>422.17500000000001</c:v>
+                  <c:v>422.175</c:v>
                 </c:pt>
                 <c:pt idx="614">
-                  <c:v>422.59199999999998</c:v>
+                  <c:v>422.592</c:v>
                 </c:pt>
                 <c:pt idx="615">
-                  <c:v>423.00900000000001</c:v>
+                  <c:v>423.009</c:v>
                 </c:pt>
                 <c:pt idx="616">
-                  <c:v>423.42599999999999</c:v>
+                  <c:v>423.426</c:v>
                 </c:pt>
                 <c:pt idx="617">
-                  <c:v>423.84300000000002</c:v>
+                  <c:v>423.843</c:v>
                 </c:pt>
                 <c:pt idx="618">
-                  <c:v>424.25900000000001</c:v>
+                  <c:v>424.259</c:v>
                 </c:pt>
                 <c:pt idx="619">
-                  <c:v>424.67599999999999</c:v>
+                  <c:v>424.676</c:v>
                 </c:pt>
                 <c:pt idx="620">
-                  <c:v>425.09300000000002</c:v>
+                  <c:v>425.093</c:v>
                 </c:pt>
                 <c:pt idx="621">
                   <c:v>425.51</c:v>
                 </c:pt>
                 <c:pt idx="622">
-                  <c:v>425.92700000000002</c:v>
+                  <c:v>425.927</c:v>
                 </c:pt>
                 <c:pt idx="623">
-                  <c:v>426.34500000000003</c:v>
+                  <c:v>426.345</c:v>
                 </c:pt>
                 <c:pt idx="624">
                   <c:v>426.762</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>427.17899999999997</c:v>
+                  <c:v>427.179</c:v>
                 </c:pt>
                 <c:pt idx="626">
                   <c:v>427.596</c:v>
                 </c:pt>
                 <c:pt idx="627">
-                  <c:v>428.01299999999998</c:v>
+                  <c:v>428.013</c:v>
                 </c:pt>
                 <c:pt idx="628">
-                  <c:v>428.43099999999998</c:v>
+                  <c:v>428.431</c:v>
                 </c:pt>
                 <c:pt idx="629">
-                  <c:v>428.84800000000001</c:v>
+                  <c:v>428.848</c:v>
                 </c:pt>
                 <c:pt idx="630">
-                  <c:v>429.26499999999999</c:v>
+                  <c:v>429.265</c:v>
                 </c:pt>
                 <c:pt idx="631">
-                  <c:v>429.68299999999999</c:v>
+                  <c:v>429.683</c:v>
                 </c:pt>
                 <c:pt idx="632">
                   <c:v>430.1</c:v>
@@ -2580,46 +2582,46 @@
                   <c:v>430.935</c:v>
                 </c:pt>
                 <c:pt idx="635">
-                  <c:v>431.35199999999998</c:v>
+                  <c:v>431.352</c:v>
                 </c:pt>
                 <c:pt idx="636">
                   <c:v>431.77</c:v>
                 </c:pt>
                 <c:pt idx="637">
-                  <c:v>432.18799999999999</c:v>
+                  <c:v>432.188</c:v>
                 </c:pt>
                 <c:pt idx="638">
-                  <c:v>432.60500000000002</c:v>
+                  <c:v>432.605</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>433.02300000000002</c:v>
+                  <c:v>433.023</c:v>
                 </c:pt>
                 <c:pt idx="640">
-                  <c:v>433.44099999999997</c:v>
+                  <c:v>433.441</c:v>
                 </c:pt>
                 <c:pt idx="641">
                   <c:v>433.858</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>434.27600000000001</c:v>
+                  <c:v>434.276</c:v>
                 </c:pt>
                 <c:pt idx="643">
-                  <c:v>434.69400000000002</c:v>
+                  <c:v>434.694</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>435.11200000000002</c:v>
+                  <c:v>435.112</c:v>
                 </c:pt>
                 <c:pt idx="645">
                   <c:v>435.53</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>435.94799999999998</c:v>
+                  <c:v>435.948</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>436.36599999999999</c:v>
+                  <c:v>436.366</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>436.78399999999999</c:v>
+                  <c:v>436.784</c:v>
                 </c:pt>
                 <c:pt idx="649">
                   <c:v>437.202</c:v>
@@ -2628,130 +2630,130 @@
                   <c:v>437.62</c:v>
                 </c:pt>
                 <c:pt idx="651">
-                  <c:v>438.03800000000001</c:v>
+                  <c:v>438.038</c:v>
                 </c:pt>
                 <c:pt idx="652">
-                  <c:v>438.45600000000002</c:v>
+                  <c:v>438.456</c:v>
                 </c:pt>
                 <c:pt idx="653">
-                  <c:v>438.87400000000002</c:v>
+                  <c:v>438.874</c:v>
                 </c:pt>
                 <c:pt idx="654">
-                  <c:v>439.29199999999997</c:v>
+                  <c:v>439.292</c:v>
                 </c:pt>
                 <c:pt idx="655">
-                  <c:v>439.71100000000001</c:v>
+                  <c:v>439.711</c:v>
                 </c:pt>
                 <c:pt idx="656">
-                  <c:v>440.12900000000002</c:v>
+                  <c:v>440.129</c:v>
                 </c:pt>
                 <c:pt idx="657">
-                  <c:v>440.54700000000003</c:v>
+                  <c:v>440.547</c:v>
                 </c:pt>
                 <c:pt idx="658">
-                  <c:v>440.96499999999997</c:v>
+                  <c:v>440.965</c:v>
                 </c:pt>
                 <c:pt idx="659">
-                  <c:v>441.38400000000001</c:v>
+                  <c:v>441.384</c:v>
                 </c:pt>
                 <c:pt idx="660">
-                  <c:v>441.80200000000002</c:v>
+                  <c:v>441.802</c:v>
                 </c:pt>
                 <c:pt idx="661">
                   <c:v>442.221</c:v>
                 </c:pt>
                 <c:pt idx="662">
-                  <c:v>442.63900000000001</c:v>
+                  <c:v>442.639</c:v>
                 </c:pt>
                 <c:pt idx="663">
-                  <c:v>443.05799999999999</c:v>
+                  <c:v>443.058</c:v>
                 </c:pt>
                 <c:pt idx="664">
                   <c:v>443.476</c:v>
                 </c:pt>
                 <c:pt idx="665">
-                  <c:v>443.89499999999998</c:v>
+                  <c:v>443.895</c:v>
                 </c:pt>
                 <c:pt idx="666">
-                  <c:v>444.31400000000002</c:v>
+                  <c:v>444.314</c:v>
                 </c:pt>
                 <c:pt idx="667">
-                  <c:v>444.73200000000003</c:v>
+                  <c:v>444.732</c:v>
                 </c:pt>
                 <c:pt idx="668">
-                  <c:v>445.15100000000001</c:v>
+                  <c:v>445.151</c:v>
                 </c:pt>
                 <c:pt idx="669">
                   <c:v>445.57</c:v>
                 </c:pt>
                 <c:pt idx="670">
-                  <c:v>445.98899999999998</c:v>
+                  <c:v>445.989</c:v>
                 </c:pt>
                 <c:pt idx="671">
-                  <c:v>446.40699999999998</c:v>
+                  <c:v>446.407</c:v>
                 </c:pt>
                 <c:pt idx="672">
-                  <c:v>446.82600000000002</c:v>
+                  <c:v>446.826</c:v>
                 </c:pt>
                 <c:pt idx="673">
                   <c:v>447.245</c:v>
                 </c:pt>
                 <c:pt idx="674">
-                  <c:v>447.66399999999999</c:v>
+                  <c:v>447.664</c:v>
                 </c:pt>
                 <c:pt idx="675">
-                  <c:v>448.08300000000003</c:v>
+                  <c:v>448.083</c:v>
                 </c:pt>
                 <c:pt idx="676">
-                  <c:v>448.50200000000001</c:v>
+                  <c:v>448.502</c:v>
                 </c:pt>
                 <c:pt idx="677">
-                  <c:v>448.92099999999999</c:v>
+                  <c:v>448.921</c:v>
                 </c:pt>
                 <c:pt idx="678">
                   <c:v>449.34</c:v>
                 </c:pt>
                 <c:pt idx="679">
-                  <c:v>449.75900000000001</c:v>
+                  <c:v>449.759</c:v>
                 </c:pt>
                 <c:pt idx="680">
                   <c:v>450.178</c:v>
                 </c:pt>
                 <c:pt idx="681">
-                  <c:v>450.59800000000001</c:v>
+                  <c:v>450.598</c:v>
                 </c:pt>
                 <c:pt idx="682">
                   <c:v>451.017</c:v>
                 </c:pt>
                 <c:pt idx="683">
-                  <c:v>451.43599999999998</c:v>
+                  <c:v>451.436</c:v>
                 </c:pt>
                 <c:pt idx="684">
-                  <c:v>451.85500000000002</c:v>
+                  <c:v>451.855</c:v>
                 </c:pt>
                 <c:pt idx="685">
-                  <c:v>452.27499999999998</c:v>
+                  <c:v>452.275</c:v>
                 </c:pt>
                 <c:pt idx="686">
-                  <c:v>452.69400000000002</c:v>
+                  <c:v>452.694</c:v>
                 </c:pt>
                 <c:pt idx="687">
                   <c:v>453.113</c:v>
                 </c:pt>
                 <c:pt idx="688">
-                  <c:v>453.53300000000002</c:v>
+                  <c:v>453.533</c:v>
                 </c:pt>
                 <c:pt idx="689">
                   <c:v>453.952</c:v>
                 </c:pt>
                 <c:pt idx="690">
-                  <c:v>454.37200000000001</c:v>
+                  <c:v>454.372</c:v>
                 </c:pt>
                 <c:pt idx="691">
                   <c:v>454.791</c:v>
                 </c:pt>
                 <c:pt idx="692">
-                  <c:v>455.21100000000001</c:v>
+                  <c:v>455.211</c:v>
                 </c:pt>
                 <c:pt idx="693">
                   <c:v>455.63</c:v>
@@ -2763,52 +2765,52 @@
                   <c:v>456.47</c:v>
                 </c:pt>
                 <c:pt idx="696">
-                  <c:v>456.88900000000001</c:v>
+                  <c:v>456.889</c:v>
                 </c:pt>
                 <c:pt idx="697">
-                  <c:v>457.30900000000003</c:v>
+                  <c:v>457.309</c:v>
                 </c:pt>
                 <c:pt idx="698">
-                  <c:v>457.72899999999998</c:v>
+                  <c:v>457.729</c:v>
                 </c:pt>
                 <c:pt idx="699">
                   <c:v>458.149</c:v>
                 </c:pt>
                 <c:pt idx="700">
-                  <c:v>458.56900000000002</c:v>
+                  <c:v>458.569</c:v>
                 </c:pt>
                 <c:pt idx="701">
-                  <c:v>458.98899999999998</c:v>
+                  <c:v>458.989</c:v>
                 </c:pt>
                 <c:pt idx="702">
-                  <c:v>459.40800000000002</c:v>
+                  <c:v>459.408</c:v>
                 </c:pt>
                 <c:pt idx="703">
-                  <c:v>459.82799999999997</c:v>
+                  <c:v>459.828</c:v>
                 </c:pt>
                 <c:pt idx="704">
-                  <c:v>460.24799999999999</c:v>
+                  <c:v>460.248</c:v>
                 </c:pt>
                 <c:pt idx="705">
-                  <c:v>460.66800000000001</c:v>
+                  <c:v>460.668</c:v>
                 </c:pt>
                 <c:pt idx="706">
                   <c:v>461.089</c:v>
                 </c:pt>
                 <c:pt idx="707">
-                  <c:v>461.50900000000001</c:v>
+                  <c:v>461.509</c:v>
                 </c:pt>
                 <c:pt idx="708">
-                  <c:v>461.92899999999997</c:v>
+                  <c:v>461.929</c:v>
                 </c:pt>
                 <c:pt idx="709">
-                  <c:v>462.34899999999999</c:v>
+                  <c:v>462.349</c:v>
                 </c:pt>
                 <c:pt idx="710">
-                  <c:v>462.76900000000001</c:v>
+                  <c:v>462.769</c:v>
                 </c:pt>
                 <c:pt idx="711">
-                  <c:v>463.18900000000002</c:v>
+                  <c:v>463.189</c:v>
                 </c:pt>
                 <c:pt idx="712">
                   <c:v>463.61</c:v>
@@ -2820,43 +2822,43 @@
                   <c:v>464.45</c:v>
                 </c:pt>
                 <c:pt idx="715">
-                  <c:v>464.87099999999998</c:v>
+                  <c:v>464.871</c:v>
                 </c:pt>
                 <c:pt idx="716">
                   <c:v>465.291</c:v>
                 </c:pt>
                 <c:pt idx="717">
-                  <c:v>465.71100000000001</c:v>
+                  <c:v>465.711</c:v>
                 </c:pt>
                 <c:pt idx="718">
-                  <c:v>466.13200000000001</c:v>
+                  <c:v>466.132</c:v>
                 </c:pt>
                 <c:pt idx="719">
-                  <c:v>466.55200000000002</c:v>
+                  <c:v>466.552</c:v>
                 </c:pt>
                 <c:pt idx="720">
-                  <c:v>466.97300000000001</c:v>
+                  <c:v>466.973</c:v>
                 </c:pt>
                 <c:pt idx="721">
-                  <c:v>467.39400000000001</c:v>
+                  <c:v>467.394</c:v>
                 </c:pt>
                 <c:pt idx="722">
-                  <c:v>467.81400000000002</c:v>
+                  <c:v>467.814</c:v>
                 </c:pt>
                 <c:pt idx="723">
-                  <c:v>468.23500000000001</c:v>
+                  <c:v>468.235</c:v>
                 </c:pt>
                 <c:pt idx="724">
-                  <c:v>468.65600000000001</c:v>
+                  <c:v>468.656</c:v>
                 </c:pt>
                 <c:pt idx="725">
-                  <c:v>469.07600000000002</c:v>
+                  <c:v>469.076</c:v>
                 </c:pt>
                 <c:pt idx="726">
-                  <c:v>469.49700000000001</c:v>
+                  <c:v>469.497</c:v>
                 </c:pt>
                 <c:pt idx="727">
-                  <c:v>469.91800000000001</c:v>
+                  <c:v>469.918</c:v>
                 </c:pt>
                 <c:pt idx="728">
                   <c:v>470.339</c:v>
@@ -2871,562 +2873,562 @@
                   <c:v>471.601</c:v>
                 </c:pt>
                 <c:pt idx="732">
-                  <c:v>472.02199999999999</c:v>
+                  <c:v>472.022</c:v>
                 </c:pt>
                 <c:pt idx="733">
-                  <c:v>472.44299999999998</c:v>
+                  <c:v>472.443</c:v>
                 </c:pt>
                 <c:pt idx="734">
-                  <c:v>472.86399999999998</c:v>
+                  <c:v>472.864</c:v>
                 </c:pt>
                 <c:pt idx="735">
-                  <c:v>473.28500000000003</c:v>
+                  <c:v>473.285</c:v>
                 </c:pt>
                 <c:pt idx="736">
-                  <c:v>473.70600000000002</c:v>
+                  <c:v>473.706</c:v>
                 </c:pt>
                 <c:pt idx="737">
-                  <c:v>474.12799999999999</c:v>
+                  <c:v>474.128</c:v>
                 </c:pt>
                 <c:pt idx="738">
-                  <c:v>474.54899999999998</c:v>
+                  <c:v>474.549</c:v>
                 </c:pt>
                 <c:pt idx="739">
                   <c:v>474.97</c:v>
                 </c:pt>
                 <c:pt idx="740">
-                  <c:v>475.39100000000002</c:v>
+                  <c:v>475.391</c:v>
                 </c:pt>
                 <c:pt idx="741">
-                  <c:v>475.81299999999999</c:v>
+                  <c:v>475.813</c:v>
                 </c:pt>
                 <c:pt idx="742">
-                  <c:v>476.23399999999998</c:v>
+                  <c:v>476.234</c:v>
                 </c:pt>
                 <c:pt idx="743">
-                  <c:v>476.65499999999997</c:v>
+                  <c:v>476.655</c:v>
                 </c:pt>
                 <c:pt idx="744">
                   <c:v>477.077</c:v>
                 </c:pt>
                 <c:pt idx="745">
-                  <c:v>477.49799999999999</c:v>
+                  <c:v>477.498</c:v>
                 </c:pt>
                 <c:pt idx="746">
-                  <c:v>477.91899999999998</c:v>
+                  <c:v>477.919</c:v>
                 </c:pt>
                 <c:pt idx="747">
-                  <c:v>478.34100000000001</c:v>
+                  <c:v>478.341</c:v>
                 </c:pt>
                 <c:pt idx="748">
                   <c:v>478.762</c:v>
                 </c:pt>
                 <c:pt idx="749">
-                  <c:v>479.18400000000003</c:v>
+                  <c:v>479.184</c:v>
                 </c:pt>
                 <c:pt idx="750">
-                  <c:v>479.60599999999999</c:v>
+                  <c:v>479.606</c:v>
                 </c:pt>
                 <c:pt idx="751">
-                  <c:v>480.02699999999999</c:v>
+                  <c:v>480.027</c:v>
                 </c:pt>
                 <c:pt idx="752">
-                  <c:v>480.44900000000001</c:v>
+                  <c:v>480.449</c:v>
                 </c:pt>
                 <c:pt idx="753">
                   <c:v>480.87</c:v>
                 </c:pt>
                 <c:pt idx="754">
-                  <c:v>481.29199999999997</c:v>
+                  <c:v>481.292</c:v>
                 </c:pt>
                 <c:pt idx="755">
                   <c:v>481.714</c:v>
                 </c:pt>
                 <c:pt idx="756">
-                  <c:v>482.13600000000002</c:v>
+                  <c:v>482.136</c:v>
                 </c:pt>
                 <c:pt idx="757">
-                  <c:v>482.55799999999999</c:v>
+                  <c:v>482.558</c:v>
                 </c:pt>
                 <c:pt idx="758">
-                  <c:v>482.97899999999998</c:v>
+                  <c:v>482.979</c:v>
                 </c:pt>
                 <c:pt idx="759">
-                  <c:v>483.40100000000001</c:v>
+                  <c:v>483.401</c:v>
                 </c:pt>
                 <c:pt idx="760">
-                  <c:v>483.82299999999998</c:v>
+                  <c:v>483.823</c:v>
                 </c:pt>
                 <c:pt idx="761">
                   <c:v>484.245</c:v>
                 </c:pt>
                 <c:pt idx="762">
-                  <c:v>484.66699999999997</c:v>
+                  <c:v>484.667</c:v>
                 </c:pt>
                 <c:pt idx="763">
                   <c:v>485.089</c:v>
                 </c:pt>
                 <c:pt idx="764">
-                  <c:v>485.51100000000002</c:v>
+                  <c:v>485.511</c:v>
                 </c:pt>
                 <c:pt idx="765">
-                  <c:v>485.93299999999999</c:v>
+                  <c:v>485.933</c:v>
                 </c:pt>
                 <c:pt idx="766">
-                  <c:v>486.35500000000002</c:v>
+                  <c:v>486.355</c:v>
                 </c:pt>
                 <c:pt idx="767">
-                  <c:v>486.77800000000002</c:v>
+                  <c:v>486.778</c:v>
                 </c:pt>
                 <c:pt idx="768">
                   <c:v>487.2</c:v>
                 </c:pt>
                 <c:pt idx="769">
-                  <c:v>487.62200000000001</c:v>
+                  <c:v>487.622</c:v>
                 </c:pt>
                 <c:pt idx="770">
-                  <c:v>488.04399999999998</c:v>
+                  <c:v>488.044</c:v>
                 </c:pt>
                 <c:pt idx="771">
-                  <c:v>488.46699999999998</c:v>
+                  <c:v>488.467</c:v>
                 </c:pt>
                 <c:pt idx="772">
-                  <c:v>488.88900000000001</c:v>
+                  <c:v>488.889</c:v>
                 </c:pt>
                 <c:pt idx="773">
-                  <c:v>489.31099999999998</c:v>
+                  <c:v>489.311</c:v>
                 </c:pt>
                 <c:pt idx="774">
-                  <c:v>489.73399999999998</c:v>
+                  <c:v>489.734</c:v>
                 </c:pt>
                 <c:pt idx="775">
-                  <c:v>490.15600000000001</c:v>
+                  <c:v>490.156</c:v>
                 </c:pt>
                 <c:pt idx="776">
-                  <c:v>490.57900000000001</c:v>
+                  <c:v>490.579</c:v>
                 </c:pt>
                 <c:pt idx="777">
-                  <c:v>491.00099999999998</c:v>
+                  <c:v>491.001</c:v>
                 </c:pt>
                 <c:pt idx="778">
-                  <c:v>491.42399999999998</c:v>
+                  <c:v>491.424</c:v>
                 </c:pt>
                 <c:pt idx="779">
                   <c:v>491.846</c:v>
                 </c:pt>
                 <c:pt idx="780">
-                  <c:v>492.26900000000001</c:v>
+                  <c:v>492.269</c:v>
                 </c:pt>
                 <c:pt idx="781">
-                  <c:v>492.69099999999997</c:v>
+                  <c:v>492.691</c:v>
                 </c:pt>
                 <c:pt idx="782">
-                  <c:v>493.11399999999998</c:v>
+                  <c:v>493.114</c:v>
                 </c:pt>
                 <c:pt idx="783">
-                  <c:v>493.53699999999998</c:v>
+                  <c:v>493.537</c:v>
                 </c:pt>
                 <c:pt idx="784">
                   <c:v>493.959</c:v>
                 </c:pt>
                 <c:pt idx="785">
-                  <c:v>494.38200000000001</c:v>
+                  <c:v>494.382</c:v>
                 </c:pt>
                 <c:pt idx="786">
-                  <c:v>494.80500000000001</c:v>
+                  <c:v>494.805</c:v>
                 </c:pt>
                 <c:pt idx="787">
-                  <c:v>495.22800000000001</c:v>
+                  <c:v>495.228</c:v>
                 </c:pt>
                 <c:pt idx="788">
-                  <c:v>495.65100000000001</c:v>
+                  <c:v>495.651</c:v>
                 </c:pt>
                 <c:pt idx="789">
-                  <c:v>496.07400000000001</c:v>
+                  <c:v>496.074</c:v>
                 </c:pt>
                 <c:pt idx="790">
-                  <c:v>496.49700000000001</c:v>
+                  <c:v>496.497</c:v>
                 </c:pt>
                 <c:pt idx="791">
-                  <c:v>496.91899999999998</c:v>
+                  <c:v>496.919</c:v>
                 </c:pt>
                 <c:pt idx="792">
-                  <c:v>497.34199999999998</c:v>
+                  <c:v>497.342</c:v>
                 </c:pt>
                 <c:pt idx="793">
-                  <c:v>497.76600000000002</c:v>
+                  <c:v>497.766</c:v>
                 </c:pt>
                 <c:pt idx="794">
-                  <c:v>498.18900000000002</c:v>
+                  <c:v>498.189</c:v>
                 </c:pt>
                 <c:pt idx="795">
-                  <c:v>498.61200000000002</c:v>
+                  <c:v>498.612</c:v>
                 </c:pt>
                 <c:pt idx="796">
-                  <c:v>499.03500000000003</c:v>
+                  <c:v>499.035</c:v>
                 </c:pt>
                 <c:pt idx="797">
-                  <c:v>499.45800000000003</c:v>
+                  <c:v>499.458</c:v>
                 </c:pt>
                 <c:pt idx="798">
-                  <c:v>499.88099999999997</c:v>
+                  <c:v>499.881</c:v>
                 </c:pt>
                 <c:pt idx="799">
-                  <c:v>500.30399999999997</c:v>
+                  <c:v>500.304</c:v>
                 </c:pt>
                 <c:pt idx="800">
-                  <c:v>500.72800000000001</c:v>
+                  <c:v>500.728</c:v>
                 </c:pt>
                 <c:pt idx="801">
-                  <c:v>501.15100000000001</c:v>
+                  <c:v>501.151</c:v>
                 </c:pt>
                 <c:pt idx="802">
-                  <c:v>501.57400000000001</c:v>
+                  <c:v>501.574</c:v>
                 </c:pt>
                 <c:pt idx="803">
-                  <c:v>501.99799999999999</c:v>
+                  <c:v>501.998</c:v>
                 </c:pt>
                 <c:pt idx="804">
-                  <c:v>502.42099999999999</c:v>
+                  <c:v>502.421</c:v>
                 </c:pt>
                 <c:pt idx="805">
-                  <c:v>502.84399999999999</c:v>
+                  <c:v>502.844</c:v>
                 </c:pt>
                 <c:pt idx="806">
-                  <c:v>503.26799999999997</c:v>
+                  <c:v>503.268</c:v>
                 </c:pt>
                 <c:pt idx="807">
-                  <c:v>503.69099999999997</c:v>
+                  <c:v>503.691</c:v>
                 </c:pt>
                 <c:pt idx="808">
-                  <c:v>504.11500000000001</c:v>
+                  <c:v>504.115</c:v>
                 </c:pt>
                 <c:pt idx="809">
-                  <c:v>504.53899999999999</c:v>
+                  <c:v>504.539</c:v>
                 </c:pt>
                 <c:pt idx="810">
-                  <c:v>504.96199999999999</c:v>
+                  <c:v>504.962</c:v>
                 </c:pt>
                 <c:pt idx="811">
-                  <c:v>505.38600000000002</c:v>
+                  <c:v>505.386</c:v>
                 </c:pt>
                 <c:pt idx="812">
-                  <c:v>505.80900000000003</c:v>
+                  <c:v>505.809</c:v>
                 </c:pt>
                 <c:pt idx="813">
                   <c:v>506.233</c:v>
                 </c:pt>
                 <c:pt idx="814">
-                  <c:v>506.65699999999998</c:v>
+                  <c:v>506.657</c:v>
                 </c:pt>
                 <c:pt idx="815">
-                  <c:v>507.08100000000002</c:v>
+                  <c:v>507.081</c:v>
                 </c:pt>
                 <c:pt idx="816">
-                  <c:v>507.50400000000002</c:v>
+                  <c:v>507.504</c:v>
                 </c:pt>
                 <c:pt idx="817">
                   <c:v>507.928</c:v>
                 </c:pt>
                 <c:pt idx="818">
-                  <c:v>508.35199999999998</c:v>
+                  <c:v>508.352</c:v>
                 </c:pt>
                 <c:pt idx="819">
-                  <c:v>508.77600000000001</c:v>
+                  <c:v>508.776</c:v>
                 </c:pt>
                 <c:pt idx="820">
                   <c:v>509.2</c:v>
                 </c:pt>
                 <c:pt idx="821">
-                  <c:v>509.62400000000002</c:v>
+                  <c:v>509.624</c:v>
                 </c:pt>
                 <c:pt idx="822">
                   <c:v>510.048</c:v>
                 </c:pt>
                 <c:pt idx="823">
-                  <c:v>510.47199999999998</c:v>
+                  <c:v>510.472</c:v>
                 </c:pt>
                 <c:pt idx="824">
-                  <c:v>510.89600000000002</c:v>
+                  <c:v>510.896</c:v>
                 </c:pt>
                 <c:pt idx="825">
                   <c:v>511.32</c:v>
                 </c:pt>
                 <c:pt idx="826">
-                  <c:v>511.74400000000003</c:v>
+                  <c:v>511.744</c:v>
                 </c:pt>
                 <c:pt idx="827">
-                  <c:v>512.16800000000001</c:v>
+                  <c:v>512.168</c:v>
                 </c:pt>
                 <c:pt idx="828">
-                  <c:v>512.59199999999998</c:v>
+                  <c:v>512.592</c:v>
                 </c:pt>
                 <c:pt idx="829">
-                  <c:v>513.01700000000005</c:v>
+                  <c:v>513.017</c:v>
                 </c:pt>
                 <c:pt idx="830">
-                  <c:v>513.44100000000003</c:v>
+                  <c:v>513.441</c:v>
                 </c:pt>
                 <c:pt idx="831">
-                  <c:v>513.86500000000001</c:v>
+                  <c:v>513.865</c:v>
                 </c:pt>
                 <c:pt idx="832">
-                  <c:v>514.28899999999999</c:v>
+                  <c:v>514.289</c:v>
                 </c:pt>
                 <c:pt idx="833">
-                  <c:v>514.71400000000006</c:v>
+                  <c:v>514.714</c:v>
                 </c:pt>
                 <c:pt idx="834">
-                  <c:v>515.13800000000003</c:v>
+                  <c:v>515.138</c:v>
                 </c:pt>
                 <c:pt idx="835">
-                  <c:v>515.56299999999999</c:v>
+                  <c:v>515.563</c:v>
                 </c:pt>
                 <c:pt idx="836">
-                  <c:v>515.98699999999997</c:v>
+                  <c:v>515.987</c:v>
                 </c:pt>
                 <c:pt idx="837">
-                  <c:v>516.41099999999994</c:v>
+                  <c:v>516.411</c:v>
                 </c:pt>
                 <c:pt idx="838">
-                  <c:v>516.83600000000001</c:v>
+                  <c:v>516.836</c:v>
                 </c:pt>
                 <c:pt idx="839">
-                  <c:v>517.26099999999997</c:v>
+                  <c:v>517.261</c:v>
                 </c:pt>
                 <c:pt idx="840">
-                  <c:v>517.68499999999995</c:v>
+                  <c:v>517.685</c:v>
                 </c:pt>
                 <c:pt idx="841">
                   <c:v>518.11</c:v>
                 </c:pt>
                 <c:pt idx="842">
-                  <c:v>518.53399999999999</c:v>
+                  <c:v>518.534</c:v>
                 </c:pt>
                 <c:pt idx="843">
-                  <c:v>518.95899999999995</c:v>
+                  <c:v>518.959</c:v>
                 </c:pt>
                 <c:pt idx="844">
-                  <c:v>519.38400000000001</c:v>
+                  <c:v>519.384</c:v>
                 </c:pt>
                 <c:pt idx="845">
-                  <c:v>519.80799999999999</c:v>
+                  <c:v>519.808</c:v>
                 </c:pt>
                 <c:pt idx="846">
-                  <c:v>520.23299999999995</c:v>
+                  <c:v>520.233</c:v>
                 </c:pt>
                 <c:pt idx="847">
-                  <c:v>520.65800000000002</c:v>
+                  <c:v>520.658</c:v>
                 </c:pt>
                 <c:pt idx="848">
-                  <c:v>521.08299999999997</c:v>
+                  <c:v>521.083</c:v>
                 </c:pt>
                 <c:pt idx="849">
-                  <c:v>521.50800000000004</c:v>
+                  <c:v>521.508</c:v>
                 </c:pt>
                 <c:pt idx="850">
-                  <c:v>521.93299999999999</c:v>
+                  <c:v>521.933</c:v>
                 </c:pt>
                 <c:pt idx="851">
-                  <c:v>522.35799999999995</c:v>
+                  <c:v>522.358</c:v>
                 </c:pt>
                 <c:pt idx="852">
-                  <c:v>522.78200000000004</c:v>
+                  <c:v>522.782</c:v>
                 </c:pt>
                 <c:pt idx="853">
-                  <c:v>523.20699999999999</c:v>
+                  <c:v>523.207</c:v>
                 </c:pt>
                 <c:pt idx="854">
-                  <c:v>523.63199999999995</c:v>
+                  <c:v>523.632</c:v>
                 </c:pt>
                 <c:pt idx="855">
-                  <c:v>524.05799999999999</c:v>
+                  <c:v>524.058</c:v>
                 </c:pt>
                 <c:pt idx="856">
-                  <c:v>524.48299999999995</c:v>
+                  <c:v>524.483</c:v>
                 </c:pt>
                 <c:pt idx="857">
-                  <c:v>524.90800000000002</c:v>
+                  <c:v>524.908</c:v>
                 </c:pt>
                 <c:pt idx="858">
-                  <c:v>525.33299999999997</c:v>
+                  <c:v>525.333</c:v>
                 </c:pt>
                 <c:pt idx="859">
-                  <c:v>525.75800000000004</c:v>
+                  <c:v>525.758</c:v>
                 </c:pt>
                 <c:pt idx="860">
-                  <c:v>526.18299999999999</c:v>
+                  <c:v>526.183</c:v>
                 </c:pt>
                 <c:pt idx="861">
-                  <c:v>526.60900000000004</c:v>
+                  <c:v>526.609</c:v>
                 </c:pt>
                 <c:pt idx="862">
-                  <c:v>527.03399999999999</c:v>
+                  <c:v>527.034</c:v>
                 </c:pt>
                 <c:pt idx="863">
-                  <c:v>527.45899999999995</c:v>
+                  <c:v>527.459</c:v>
                 </c:pt>
                 <c:pt idx="864">
-                  <c:v>527.88400000000001</c:v>
+                  <c:v>527.884</c:v>
                 </c:pt>
                 <c:pt idx="865">
-                  <c:v>528.30999999999995</c:v>
+                  <c:v>528.31</c:v>
                 </c:pt>
                 <c:pt idx="866">
-                  <c:v>528.73500000000001</c:v>
+                  <c:v>528.735</c:v>
                 </c:pt>
                 <c:pt idx="867">
-                  <c:v>529.16099999999994</c:v>
+                  <c:v>529.161</c:v>
                 </c:pt>
                 <c:pt idx="868">
-                  <c:v>529.58600000000001</c:v>
+                  <c:v>529.586</c:v>
                 </c:pt>
                 <c:pt idx="869">
-                  <c:v>530.01199999999994</c:v>
+                  <c:v>530.012</c:v>
                 </c:pt>
                 <c:pt idx="870">
-                  <c:v>530.43700000000001</c:v>
+                  <c:v>530.437</c:v>
                 </c:pt>
                 <c:pt idx="871">
-                  <c:v>530.86300000000006</c:v>
+                  <c:v>530.863</c:v>
                 </c:pt>
                 <c:pt idx="872">
-                  <c:v>531.28800000000001</c:v>
+                  <c:v>531.288</c:v>
                 </c:pt>
                 <c:pt idx="873">
-                  <c:v>531.71400000000006</c:v>
+                  <c:v>531.714</c:v>
                 </c:pt>
                 <c:pt idx="874">
                   <c:v>532.14</c:v>
                 </c:pt>
                 <c:pt idx="875">
-                  <c:v>532.56500000000005</c:v>
+                  <c:v>532.565</c:v>
                 </c:pt>
                 <c:pt idx="876">
-                  <c:v>532.99099999999999</c:v>
+                  <c:v>532.991</c:v>
                 </c:pt>
                 <c:pt idx="877">
-                  <c:v>533.41700000000003</c:v>
+                  <c:v>533.417</c:v>
                 </c:pt>
                 <c:pt idx="878">
-                  <c:v>533.84299999999996</c:v>
+                  <c:v>533.843</c:v>
                 </c:pt>
                 <c:pt idx="879">
-                  <c:v>534.26800000000003</c:v>
+                  <c:v>534.268</c:v>
                 </c:pt>
                 <c:pt idx="880">
-                  <c:v>534.69399999999996</c:v>
+                  <c:v>534.694</c:v>
                 </c:pt>
                 <c:pt idx="881">
                   <c:v>535.12</c:v>
                 </c:pt>
                 <c:pt idx="882">
-                  <c:v>535.54600000000005</c:v>
+                  <c:v>535.546</c:v>
                 </c:pt>
                 <c:pt idx="883">
-                  <c:v>535.97199999999998</c:v>
+                  <c:v>535.972</c:v>
                 </c:pt>
                 <c:pt idx="884">
-                  <c:v>536.39800000000002</c:v>
+                  <c:v>536.398</c:v>
                 </c:pt>
                 <c:pt idx="885">
-                  <c:v>536.82399999999996</c:v>
+                  <c:v>536.824</c:v>
                 </c:pt>
                 <c:pt idx="886">
                   <c:v>537.25</c:v>
                 </c:pt>
                 <c:pt idx="887">
-                  <c:v>537.67600000000004</c:v>
+                  <c:v>537.676</c:v>
                 </c:pt>
                 <c:pt idx="888">
-                  <c:v>538.10199999999998</c:v>
+                  <c:v>538.102</c:v>
                 </c:pt>
                 <c:pt idx="889">
-                  <c:v>538.52800000000002</c:v>
+                  <c:v>538.528</c:v>
                 </c:pt>
                 <c:pt idx="890">
-                  <c:v>538.95399999999995</c:v>
+                  <c:v>538.954</c:v>
                 </c:pt>
                 <c:pt idx="891">
-                  <c:v>539.38099999999997</c:v>
+                  <c:v>539.381</c:v>
                 </c:pt>
                 <c:pt idx="892">
-                  <c:v>539.80700000000002</c:v>
+                  <c:v>539.807</c:v>
                 </c:pt>
                 <c:pt idx="893">
-                  <c:v>540.23299999999995</c:v>
+                  <c:v>540.233</c:v>
                 </c:pt>
                 <c:pt idx="894">
-                  <c:v>540.65899999999999</c:v>
+                  <c:v>540.659</c:v>
                 </c:pt>
                 <c:pt idx="895">
-                  <c:v>541.08600000000001</c:v>
+                  <c:v>541.086</c:v>
                 </c:pt>
                 <c:pt idx="896">
-                  <c:v>541.51199999999994</c:v>
+                  <c:v>541.512</c:v>
                 </c:pt>
                 <c:pt idx="897">
-                  <c:v>541.93799999999999</c:v>
+                  <c:v>541.938</c:v>
                 </c:pt>
                 <c:pt idx="898">
-                  <c:v>542.36500000000001</c:v>
+                  <c:v>542.365</c:v>
                 </c:pt>
                 <c:pt idx="899">
-                  <c:v>542.79100000000005</c:v>
+                  <c:v>542.791</c:v>
                 </c:pt>
                 <c:pt idx="900">
-                  <c:v>543.21799999999996</c:v>
+                  <c:v>543.218</c:v>
                 </c:pt>
                 <c:pt idx="901">
-                  <c:v>543.64400000000001</c:v>
+                  <c:v>543.644</c:v>
                 </c:pt>
                 <c:pt idx="902">
-                  <c:v>544.07100000000003</c:v>
+                  <c:v>544.071</c:v>
                 </c:pt>
                 <c:pt idx="903">
-                  <c:v>544.49699999999996</c:v>
+                  <c:v>544.497</c:v>
                 </c:pt>
                 <c:pt idx="904">
-                  <c:v>544.92399999999998</c:v>
+                  <c:v>544.924</c:v>
                 </c:pt>
                 <c:pt idx="905">
                   <c:v>545.351</c:v>
                 </c:pt>
                 <c:pt idx="906">
-                  <c:v>545.77700000000004</c:v>
+                  <c:v>545.777</c:v>
                 </c:pt>
                 <c:pt idx="907">
-                  <c:v>546.20399999999995</c:v>
+                  <c:v>546.204</c:v>
                 </c:pt>
                 <c:pt idx="908">
-                  <c:v>546.63099999999997</c:v>
+                  <c:v>546.631</c:v>
                 </c:pt>
                 <c:pt idx="909">
-                  <c:v>547.05700000000002</c:v>
+                  <c:v>547.057</c:v>
                 </c:pt>
                 <c:pt idx="910">
-                  <c:v>547.48400000000004</c:v>
+                  <c:v>547.484</c:v>
                 </c:pt>
                 <c:pt idx="911">
-                  <c:v>547.91099999999994</c:v>
+                  <c:v>547.911</c:v>
                 </c:pt>
                 <c:pt idx="912">
-                  <c:v>548.33799999999997</c:v>
+                  <c:v>548.338</c:v>
                 </c:pt>
                 <c:pt idx="913">
-                  <c:v>548.76499999999999</c:v>
+                  <c:v>548.765</c:v>
                 </c:pt>
                 <c:pt idx="914">
-                  <c:v>549.19200000000001</c:v>
+                  <c:v>549.192</c:v>
                 </c:pt>
                 <c:pt idx="915">
-                  <c:v>549.61900000000003</c:v>
+                  <c:v>549.619</c:v>
                 </c:pt>
                 <c:pt idx="916">
-                  <c:v>550.04600000000005</c:v>
+                  <c:v>550.046</c:v>
                 </c:pt>
                 <c:pt idx="917">
-                  <c:v>550.47299999999996</c:v>
+                  <c:v>550.473</c:v>
                 </c:pt>
                 <c:pt idx="918">
                   <c:v>550.9</c:v>
@@ -3435,109 +3437,109 @@
                   <c:v>551.327</c:v>
                 </c:pt>
                 <c:pt idx="920">
-                  <c:v>551.75400000000002</c:v>
+                  <c:v>551.754</c:v>
                 </c:pt>
                 <c:pt idx="921">
-                  <c:v>552.18100000000004</c:v>
+                  <c:v>552.181</c:v>
                 </c:pt>
                 <c:pt idx="922">
-                  <c:v>552.60799999999995</c:v>
+                  <c:v>552.608</c:v>
                 </c:pt>
                 <c:pt idx="923">
-                  <c:v>553.03499999999997</c:v>
+                  <c:v>553.035</c:v>
                 </c:pt>
                 <c:pt idx="924">
-                  <c:v>553.46199999999999</c:v>
+                  <c:v>553.462</c:v>
                 </c:pt>
                 <c:pt idx="925">
                   <c:v>553.89</c:v>
                 </c:pt>
                 <c:pt idx="926">
-                  <c:v>554.31700000000001</c:v>
+                  <c:v>554.317</c:v>
                 </c:pt>
                 <c:pt idx="927">
-                  <c:v>554.74400000000003</c:v>
+                  <c:v>554.744</c:v>
                 </c:pt>
                 <c:pt idx="928">
-                  <c:v>555.17200000000003</c:v>
+                  <c:v>555.172</c:v>
                 </c:pt>
                 <c:pt idx="929">
-                  <c:v>555.59900000000005</c:v>
+                  <c:v>555.599</c:v>
                 </c:pt>
                 <c:pt idx="930">
-                  <c:v>556.02599999999995</c:v>
+                  <c:v>556.026</c:v>
                 </c:pt>
                 <c:pt idx="931">
-                  <c:v>556.45399999999995</c:v>
+                  <c:v>556.454</c:v>
                 </c:pt>
                 <c:pt idx="932">
-                  <c:v>556.88099999999997</c:v>
+                  <c:v>556.881</c:v>
                 </c:pt>
                 <c:pt idx="933">
-                  <c:v>557.30899999999997</c:v>
+                  <c:v>557.309</c:v>
                 </c:pt>
                 <c:pt idx="934">
-                  <c:v>557.73599999999999</c:v>
+                  <c:v>557.736</c:v>
                 </c:pt>
                 <c:pt idx="935">
-                  <c:v>558.16399999999999</c:v>
+                  <c:v>558.164</c:v>
                 </c:pt>
                 <c:pt idx="936">
-                  <c:v>558.59100000000001</c:v>
+                  <c:v>558.591</c:v>
                 </c:pt>
                 <c:pt idx="937">
-                  <c:v>559.01900000000001</c:v>
+                  <c:v>559.019</c:v>
                 </c:pt>
                 <c:pt idx="938">
                   <c:v>559.447</c:v>
                 </c:pt>
                 <c:pt idx="939">
-                  <c:v>559.87400000000002</c:v>
+                  <c:v>559.874</c:v>
                 </c:pt>
                 <c:pt idx="940">
-                  <c:v>560.30200000000002</c:v>
+                  <c:v>560.302</c:v>
                 </c:pt>
                 <c:pt idx="941">
                   <c:v>560.73</c:v>
                 </c:pt>
                 <c:pt idx="942">
-                  <c:v>561.15800000000002</c:v>
+                  <c:v>561.158</c:v>
                 </c:pt>
                 <c:pt idx="943">
-                  <c:v>561.58500000000004</c:v>
+                  <c:v>561.585</c:v>
                 </c:pt>
                 <c:pt idx="944">
-                  <c:v>562.01300000000003</c:v>
+                  <c:v>562.013</c:v>
                 </c:pt>
                 <c:pt idx="945">
-                  <c:v>562.44100000000003</c:v>
+                  <c:v>562.441</c:v>
                 </c:pt>
                 <c:pt idx="946">
-                  <c:v>562.86900000000003</c:v>
+                  <c:v>562.869</c:v>
                 </c:pt>
                 <c:pt idx="947">
-                  <c:v>563.29700000000003</c:v>
+                  <c:v>563.297</c:v>
                 </c:pt>
                 <c:pt idx="948">
-                  <c:v>563.72500000000002</c:v>
+                  <c:v>563.725</c:v>
                 </c:pt>
                 <c:pt idx="949">
-                  <c:v>564.15300000000002</c:v>
+                  <c:v>564.153</c:v>
                 </c:pt>
                 <c:pt idx="950">
-                  <c:v>564.58100000000002</c:v>
+                  <c:v>564.581</c:v>
                 </c:pt>
                 <c:pt idx="951">
-                  <c:v>565.00900000000001</c:v>
+                  <c:v>565.009</c:v>
                 </c:pt>
                 <c:pt idx="952">
-                  <c:v>565.43700000000001</c:v>
+                  <c:v>565.437</c:v>
                 </c:pt>
                 <c:pt idx="953">
-                  <c:v>565.86500000000001</c:v>
+                  <c:v>565.865</c:v>
                 </c:pt>
                 <c:pt idx="954">
-                  <c:v>566.29300000000001</c:v>
+                  <c:v>566.293</c:v>
                 </c:pt>
                 <c:pt idx="955">
                   <c:v>566.721</c:v>
@@ -3546,127 +3548,127 @@
                   <c:v>567.149</c:v>
                 </c:pt>
                 <c:pt idx="957">
-                  <c:v>567.57799999999997</c:v>
+                  <c:v>567.578</c:v>
                 </c:pt>
                 <c:pt idx="958">
-                  <c:v>568.00599999999997</c:v>
+                  <c:v>568.006</c:v>
                 </c:pt>
                 <c:pt idx="959">
-                  <c:v>568.43399999999997</c:v>
+                  <c:v>568.434</c:v>
                 </c:pt>
                 <c:pt idx="960">
-                  <c:v>568.86199999999997</c:v>
+                  <c:v>568.862</c:v>
                 </c:pt>
                 <c:pt idx="961">
-                  <c:v>569.29100000000005</c:v>
+                  <c:v>569.291</c:v>
                 </c:pt>
                 <c:pt idx="962">
-                  <c:v>569.71900000000005</c:v>
+                  <c:v>569.719</c:v>
                 </c:pt>
                 <c:pt idx="963">
-                  <c:v>570.14800000000002</c:v>
+                  <c:v>570.148</c:v>
                 </c:pt>
                 <c:pt idx="964">
-                  <c:v>570.57600000000002</c:v>
+                  <c:v>570.576</c:v>
                 </c:pt>
                 <c:pt idx="965">
-                  <c:v>571.00400000000002</c:v>
+                  <c:v>571.004</c:v>
                 </c:pt>
                 <c:pt idx="966">
-                  <c:v>571.43299999999999</c:v>
+                  <c:v>571.433</c:v>
                 </c:pt>
                 <c:pt idx="967">
-                  <c:v>571.86099999999999</c:v>
+                  <c:v>571.861</c:v>
                 </c:pt>
                 <c:pt idx="968">
                   <c:v>572.29</c:v>
                 </c:pt>
                 <c:pt idx="969">
-                  <c:v>572.71900000000005</c:v>
+                  <c:v>572.719</c:v>
                 </c:pt>
                 <c:pt idx="970">
-                  <c:v>573.14700000000005</c:v>
+                  <c:v>573.147</c:v>
                 </c:pt>
                 <c:pt idx="971">
-                  <c:v>573.57600000000002</c:v>
+                  <c:v>573.576</c:v>
                 </c:pt>
                 <c:pt idx="972">
-                  <c:v>574.00400000000002</c:v>
+                  <c:v>574.004</c:v>
                 </c:pt>
                 <c:pt idx="973">
-                  <c:v>574.43299999999999</c:v>
+                  <c:v>574.433</c:v>
                 </c:pt>
                 <c:pt idx="974">
-                  <c:v>574.86199999999997</c:v>
+                  <c:v>574.862</c:v>
                 </c:pt>
                 <c:pt idx="975">
-                  <c:v>575.29100000000005</c:v>
+                  <c:v>575.291</c:v>
                 </c:pt>
                 <c:pt idx="976">
-                  <c:v>575.71900000000005</c:v>
+                  <c:v>575.719</c:v>
                 </c:pt>
                 <c:pt idx="977">
-                  <c:v>576.14800000000002</c:v>
+                  <c:v>576.148</c:v>
                 </c:pt>
                 <c:pt idx="978">
                   <c:v>576.577</c:v>
                 </c:pt>
                 <c:pt idx="979">
-                  <c:v>577.00599999999997</c:v>
+                  <c:v>577.006</c:v>
                 </c:pt>
                 <c:pt idx="980">
-                  <c:v>577.43499999999995</c:v>
+                  <c:v>577.435</c:v>
                 </c:pt>
                 <c:pt idx="981">
-                  <c:v>577.86400000000003</c:v>
+                  <c:v>577.864</c:v>
                 </c:pt>
                 <c:pt idx="982">
-                  <c:v>578.29300000000001</c:v>
+                  <c:v>578.293</c:v>
                 </c:pt>
                 <c:pt idx="983">
-                  <c:v>578.72199999999998</c:v>
+                  <c:v>578.722</c:v>
                 </c:pt>
                 <c:pt idx="984">
-                  <c:v>579.15099999999995</c:v>
+                  <c:v>579.151</c:v>
                 </c:pt>
                 <c:pt idx="985">
-                  <c:v>579.58000000000004</c:v>
+                  <c:v>579.58</c:v>
                 </c:pt>
                 <c:pt idx="986">
-                  <c:v>580.00900000000001</c:v>
+                  <c:v>580.009</c:v>
                 </c:pt>
                 <c:pt idx="987">
-                  <c:v>580.43799999999999</c:v>
+                  <c:v>580.438</c:v>
                 </c:pt>
                 <c:pt idx="988">
-                  <c:v>580.86699999999996</c:v>
+                  <c:v>580.867</c:v>
                 </c:pt>
                 <c:pt idx="989">
-                  <c:v>581.29600000000005</c:v>
+                  <c:v>581.296</c:v>
                 </c:pt>
                 <c:pt idx="990">
-                  <c:v>581.72500000000002</c:v>
+                  <c:v>581.725</c:v>
                 </c:pt>
                 <c:pt idx="991">
-                  <c:v>582.15499999999997</c:v>
+                  <c:v>582.155</c:v>
                 </c:pt>
                 <c:pt idx="992">
-                  <c:v>582.58399999999995</c:v>
+                  <c:v>582.584</c:v>
                 </c:pt>
                 <c:pt idx="993">
-                  <c:v>583.01300000000003</c:v>
+                  <c:v>583.013</c:v>
                 </c:pt>
                 <c:pt idx="994">
-                  <c:v>583.44299999999998</c:v>
+                  <c:v>583.443</c:v>
                 </c:pt>
                 <c:pt idx="995">
-                  <c:v>583.87199999999996</c:v>
+                  <c:v>583.872</c:v>
                 </c:pt>
                 <c:pt idx="996">
-                  <c:v>584.30100000000004</c:v>
+                  <c:v>584.301</c:v>
                 </c:pt>
                 <c:pt idx="997">
-                  <c:v>584.73099999999999</c:v>
+                  <c:v>584.731</c:v>
                 </c:pt>
                 <c:pt idx="998">
                   <c:v>585.16</c:v>
@@ -3675,202 +3677,202 @@
                   <c:v>585.59</c:v>
                 </c:pt>
                 <c:pt idx="1000">
-                  <c:v>586.01900000000001</c:v>
+                  <c:v>586.019</c:v>
                 </c:pt>
                 <c:pt idx="1001">
-                  <c:v>586.44899999999996</c:v>
+                  <c:v>586.449</c:v>
                 </c:pt>
                 <c:pt idx="1002">
-                  <c:v>586.87800000000004</c:v>
+                  <c:v>586.878</c:v>
                 </c:pt>
                 <c:pt idx="1003">
-                  <c:v>587.30799999999999</c:v>
+                  <c:v>587.308</c:v>
                 </c:pt>
                 <c:pt idx="1004">
-                  <c:v>587.73699999999997</c:v>
+                  <c:v>587.737</c:v>
                 </c:pt>
                 <c:pt idx="1005">
-                  <c:v>588.16700000000003</c:v>
+                  <c:v>588.167</c:v>
                 </c:pt>
                 <c:pt idx="1006">
-                  <c:v>588.59699999999998</c:v>
+                  <c:v>588.597</c:v>
                 </c:pt>
                 <c:pt idx="1007">
-                  <c:v>589.02599999999995</c:v>
+                  <c:v>589.026</c:v>
                 </c:pt>
                 <c:pt idx="1008">
-                  <c:v>589.45600000000002</c:v>
+                  <c:v>589.456</c:v>
                 </c:pt>
                 <c:pt idx="1009">
-                  <c:v>589.88599999999997</c:v>
+                  <c:v>589.886</c:v>
                 </c:pt>
                 <c:pt idx="1010">
-                  <c:v>590.31500000000005</c:v>
+                  <c:v>590.315</c:v>
                 </c:pt>
                 <c:pt idx="1011">
                   <c:v>590.745</c:v>
                 </c:pt>
                 <c:pt idx="1012">
-                  <c:v>591.17499999999995</c:v>
+                  <c:v>591.175</c:v>
                 </c:pt>
                 <c:pt idx="1013">
-                  <c:v>591.60500000000002</c:v>
+                  <c:v>591.605</c:v>
                 </c:pt>
                 <c:pt idx="1014">
-                  <c:v>592.03499999999997</c:v>
+                  <c:v>592.035</c:v>
                 </c:pt>
                 <c:pt idx="1015">
-                  <c:v>592.46500000000003</c:v>
+                  <c:v>592.465</c:v>
                 </c:pt>
                 <c:pt idx="1016">
-                  <c:v>592.89499999999998</c:v>
+                  <c:v>592.895</c:v>
                 </c:pt>
                 <c:pt idx="1017">
-                  <c:v>593.32500000000005</c:v>
+                  <c:v>593.325</c:v>
                 </c:pt>
                 <c:pt idx="1018">
                   <c:v>593.755</c:v>
                 </c:pt>
                 <c:pt idx="1019">
-                  <c:v>594.18499999999995</c:v>
+                  <c:v>594.185</c:v>
                 </c:pt>
                 <c:pt idx="1020">
-                  <c:v>594.61500000000001</c:v>
+                  <c:v>594.615</c:v>
                 </c:pt>
                 <c:pt idx="1021">
-                  <c:v>595.04499999999996</c:v>
+                  <c:v>595.045</c:v>
                 </c:pt>
                 <c:pt idx="1022">
-                  <c:v>595.47500000000002</c:v>
+                  <c:v>595.475</c:v>
                 </c:pt>
                 <c:pt idx="1023">
-                  <c:v>595.90499999999997</c:v>
+                  <c:v>595.905</c:v>
                 </c:pt>
                 <c:pt idx="1024">
-                  <c:v>596.33500000000004</c:v>
+                  <c:v>596.335</c:v>
                 </c:pt>
                 <c:pt idx="1025">
-                  <c:v>596.76599999999996</c:v>
+                  <c:v>596.766</c:v>
                 </c:pt>
                 <c:pt idx="1026">
-                  <c:v>597.19600000000003</c:v>
+                  <c:v>597.196</c:v>
                 </c:pt>
                 <c:pt idx="1027">
-                  <c:v>597.62599999999998</c:v>
+                  <c:v>597.626</c:v>
                 </c:pt>
                 <c:pt idx="1028">
-                  <c:v>598.05600000000004</c:v>
+                  <c:v>598.056</c:v>
                 </c:pt>
                 <c:pt idx="1029">
-                  <c:v>598.48699999999997</c:v>
+                  <c:v>598.487</c:v>
                 </c:pt>
                 <c:pt idx="1030">
-                  <c:v>598.91700000000003</c:v>
+                  <c:v>598.917</c:v>
                 </c:pt>
                 <c:pt idx="1031">
-                  <c:v>599.34699999999998</c:v>
+                  <c:v>599.347</c:v>
                 </c:pt>
                 <c:pt idx="1032">
-                  <c:v>599.77800000000002</c:v>
+                  <c:v>599.778</c:v>
                 </c:pt>
                 <c:pt idx="1033">
-                  <c:v>600.20799999999997</c:v>
+                  <c:v>600.208</c:v>
                 </c:pt>
                 <c:pt idx="1034">
-                  <c:v>600.63900000000001</c:v>
+                  <c:v>600.639</c:v>
                 </c:pt>
                 <c:pt idx="1035">
-                  <c:v>601.06899999999996</c:v>
+                  <c:v>601.069</c:v>
                 </c:pt>
                 <c:pt idx="1036">
                   <c:v>601.5</c:v>
                 </c:pt>
                 <c:pt idx="1037">
-                  <c:v>601.92999999999995</c:v>
+                  <c:v>601.93</c:v>
                 </c:pt>
                 <c:pt idx="1038">
-                  <c:v>602.36099999999999</c:v>
+                  <c:v>602.361</c:v>
                 </c:pt>
                 <c:pt idx="1039">
-                  <c:v>602.79100000000005</c:v>
+                  <c:v>602.791</c:v>
                 </c:pt>
                 <c:pt idx="1040">
-                  <c:v>603.22199999999998</c:v>
+                  <c:v>603.222</c:v>
                 </c:pt>
                 <c:pt idx="1041">
-                  <c:v>603.65300000000002</c:v>
+                  <c:v>603.653</c:v>
                 </c:pt>
                 <c:pt idx="1042">
-                  <c:v>604.08299999999997</c:v>
+                  <c:v>604.083</c:v>
                 </c:pt>
                 <c:pt idx="1043">
-                  <c:v>604.51400000000001</c:v>
+                  <c:v>604.514</c:v>
                 </c:pt>
                 <c:pt idx="1044">
-                  <c:v>604.94500000000005</c:v>
+                  <c:v>604.945</c:v>
                 </c:pt>
                 <c:pt idx="1045">
-                  <c:v>605.37599999999998</c:v>
+                  <c:v>605.376</c:v>
                 </c:pt>
                 <c:pt idx="1046">
-                  <c:v>605.80600000000004</c:v>
+                  <c:v>605.806</c:v>
                 </c:pt>
                 <c:pt idx="1047">
-                  <c:v>606.23699999999997</c:v>
+                  <c:v>606.237</c:v>
                 </c:pt>
                 <c:pt idx="1048">
-                  <c:v>606.66800000000001</c:v>
+                  <c:v>606.668</c:v>
                 </c:pt>
                 <c:pt idx="1049">
-                  <c:v>607.09900000000005</c:v>
+                  <c:v>607.099</c:v>
                 </c:pt>
                 <c:pt idx="1050">
                   <c:v>607.53</c:v>
                 </c:pt>
                 <c:pt idx="1051">
-                  <c:v>607.96100000000001</c:v>
+                  <c:v>607.961</c:v>
                 </c:pt>
                 <c:pt idx="1052">
-                  <c:v>608.39200000000005</c:v>
+                  <c:v>608.392</c:v>
                 </c:pt>
                 <c:pt idx="1053">
-                  <c:v>608.82299999999998</c:v>
+                  <c:v>608.823</c:v>
                 </c:pt>
                 <c:pt idx="1054">
-                  <c:v>609.25400000000002</c:v>
+                  <c:v>609.254</c:v>
                 </c:pt>
                 <c:pt idx="1055">
-                  <c:v>609.68499999999995</c:v>
+                  <c:v>609.685</c:v>
                 </c:pt>
                 <c:pt idx="1056">
-                  <c:v>610.11599999999999</c:v>
+                  <c:v>610.116</c:v>
                 </c:pt>
                 <c:pt idx="1057">
-                  <c:v>610.54700000000003</c:v>
+                  <c:v>610.547</c:v>
                 </c:pt>
                 <c:pt idx="1058">
-                  <c:v>610.97799999999995</c:v>
+                  <c:v>610.978</c:v>
                 </c:pt>
                 <c:pt idx="1059">
-                  <c:v>611.40899999999999</c:v>
+                  <c:v>611.409</c:v>
                 </c:pt>
                 <c:pt idx="1060">
-                  <c:v>611.84100000000001</c:v>
+                  <c:v>611.841</c:v>
                 </c:pt>
                 <c:pt idx="1061">
-                  <c:v>612.27200000000005</c:v>
+                  <c:v>612.272</c:v>
                 </c:pt>
                 <c:pt idx="1062">
-                  <c:v>612.70299999999997</c:v>
+                  <c:v>612.703</c:v>
                 </c:pt>
                 <c:pt idx="1063">
-                  <c:v>613.13400000000001</c:v>
+                  <c:v>613.134</c:v>
                 </c:pt>
                 <c:pt idx="1064">
-                  <c:v>613.56600000000003</c:v>
+                  <c:v>613.566</c:v>
                 </c:pt>
                 <c:pt idx="1065">
-                  <c:v>613.99699999999996</c:v>
+                  <c:v>613.997</c:v>
                 </c:pt>
                 <c:pt idx="1066">
                   <c:v>614.428</c:v>
@@ -3879,73 +3881,73 @@
                   <c:v>614.86</c:v>
                 </c:pt>
                 <c:pt idx="1068">
-                  <c:v>615.29100000000005</c:v>
+                  <c:v>615.291</c:v>
                 </c:pt>
                 <c:pt idx="1069">
-                  <c:v>615.72299999999996</c:v>
+                  <c:v>615.723</c:v>
                 </c:pt>
                 <c:pt idx="1070">
                   <c:v>616.154</c:v>
                 </c:pt>
                 <c:pt idx="1071">
-                  <c:v>616.58600000000001</c:v>
+                  <c:v>616.586</c:v>
                 </c:pt>
                 <c:pt idx="1072">
-                  <c:v>617.01700000000005</c:v>
+                  <c:v>617.017</c:v>
                 </c:pt>
                 <c:pt idx="1073">
-                  <c:v>617.44899999999996</c:v>
+                  <c:v>617.449</c:v>
                 </c:pt>
                 <c:pt idx="1074">
                   <c:v>617.88</c:v>
                 </c:pt>
                 <c:pt idx="1075">
-                  <c:v>618.31200000000001</c:v>
+                  <c:v>618.312</c:v>
                 </c:pt>
                 <c:pt idx="1076">
-                  <c:v>618.74400000000003</c:v>
+                  <c:v>618.744</c:v>
                 </c:pt>
                 <c:pt idx="1077">
-                  <c:v>619.17499999999995</c:v>
+                  <c:v>619.175</c:v>
                 </c:pt>
                 <c:pt idx="1078">
-                  <c:v>619.60699999999997</c:v>
+                  <c:v>619.607</c:v>
                 </c:pt>
                 <c:pt idx="1079">
-                  <c:v>620.03899999999999</c:v>
+                  <c:v>620.039</c:v>
                 </c:pt>
                 <c:pt idx="1080">
                   <c:v>620.47</c:v>
                 </c:pt>
                 <c:pt idx="1081">
-                  <c:v>620.90200000000004</c:v>
+                  <c:v>620.902</c:v>
                 </c:pt>
                 <c:pt idx="1082">
-                  <c:v>621.33399999999995</c:v>
+                  <c:v>621.334</c:v>
                 </c:pt>
                 <c:pt idx="1083">
-                  <c:v>621.76599999999996</c:v>
+                  <c:v>621.766</c:v>
                 </c:pt>
                 <c:pt idx="1084">
-                  <c:v>622.19799999999998</c:v>
+                  <c:v>622.198</c:v>
                 </c:pt>
                 <c:pt idx="1085">
                   <c:v>622.63</c:v>
                 </c:pt>
                 <c:pt idx="1086">
-                  <c:v>623.06200000000001</c:v>
+                  <c:v>623.062</c:v>
                 </c:pt>
                 <c:pt idx="1087">
-                  <c:v>623.49300000000005</c:v>
+                  <c:v>623.493</c:v>
                 </c:pt>
                 <c:pt idx="1088">
-                  <c:v>623.92499999999995</c:v>
+                  <c:v>623.925</c:v>
                 </c:pt>
                 <c:pt idx="1089">
-                  <c:v>624.35699999999997</c:v>
+                  <c:v>624.357</c:v>
                 </c:pt>
                 <c:pt idx="1090">
-                  <c:v>624.78899999999999</c:v>
+                  <c:v>624.789</c:v>
                 </c:pt>
                 <c:pt idx="1091">
                   <c:v>625.221</c:v>
@@ -3954,421 +3956,421 @@
                   <c:v>625.654</c:v>
                 </c:pt>
                 <c:pt idx="1093">
-                  <c:v>626.08600000000001</c:v>
+                  <c:v>626.086</c:v>
                 </c:pt>
                 <c:pt idx="1094">
-                  <c:v>626.51800000000003</c:v>
+                  <c:v>626.518</c:v>
                 </c:pt>
                 <c:pt idx="1095">
-                  <c:v>626.95000000000005</c:v>
+                  <c:v>626.95</c:v>
                 </c:pt>
                 <c:pt idx="1096">
-                  <c:v>627.38199999999995</c:v>
+                  <c:v>627.382</c:v>
                 </c:pt>
                 <c:pt idx="1097">
-                  <c:v>627.81399999999996</c:v>
+                  <c:v>627.814</c:v>
                 </c:pt>
                 <c:pt idx="1098">
-                  <c:v>628.24699999999996</c:v>
+                  <c:v>628.247</c:v>
                 </c:pt>
                 <c:pt idx="1099">
-                  <c:v>628.67899999999997</c:v>
+                  <c:v>628.679</c:v>
                 </c:pt>
                 <c:pt idx="1100">
-                  <c:v>629.11099999999999</c:v>
+                  <c:v>629.111</c:v>
                 </c:pt>
                 <c:pt idx="1101">
-                  <c:v>629.54399999999998</c:v>
+                  <c:v>629.544</c:v>
                 </c:pt>
                 <c:pt idx="1102">
                   <c:v>629.976</c:v>
                 </c:pt>
                 <c:pt idx="1103">
-                  <c:v>630.40800000000002</c:v>
+                  <c:v>630.408</c:v>
                 </c:pt>
                 <c:pt idx="1104">
-                  <c:v>630.84100000000001</c:v>
+                  <c:v>630.841</c:v>
                 </c:pt>
                 <c:pt idx="1105">
-                  <c:v>631.27300000000002</c:v>
+                  <c:v>631.273</c:v>
                 </c:pt>
                 <c:pt idx="1106">
-                  <c:v>631.70600000000002</c:v>
+                  <c:v>631.706</c:v>
                 </c:pt>
                 <c:pt idx="1107">
-                  <c:v>632.13800000000003</c:v>
+                  <c:v>632.138</c:v>
                 </c:pt>
                 <c:pt idx="1108">
-                  <c:v>632.57100000000003</c:v>
+                  <c:v>632.571</c:v>
                 </c:pt>
                 <c:pt idx="1109">
-                  <c:v>633.00300000000004</c:v>
+                  <c:v>633.003</c:v>
                 </c:pt>
                 <c:pt idx="1110">
-                  <c:v>633.43600000000004</c:v>
+                  <c:v>633.436</c:v>
                 </c:pt>
                 <c:pt idx="1111">
-                  <c:v>633.86800000000005</c:v>
+                  <c:v>633.868</c:v>
                 </c:pt>
                 <c:pt idx="1112">
-                  <c:v>634.30100000000004</c:v>
+                  <c:v>634.301</c:v>
                 </c:pt>
                 <c:pt idx="1113">
-                  <c:v>634.73299999999995</c:v>
+                  <c:v>634.733</c:v>
                 </c:pt>
                 <c:pt idx="1114">
-                  <c:v>635.16600000000005</c:v>
+                  <c:v>635.166</c:v>
                 </c:pt>
                 <c:pt idx="1115">
-                  <c:v>635.59900000000005</c:v>
+                  <c:v>635.599</c:v>
                 </c:pt>
                 <c:pt idx="1116">
-                  <c:v>636.03200000000004</c:v>
+                  <c:v>636.032</c:v>
                 </c:pt>
                 <c:pt idx="1117">
-                  <c:v>636.46400000000006</c:v>
+                  <c:v>636.464</c:v>
                 </c:pt>
                 <c:pt idx="1118">
-                  <c:v>636.89700000000005</c:v>
+                  <c:v>636.897</c:v>
                 </c:pt>
                 <c:pt idx="1119">
-                  <c:v>637.33000000000004</c:v>
+                  <c:v>637.33</c:v>
                 </c:pt>
                 <c:pt idx="1120">
-                  <c:v>637.76300000000003</c:v>
+                  <c:v>637.763</c:v>
                 </c:pt>
                 <c:pt idx="1121">
-                  <c:v>638.19600000000003</c:v>
+                  <c:v>638.196</c:v>
                 </c:pt>
                 <c:pt idx="1122">
-                  <c:v>638.62900000000002</c:v>
+                  <c:v>638.629</c:v>
                 </c:pt>
                 <c:pt idx="1123">
-                  <c:v>639.06100000000004</c:v>
+                  <c:v>639.061</c:v>
                 </c:pt>
                 <c:pt idx="1124">
-                  <c:v>639.49400000000003</c:v>
+                  <c:v>639.494</c:v>
                 </c:pt>
                 <c:pt idx="1125">
-                  <c:v>639.92700000000002</c:v>
+                  <c:v>639.927</c:v>
                 </c:pt>
                 <c:pt idx="1126">
                   <c:v>640.36</c:v>
                 </c:pt>
                 <c:pt idx="1127">
-                  <c:v>640.79300000000001</c:v>
+                  <c:v>640.793</c:v>
                 </c:pt>
                 <c:pt idx="1128">
                   <c:v>641.226</c:v>
                 </c:pt>
                 <c:pt idx="1129">
-                  <c:v>641.65899999999999</c:v>
+                  <c:v>641.659</c:v>
                 </c:pt>
                 <c:pt idx="1130">
-                  <c:v>642.09299999999996</c:v>
+                  <c:v>642.093</c:v>
                 </c:pt>
                 <c:pt idx="1131">
-                  <c:v>642.52599999999995</c:v>
+                  <c:v>642.526</c:v>
                 </c:pt>
                 <c:pt idx="1132">
-                  <c:v>642.95899999999995</c:v>
+                  <c:v>642.959</c:v>
                 </c:pt>
                 <c:pt idx="1133">
-                  <c:v>643.39200000000005</c:v>
+                  <c:v>643.392</c:v>
                 </c:pt>
                 <c:pt idx="1134">
-                  <c:v>643.82500000000005</c:v>
+                  <c:v>643.825</c:v>
                 </c:pt>
                 <c:pt idx="1135">
-                  <c:v>644.25800000000004</c:v>
+                  <c:v>644.258</c:v>
                 </c:pt>
                 <c:pt idx="1136">
-                  <c:v>644.69200000000001</c:v>
+                  <c:v>644.692</c:v>
                 </c:pt>
                 <c:pt idx="1137">
                   <c:v>645.125</c:v>
                 </c:pt>
                 <c:pt idx="1138">
-                  <c:v>645.55799999999999</c:v>
+                  <c:v>645.558</c:v>
                 </c:pt>
                 <c:pt idx="1139">
-                  <c:v>645.99199999999996</c:v>
+                  <c:v>645.992</c:v>
                 </c:pt>
                 <c:pt idx="1140">
-                  <c:v>646.42499999999995</c:v>
+                  <c:v>646.425</c:v>
                 </c:pt>
                 <c:pt idx="1141">
-                  <c:v>646.85799999999995</c:v>
+                  <c:v>646.858</c:v>
                 </c:pt>
                 <c:pt idx="1142">
-                  <c:v>647.29200000000003</c:v>
+                  <c:v>647.292</c:v>
                 </c:pt>
                 <c:pt idx="1143">
-                  <c:v>647.72500000000002</c:v>
+                  <c:v>647.725</c:v>
                 </c:pt>
                 <c:pt idx="1144">
-                  <c:v>648.15899999999999</c:v>
+                  <c:v>648.159</c:v>
                 </c:pt>
                 <c:pt idx="1145">
-                  <c:v>648.59199999999998</c:v>
+                  <c:v>648.592</c:v>
                 </c:pt>
                 <c:pt idx="1146">
-                  <c:v>649.02599999999995</c:v>
+                  <c:v>649.026</c:v>
                 </c:pt>
                 <c:pt idx="1147">
-                  <c:v>649.45899999999995</c:v>
+                  <c:v>649.459</c:v>
                 </c:pt>
                 <c:pt idx="1148">
-                  <c:v>649.89300000000003</c:v>
+                  <c:v>649.893</c:v>
                 </c:pt>
                 <c:pt idx="1149">
-                  <c:v>650.32600000000002</c:v>
+                  <c:v>650.326</c:v>
                 </c:pt>
                 <c:pt idx="1150">
                   <c:v>650.76</c:v>
                 </c:pt>
                 <c:pt idx="1151">
-                  <c:v>651.19399999999996</c:v>
+                  <c:v>651.194</c:v>
                 </c:pt>
                 <c:pt idx="1152">
-                  <c:v>651.62699999999995</c:v>
+                  <c:v>651.627</c:v>
                 </c:pt>
                 <c:pt idx="1153">
-                  <c:v>652.06100000000004</c:v>
+                  <c:v>652.061</c:v>
                 </c:pt>
                 <c:pt idx="1154">
                   <c:v>652.495</c:v>
                 </c:pt>
                 <c:pt idx="1155">
-                  <c:v>652.92899999999997</c:v>
+                  <c:v>652.929</c:v>
                 </c:pt>
                 <c:pt idx="1156">
-                  <c:v>653.36199999999997</c:v>
+                  <c:v>653.362</c:v>
                 </c:pt>
                 <c:pt idx="1157">
-                  <c:v>653.79600000000005</c:v>
+                  <c:v>653.796</c:v>
                 </c:pt>
                 <c:pt idx="1158">
                   <c:v>654.23</c:v>
                 </c:pt>
                 <c:pt idx="1159">
-                  <c:v>654.66399999999999</c:v>
+                  <c:v>654.664</c:v>
                 </c:pt>
                 <c:pt idx="1160">
-                  <c:v>655.09799999999996</c:v>
+                  <c:v>655.098</c:v>
                 </c:pt>
                 <c:pt idx="1161">
-                  <c:v>655.53200000000004</c:v>
+                  <c:v>655.532</c:v>
                 </c:pt>
                 <c:pt idx="1162">
-                  <c:v>655.96600000000001</c:v>
+                  <c:v>655.966</c:v>
                 </c:pt>
                 <c:pt idx="1163">
                   <c:v>656.4</c:v>
                 </c:pt>
                 <c:pt idx="1164">
-                  <c:v>656.83399999999995</c:v>
+                  <c:v>656.834</c:v>
                 </c:pt>
                 <c:pt idx="1165">
-                  <c:v>657.26800000000003</c:v>
+                  <c:v>657.268</c:v>
                 </c:pt>
                 <c:pt idx="1166">
                   <c:v>657.702</c:v>
                 </c:pt>
                 <c:pt idx="1167">
-                  <c:v>658.13599999999997</c:v>
+                  <c:v>658.136</c:v>
                 </c:pt>
                 <c:pt idx="1168">
                   <c:v>658.57</c:v>
                 </c:pt>
                 <c:pt idx="1169">
-                  <c:v>659.00400000000002</c:v>
+                  <c:v>659.004</c:v>
                 </c:pt>
                 <c:pt idx="1170">
-                  <c:v>659.43799999999999</c:v>
+                  <c:v>659.438</c:v>
                 </c:pt>
                 <c:pt idx="1171">
-                  <c:v>659.87199999999996</c:v>
+                  <c:v>659.872</c:v>
                 </c:pt>
                 <c:pt idx="1172">
-                  <c:v>660.30600000000004</c:v>
+                  <c:v>660.306</c:v>
                 </c:pt>
                 <c:pt idx="1173">
-                  <c:v>660.74099999999999</c:v>
+                  <c:v>660.741</c:v>
                 </c:pt>
                 <c:pt idx="1174">
-                  <c:v>661.17499999999995</c:v>
+                  <c:v>661.175</c:v>
                 </c:pt>
                 <c:pt idx="1175">
-                  <c:v>661.60900000000004</c:v>
+                  <c:v>661.609</c:v>
                 </c:pt>
                 <c:pt idx="1176">
-                  <c:v>662.04300000000001</c:v>
+                  <c:v>662.043</c:v>
                 </c:pt>
                 <c:pt idx="1177">
-                  <c:v>662.47799999999995</c:v>
+                  <c:v>662.478</c:v>
                 </c:pt>
                 <c:pt idx="1178">
-                  <c:v>662.91200000000003</c:v>
+                  <c:v>662.912</c:v>
                 </c:pt>
                 <c:pt idx="1179">
-                  <c:v>663.34699999999998</c:v>
+                  <c:v>663.347</c:v>
                 </c:pt>
                 <c:pt idx="1180">
-                  <c:v>663.78099999999995</c:v>
+                  <c:v>663.781</c:v>
                 </c:pt>
                 <c:pt idx="1181">
-                  <c:v>664.21500000000003</c:v>
+                  <c:v>664.215</c:v>
                 </c:pt>
                 <c:pt idx="1182">
                   <c:v>664.65</c:v>
                 </c:pt>
                 <c:pt idx="1183">
-                  <c:v>665.08399999999995</c:v>
+                  <c:v>665.084</c:v>
                 </c:pt>
                 <c:pt idx="1184">
-                  <c:v>665.51900000000001</c:v>
+                  <c:v>665.519</c:v>
                 </c:pt>
                 <c:pt idx="1185">
-                  <c:v>665.95299999999997</c:v>
+                  <c:v>665.953</c:v>
                 </c:pt>
                 <c:pt idx="1186">
-                  <c:v>666.38800000000003</c:v>
+                  <c:v>666.388</c:v>
                 </c:pt>
                 <c:pt idx="1187">
                   <c:v>666.822</c:v>
                 </c:pt>
                 <c:pt idx="1188">
-                  <c:v>667.25699999999995</c:v>
+                  <c:v>667.257</c:v>
                 </c:pt>
                 <c:pt idx="1189">
-                  <c:v>667.69200000000001</c:v>
+                  <c:v>667.692</c:v>
                 </c:pt>
                 <c:pt idx="1190">
-                  <c:v>668.12599999999998</c:v>
+                  <c:v>668.126</c:v>
                 </c:pt>
                 <c:pt idx="1191">
-                  <c:v>668.56100000000004</c:v>
+                  <c:v>668.561</c:v>
                 </c:pt>
                 <c:pt idx="1192">
-                  <c:v>668.99599999999998</c:v>
+                  <c:v>668.996</c:v>
                 </c:pt>
                 <c:pt idx="1193">
                   <c:v>669.43</c:v>
                 </c:pt>
                 <c:pt idx="1194">
-                  <c:v>669.86500000000001</c:v>
+                  <c:v>669.865</c:v>
                 </c:pt>
                 <c:pt idx="1195">
                   <c:v>670.3</c:v>
                 </c:pt>
                 <c:pt idx="1196">
-                  <c:v>670.73500000000001</c:v>
+                  <c:v>670.735</c:v>
                 </c:pt>
                 <c:pt idx="1197">
                   <c:v>671.17</c:v>
                 </c:pt>
                 <c:pt idx="1198">
-                  <c:v>671.60400000000004</c:v>
+                  <c:v>671.604</c:v>
                 </c:pt>
                 <c:pt idx="1199">
-                  <c:v>672.03899999999999</c:v>
+                  <c:v>672.039</c:v>
                 </c:pt>
                 <c:pt idx="1200">
-                  <c:v>672.47400000000005</c:v>
+                  <c:v>672.474</c:v>
                 </c:pt>
                 <c:pt idx="1201">
-                  <c:v>672.90899999999999</c:v>
+                  <c:v>672.909</c:v>
                 </c:pt>
                 <c:pt idx="1202">
-                  <c:v>673.34400000000005</c:v>
+                  <c:v>673.344</c:v>
                 </c:pt>
                 <c:pt idx="1203">
                   <c:v>673.779</c:v>
                 </c:pt>
                 <c:pt idx="1204">
-                  <c:v>674.21400000000006</c:v>
+                  <c:v>674.214</c:v>
                 </c:pt>
                 <c:pt idx="1205">
                   <c:v>674.649</c:v>
                 </c:pt>
                 <c:pt idx="1206">
-                  <c:v>675.08399999999995</c:v>
+                  <c:v>675.084</c:v>
                 </c:pt>
                 <c:pt idx="1207">
-                  <c:v>675.51900000000001</c:v>
+                  <c:v>675.519</c:v>
                 </c:pt>
                 <c:pt idx="1208">
-                  <c:v>675.95399999999995</c:v>
+                  <c:v>675.954</c:v>
                 </c:pt>
                 <c:pt idx="1209">
                   <c:v>676.39</c:v>
                 </c:pt>
                 <c:pt idx="1210">
-                  <c:v>676.82500000000005</c:v>
+                  <c:v>676.825</c:v>
                 </c:pt>
                 <c:pt idx="1211">
                   <c:v>677.26</c:v>
                 </c:pt>
                 <c:pt idx="1212">
-                  <c:v>677.69500000000005</c:v>
+                  <c:v>677.695</c:v>
                 </c:pt>
                 <c:pt idx="1213">
                   <c:v>678.13</c:v>
                 </c:pt>
                 <c:pt idx="1214">
-                  <c:v>678.56600000000003</c:v>
+                  <c:v>678.566</c:v>
                 </c:pt>
                 <c:pt idx="1215">
-                  <c:v>679.00099999999998</c:v>
+                  <c:v>679.001</c:v>
                 </c:pt>
                 <c:pt idx="1216">
-                  <c:v>679.43600000000004</c:v>
+                  <c:v>679.436</c:v>
                 </c:pt>
                 <c:pt idx="1217">
-                  <c:v>679.87099999999998</c:v>
+                  <c:v>679.871</c:v>
                 </c:pt>
                 <c:pt idx="1218">
-                  <c:v>680.30700000000002</c:v>
+                  <c:v>680.307</c:v>
                 </c:pt>
                 <c:pt idx="1219">
-                  <c:v>680.74199999999996</c:v>
+                  <c:v>680.742</c:v>
                 </c:pt>
                 <c:pt idx="1220">
                   <c:v>681.178</c:v>
                 </c:pt>
                 <c:pt idx="1221">
-                  <c:v>681.61300000000006</c:v>
+                  <c:v>681.613</c:v>
                 </c:pt>
                 <c:pt idx="1222">
                   <c:v>682.048</c:v>
                 </c:pt>
                 <c:pt idx="1223">
-                  <c:v>682.48400000000004</c:v>
+                  <c:v>682.484</c:v>
                 </c:pt>
                 <c:pt idx="1224">
-                  <c:v>682.91899999999998</c:v>
+                  <c:v>682.919</c:v>
                 </c:pt>
                 <c:pt idx="1225">
-                  <c:v>683.35500000000002</c:v>
+                  <c:v>683.355</c:v>
                 </c:pt>
                 <c:pt idx="1226">
-                  <c:v>683.79100000000005</c:v>
+                  <c:v>683.791</c:v>
                 </c:pt>
                 <c:pt idx="1227">
                   <c:v>684.226</c:v>
                 </c:pt>
                 <c:pt idx="1228">
-                  <c:v>684.66200000000003</c:v>
+                  <c:v>684.662</c:v>
                 </c:pt>
                 <c:pt idx="1229">
-                  <c:v>685.09699999999998</c:v>
+                  <c:v>685.097</c:v>
                 </c:pt>
                 <c:pt idx="1230">
-                  <c:v>685.53300000000002</c:v>
+                  <c:v>685.533</c:v>
                 </c:pt>
                 <c:pt idx="1231">
-                  <c:v>685.96900000000005</c:v>
+                  <c:v>685.969</c:v>
                 </c:pt>
                 <c:pt idx="1232">
                   <c:v>686.404</c:v>
@@ -4377,91 +4379,91 @@
                   <c:v>686.84</c:v>
                 </c:pt>
                 <c:pt idx="1234">
-                  <c:v>687.27599999999995</c:v>
+                  <c:v>687.276</c:v>
                 </c:pt>
                 <c:pt idx="1235">
-                  <c:v>687.71199999999999</c:v>
+                  <c:v>687.712</c:v>
                 </c:pt>
                 <c:pt idx="1236">
-                  <c:v>688.14700000000005</c:v>
+                  <c:v>688.147</c:v>
                 </c:pt>
                 <c:pt idx="1237">
-                  <c:v>688.58299999999997</c:v>
+                  <c:v>688.583</c:v>
                 </c:pt>
                 <c:pt idx="1238">
-                  <c:v>689.01900000000001</c:v>
+                  <c:v>689.019</c:v>
                 </c:pt>
                 <c:pt idx="1239">
-                  <c:v>689.45500000000004</c:v>
+                  <c:v>689.455</c:v>
                 </c:pt>
                 <c:pt idx="1240">
-                  <c:v>689.89099999999996</c:v>
+                  <c:v>689.891</c:v>
                 </c:pt>
                 <c:pt idx="1241">
                   <c:v>690.327</c:v>
                 </c:pt>
                 <c:pt idx="1242">
-                  <c:v>690.76300000000003</c:v>
+                  <c:v>690.763</c:v>
                 </c:pt>
                 <c:pt idx="1243">
-                  <c:v>691.19899999999996</c:v>
+                  <c:v>691.199</c:v>
                 </c:pt>
                 <c:pt idx="1244">
-                  <c:v>691.63499999999999</c:v>
+                  <c:v>691.635</c:v>
                 </c:pt>
                 <c:pt idx="1245">
-                  <c:v>692.07100000000003</c:v>
+                  <c:v>692.071</c:v>
                 </c:pt>
                 <c:pt idx="1246">
-                  <c:v>692.50699999999995</c:v>
+                  <c:v>692.507</c:v>
                 </c:pt>
                 <c:pt idx="1247">
-                  <c:v>692.94299999999998</c:v>
+                  <c:v>692.943</c:v>
                 </c:pt>
                 <c:pt idx="1248">
-                  <c:v>693.37900000000002</c:v>
+                  <c:v>693.379</c:v>
                 </c:pt>
                 <c:pt idx="1249">
-                  <c:v>693.81500000000005</c:v>
+                  <c:v>693.815</c:v>
                 </c:pt>
                 <c:pt idx="1250">
-                  <c:v>694.25099999999998</c:v>
+                  <c:v>694.251</c:v>
                 </c:pt>
                 <c:pt idx="1251">
-                  <c:v>694.68700000000001</c:v>
+                  <c:v>694.687</c:v>
                 </c:pt>
                 <c:pt idx="1252">
-                  <c:v>695.12300000000005</c:v>
+                  <c:v>695.123</c:v>
                 </c:pt>
                 <c:pt idx="1253">
                   <c:v>695.56</c:v>
                 </c:pt>
                 <c:pt idx="1254">
-                  <c:v>695.99599999999998</c:v>
+                  <c:v>695.996</c:v>
                 </c:pt>
                 <c:pt idx="1255">
-                  <c:v>696.43200000000002</c:v>
+                  <c:v>696.432</c:v>
                 </c:pt>
                 <c:pt idx="1256">
-                  <c:v>696.86800000000005</c:v>
+                  <c:v>696.868</c:v>
                 </c:pt>
                 <c:pt idx="1257">
-                  <c:v>697.30499999999995</c:v>
+                  <c:v>697.305</c:v>
                 </c:pt>
                 <c:pt idx="1258">
-                  <c:v>697.74099999999999</c:v>
+                  <c:v>697.741</c:v>
                 </c:pt>
                 <c:pt idx="1259">
-                  <c:v>698.17700000000002</c:v>
+                  <c:v>698.177</c:v>
                 </c:pt>
                 <c:pt idx="1260">
-                  <c:v>698.61400000000003</c:v>
+                  <c:v>698.614</c:v>
                 </c:pt>
                 <c:pt idx="1261">
                   <c:v>699.05</c:v>
                 </c:pt>
                 <c:pt idx="1262">
-                  <c:v>699.48699999999997</c:v>
+                  <c:v>699.487</c:v>
                 </c:pt>
                 <c:pt idx="1263">
                   <c:v>699.923</c:v>
@@ -4470,265 +4472,265 @@
                   <c:v>700.36</c:v>
                 </c:pt>
                 <c:pt idx="1265">
-                  <c:v>700.79600000000005</c:v>
+                  <c:v>700.796</c:v>
                 </c:pt>
                 <c:pt idx="1266">
-                  <c:v>701.23299999999995</c:v>
+                  <c:v>701.233</c:v>
                 </c:pt>
                 <c:pt idx="1267">
-                  <c:v>701.66899999999998</c:v>
+                  <c:v>701.669</c:v>
                 </c:pt>
                 <c:pt idx="1268">
-                  <c:v>702.10599999999999</c:v>
+                  <c:v>702.106</c:v>
                 </c:pt>
                 <c:pt idx="1269">
-                  <c:v>702.54200000000003</c:v>
+                  <c:v>702.542</c:v>
                 </c:pt>
                 <c:pt idx="1270">
-                  <c:v>702.97900000000004</c:v>
+                  <c:v>702.979</c:v>
                 </c:pt>
                 <c:pt idx="1271">
-                  <c:v>703.41499999999996</c:v>
+                  <c:v>703.415</c:v>
                 </c:pt>
                 <c:pt idx="1272">
-                  <c:v>703.85199999999998</c:v>
+                  <c:v>703.852</c:v>
                 </c:pt>
                 <c:pt idx="1273">
-                  <c:v>704.28899999999999</c:v>
+                  <c:v>704.289</c:v>
                 </c:pt>
                 <c:pt idx="1274">
                   <c:v>704.726</c:v>
                 </c:pt>
                 <c:pt idx="1275">
-                  <c:v>705.16200000000003</c:v>
+                  <c:v>705.162</c:v>
                 </c:pt>
                 <c:pt idx="1276">
-                  <c:v>705.59900000000005</c:v>
+                  <c:v>705.599</c:v>
                 </c:pt>
                 <c:pt idx="1277">
-                  <c:v>706.03599999999994</c:v>
+                  <c:v>706.036</c:v>
                 </c:pt>
                 <c:pt idx="1278">
-                  <c:v>706.47299999999996</c:v>
+                  <c:v>706.473</c:v>
                 </c:pt>
                 <c:pt idx="1279">
-                  <c:v>706.90899999999999</c:v>
+                  <c:v>706.909</c:v>
                 </c:pt>
                 <c:pt idx="1280">
                   <c:v>707.346</c:v>
                 </c:pt>
                 <c:pt idx="1281">
-                  <c:v>707.78300000000002</c:v>
+                  <c:v>707.783</c:v>
                 </c:pt>
                 <c:pt idx="1282">
                   <c:v>708.22</c:v>
                 </c:pt>
                 <c:pt idx="1283">
-                  <c:v>708.65700000000004</c:v>
+                  <c:v>708.657</c:v>
                 </c:pt>
                 <c:pt idx="1284">
-                  <c:v>709.09400000000005</c:v>
+                  <c:v>709.094</c:v>
                 </c:pt>
                 <c:pt idx="1285">
-                  <c:v>709.53099999999995</c:v>
+                  <c:v>709.531</c:v>
                 </c:pt>
                 <c:pt idx="1286">
-                  <c:v>709.96799999999996</c:v>
+                  <c:v>709.968</c:v>
                 </c:pt>
                 <c:pt idx="1287">
-                  <c:v>710.40499999999997</c:v>
+                  <c:v>710.405</c:v>
                 </c:pt>
                 <c:pt idx="1288">
-                  <c:v>710.84199999999998</c:v>
+                  <c:v>710.842</c:v>
                 </c:pt>
                 <c:pt idx="1289">
                   <c:v>711.279</c:v>
                 </c:pt>
                 <c:pt idx="1290">
-                  <c:v>711.71600000000001</c:v>
+                  <c:v>711.716</c:v>
                 </c:pt>
                 <c:pt idx="1291">
-                  <c:v>712.15300000000002</c:v>
+                  <c:v>712.153</c:v>
                 </c:pt>
                 <c:pt idx="1292">
                   <c:v>712.59</c:v>
                 </c:pt>
                 <c:pt idx="1293">
-                  <c:v>713.02700000000004</c:v>
+                  <c:v>713.027</c:v>
                 </c:pt>
                 <c:pt idx="1294">
-                  <c:v>713.46500000000003</c:v>
+                  <c:v>713.465</c:v>
                 </c:pt>
                 <c:pt idx="1295">
-                  <c:v>713.90200000000004</c:v>
+                  <c:v>713.902</c:v>
                 </c:pt>
                 <c:pt idx="1296">
-                  <c:v>714.33900000000006</c:v>
+                  <c:v>714.339</c:v>
                 </c:pt>
                 <c:pt idx="1297">
-                  <c:v>714.77599999999995</c:v>
+                  <c:v>714.776</c:v>
                 </c:pt>
                 <c:pt idx="1298">
-                  <c:v>715.21400000000006</c:v>
+                  <c:v>715.214</c:v>
                 </c:pt>
                 <c:pt idx="1299">
-                  <c:v>715.65099999999995</c:v>
+                  <c:v>715.651</c:v>
                 </c:pt>
                 <c:pt idx="1300">
-                  <c:v>716.08799999999997</c:v>
+                  <c:v>716.088</c:v>
                 </c:pt>
                 <c:pt idx="1301">
-                  <c:v>716.52499999999998</c:v>
+                  <c:v>716.525</c:v>
                 </c:pt>
                 <c:pt idx="1302">
-                  <c:v>716.96299999999997</c:v>
+                  <c:v>716.963</c:v>
                 </c:pt>
                 <c:pt idx="1303">
                   <c:v>717.4</c:v>
                 </c:pt>
                 <c:pt idx="1304">
-                  <c:v>717.83799999999997</c:v>
+                  <c:v>717.838</c:v>
                 </c:pt>
                 <c:pt idx="1305">
-                  <c:v>718.27499999999998</c:v>
+                  <c:v>718.275</c:v>
                 </c:pt>
                 <c:pt idx="1306">
-                  <c:v>718.71299999999997</c:v>
+                  <c:v>718.713</c:v>
                 </c:pt>
                 <c:pt idx="1307">
                   <c:v>719.15</c:v>
                 </c:pt>
                 <c:pt idx="1308">
-                  <c:v>719.58699999999999</c:v>
+                  <c:v>719.587</c:v>
                 </c:pt>
                 <c:pt idx="1309">
-                  <c:v>720.02499999999998</c:v>
+                  <c:v>720.025</c:v>
                 </c:pt>
                 <c:pt idx="1310">
-                  <c:v>720.46299999999997</c:v>
+                  <c:v>720.463</c:v>
                 </c:pt>
                 <c:pt idx="1311">
                   <c:v>720.9</c:v>
                 </c:pt>
                 <c:pt idx="1312">
-                  <c:v>721.33799999999997</c:v>
+                  <c:v>721.338</c:v>
                 </c:pt>
                 <c:pt idx="1313">
-                  <c:v>721.77499999999998</c:v>
+                  <c:v>721.775</c:v>
                 </c:pt>
                 <c:pt idx="1314">
-                  <c:v>722.21299999999997</c:v>
+                  <c:v>722.213</c:v>
                 </c:pt>
                 <c:pt idx="1315">
-                  <c:v>722.65099999999995</c:v>
+                  <c:v>722.651</c:v>
                 </c:pt>
                 <c:pt idx="1316">
-                  <c:v>723.08799999999997</c:v>
+                  <c:v>723.088</c:v>
                 </c:pt>
                 <c:pt idx="1317">
-                  <c:v>723.52599999999995</c:v>
+                  <c:v>723.526</c:v>
                 </c:pt>
                 <c:pt idx="1318">
-                  <c:v>723.96400000000006</c:v>
+                  <c:v>723.964</c:v>
                 </c:pt>
                 <c:pt idx="1319">
-                  <c:v>724.40099999999995</c:v>
+                  <c:v>724.401</c:v>
                 </c:pt>
                 <c:pt idx="1320">
-                  <c:v>724.83900000000006</c:v>
+                  <c:v>724.839</c:v>
                 </c:pt>
                 <c:pt idx="1321">
-                  <c:v>725.27700000000004</c:v>
+                  <c:v>725.277</c:v>
                 </c:pt>
                 <c:pt idx="1322">
-                  <c:v>725.71500000000003</c:v>
+                  <c:v>725.715</c:v>
                 </c:pt>
                 <c:pt idx="1323">
-                  <c:v>726.15300000000002</c:v>
+                  <c:v>726.153</c:v>
                 </c:pt>
                 <c:pt idx="1324">
-                  <c:v>726.59100000000001</c:v>
+                  <c:v>726.591</c:v>
                 </c:pt>
                 <c:pt idx="1325">
-                  <c:v>727.02800000000002</c:v>
+                  <c:v>727.028</c:v>
                 </c:pt>
                 <c:pt idx="1326">
-                  <c:v>727.46600000000001</c:v>
+                  <c:v>727.466</c:v>
                 </c:pt>
                 <c:pt idx="1327">
                   <c:v>727.904</c:v>
                 </c:pt>
                 <c:pt idx="1328">
-                  <c:v>728.34199999999998</c:v>
+                  <c:v>728.342</c:v>
                 </c:pt>
                 <c:pt idx="1329">
                   <c:v>728.78</c:v>
                 </c:pt>
                 <c:pt idx="1330">
-                  <c:v>729.21799999999996</c:v>
+                  <c:v>729.218</c:v>
                 </c:pt>
                 <c:pt idx="1331">
-                  <c:v>729.65599999999995</c:v>
+                  <c:v>729.656</c:v>
                 </c:pt>
                 <c:pt idx="1332">
-                  <c:v>730.09400000000005</c:v>
+                  <c:v>730.094</c:v>
                 </c:pt>
                 <c:pt idx="1333">
-                  <c:v>730.53200000000004</c:v>
+                  <c:v>730.532</c:v>
                 </c:pt>
                 <c:pt idx="1334">
                   <c:v>730.97</c:v>
                 </c:pt>
                 <c:pt idx="1335">
-                  <c:v>731.40899999999999</c:v>
+                  <c:v>731.409</c:v>
                 </c:pt>
                 <c:pt idx="1336">
-                  <c:v>731.84699999999998</c:v>
+                  <c:v>731.847</c:v>
                 </c:pt>
                 <c:pt idx="1337">
-                  <c:v>732.28499999999997</c:v>
+                  <c:v>732.285</c:v>
                 </c:pt>
                 <c:pt idx="1338">
-                  <c:v>732.72299999999996</c:v>
+                  <c:v>732.723</c:v>
                 </c:pt>
                 <c:pt idx="1339">
-                  <c:v>733.16099999999994</c:v>
+                  <c:v>733.161</c:v>
                 </c:pt>
                 <c:pt idx="1340">
-                  <c:v>733.59900000000005</c:v>
+                  <c:v>733.599</c:v>
                 </c:pt>
                 <c:pt idx="1341">
-                  <c:v>734.03800000000001</c:v>
+                  <c:v>734.038</c:v>
                 </c:pt>
                 <c:pt idx="1342">
                   <c:v>734.476</c:v>
                 </c:pt>
                 <c:pt idx="1343">
-                  <c:v>734.91399999999999</c:v>
+                  <c:v>734.914</c:v>
                 </c:pt>
                 <c:pt idx="1344">
-                  <c:v>735.35299999999995</c:v>
+                  <c:v>735.353</c:v>
                 </c:pt>
                 <c:pt idx="1345">
-                  <c:v>735.79100000000005</c:v>
+                  <c:v>735.791</c:v>
                 </c:pt>
                 <c:pt idx="1346">
-                  <c:v>736.22900000000004</c:v>
+                  <c:v>736.229</c:v>
                 </c:pt>
                 <c:pt idx="1347">
-                  <c:v>736.66800000000001</c:v>
+                  <c:v>736.668</c:v>
                 </c:pt>
                 <c:pt idx="1348">
-                  <c:v>737.10599999999999</c:v>
+                  <c:v>737.106</c:v>
                 </c:pt>
                 <c:pt idx="1349">
-                  <c:v>737.54399999999998</c:v>
+                  <c:v>737.544</c:v>
                 </c:pt>
                 <c:pt idx="1350">
-                  <c:v>737.98299999999995</c:v>
+                  <c:v>737.983</c:v>
                 </c:pt>
                 <c:pt idx="1351">
-                  <c:v>738.42100000000005</c:v>
+                  <c:v>738.421</c:v>
                 </c:pt>
                 <c:pt idx="1352">
                   <c:v>738.86</c:v>
@@ -4737,103 +4739,103 @@
                   <c:v>739.298</c:v>
                 </c:pt>
                 <c:pt idx="1354">
-                  <c:v>739.73699999999997</c:v>
+                  <c:v>739.737</c:v>
                 </c:pt>
                 <c:pt idx="1355">
-                  <c:v>740.17499999999995</c:v>
+                  <c:v>740.175</c:v>
                 </c:pt>
                 <c:pt idx="1356">
-                  <c:v>740.61400000000003</c:v>
+                  <c:v>740.614</c:v>
                 </c:pt>
                 <c:pt idx="1357">
                   <c:v>741.053</c:v>
                 </c:pt>
                 <c:pt idx="1358">
-                  <c:v>741.49099999999999</c:v>
+                  <c:v>741.491</c:v>
                 </c:pt>
                 <c:pt idx="1359">
                   <c:v>741.93</c:v>
                 </c:pt>
                 <c:pt idx="1360">
-                  <c:v>742.36900000000003</c:v>
+                  <c:v>742.369</c:v>
                 </c:pt>
                 <c:pt idx="1361">
-                  <c:v>742.80700000000002</c:v>
+                  <c:v>742.807</c:v>
                 </c:pt>
                 <c:pt idx="1362">
-                  <c:v>743.24599999999998</c:v>
+                  <c:v>743.246</c:v>
                 </c:pt>
                 <c:pt idx="1363">
-                  <c:v>743.68499999999995</c:v>
+                  <c:v>743.685</c:v>
                 </c:pt>
                 <c:pt idx="1364">
-                  <c:v>744.12300000000005</c:v>
+                  <c:v>744.123</c:v>
                 </c:pt>
                 <c:pt idx="1365">
-                  <c:v>744.56200000000001</c:v>
+                  <c:v>744.562</c:v>
                 </c:pt>
                 <c:pt idx="1366">
-                  <c:v>745.00099999999998</c:v>
+                  <c:v>745.001</c:v>
                 </c:pt>
                 <c:pt idx="1367">
                   <c:v>745.44</c:v>
                 </c:pt>
                 <c:pt idx="1368">
-                  <c:v>745.87900000000002</c:v>
+                  <c:v>745.879</c:v>
                 </c:pt>
                 <c:pt idx="1369">
-                  <c:v>746.31700000000001</c:v>
+                  <c:v>746.317</c:v>
                 </c:pt>
                 <c:pt idx="1370">
-                  <c:v>746.75599999999997</c:v>
+                  <c:v>746.756</c:v>
                 </c:pt>
                 <c:pt idx="1371">
-                  <c:v>747.19500000000005</c:v>
+                  <c:v>747.195</c:v>
                 </c:pt>
                 <c:pt idx="1372">
-                  <c:v>747.63400000000001</c:v>
+                  <c:v>747.634</c:v>
                 </c:pt>
                 <c:pt idx="1373">
-                  <c:v>748.07299999999998</c:v>
+                  <c:v>748.073</c:v>
                 </c:pt>
                 <c:pt idx="1374">
-                  <c:v>748.51199999999994</c:v>
+                  <c:v>748.512</c:v>
                 </c:pt>
                 <c:pt idx="1375">
-                  <c:v>748.95100000000002</c:v>
+                  <c:v>748.951</c:v>
                 </c:pt>
                 <c:pt idx="1376">
                   <c:v>749.39</c:v>
                 </c:pt>
                 <c:pt idx="1377">
-                  <c:v>749.82899999999995</c:v>
+                  <c:v>749.829</c:v>
                 </c:pt>
                 <c:pt idx="1378">
-                  <c:v>750.26800000000003</c:v>
+                  <c:v>750.268</c:v>
                 </c:pt>
                 <c:pt idx="1379">
-                  <c:v>750.70699999999999</c:v>
+                  <c:v>750.707</c:v>
                 </c:pt>
                 <c:pt idx="1380">
-                  <c:v>751.14599999999996</c:v>
+                  <c:v>751.146</c:v>
                 </c:pt>
                 <c:pt idx="1381">
-                  <c:v>751.58500000000004</c:v>
+                  <c:v>751.585</c:v>
                 </c:pt>
                 <c:pt idx="1382">
-                  <c:v>752.02499999999998</c:v>
+                  <c:v>752.025</c:v>
                 </c:pt>
                 <c:pt idx="1383">
-                  <c:v>752.46400000000006</c:v>
+                  <c:v>752.464</c:v>
                 </c:pt>
                 <c:pt idx="1384">
-                  <c:v>752.90300000000002</c:v>
+                  <c:v>752.903</c:v>
                 </c:pt>
                 <c:pt idx="1385">
-                  <c:v>753.34199999999998</c:v>
+                  <c:v>753.342</c:v>
                 </c:pt>
                 <c:pt idx="1386">
-                  <c:v>753.78099999999995</c:v>
+                  <c:v>753.781</c:v>
                 </c:pt>
                 <c:pt idx="1387">
                   <c:v>754.221</c:v>
@@ -4842,55 +4844,55 @@
                   <c:v>754.66</c:v>
                 </c:pt>
                 <c:pt idx="1389">
-                  <c:v>755.09900000000005</c:v>
+                  <c:v>755.099</c:v>
                 </c:pt>
                 <c:pt idx="1390">
-                  <c:v>755.53800000000001</c:v>
+                  <c:v>755.538</c:v>
                 </c:pt>
                 <c:pt idx="1391">
-                  <c:v>755.97799999999995</c:v>
+                  <c:v>755.978</c:v>
                 </c:pt>
                 <c:pt idx="1392">
-                  <c:v>756.41700000000003</c:v>
+                  <c:v>756.417</c:v>
                 </c:pt>
                 <c:pt idx="1393">
-                  <c:v>756.85699999999997</c:v>
+                  <c:v>756.857</c:v>
                 </c:pt>
                 <c:pt idx="1394">
-                  <c:v>757.29600000000005</c:v>
+                  <c:v>757.296</c:v>
                 </c:pt>
                 <c:pt idx="1395">
-                  <c:v>757.73500000000001</c:v>
+                  <c:v>757.735</c:v>
                 </c:pt>
                 <c:pt idx="1396">
-                  <c:v>758.17499999999995</c:v>
+                  <c:v>758.175</c:v>
                 </c:pt>
                 <c:pt idx="1397">
-                  <c:v>758.61400000000003</c:v>
+                  <c:v>758.614</c:v>
                 </c:pt>
                 <c:pt idx="1398">
-                  <c:v>759.05399999999997</c:v>
+                  <c:v>759.054</c:v>
                 </c:pt>
                 <c:pt idx="1399">
-                  <c:v>759.49300000000005</c:v>
+                  <c:v>759.493</c:v>
                 </c:pt>
                 <c:pt idx="1400">
-                  <c:v>759.93299999999999</c:v>
+                  <c:v>759.933</c:v>
                 </c:pt>
                 <c:pt idx="1401">
-                  <c:v>760.37199999999996</c:v>
+                  <c:v>760.372</c:v>
                 </c:pt>
                 <c:pt idx="1402">
-                  <c:v>760.81200000000001</c:v>
+                  <c:v>760.812</c:v>
                 </c:pt>
                 <c:pt idx="1403">
-                  <c:v>761.25099999999998</c:v>
+                  <c:v>761.251</c:v>
                 </c:pt>
                 <c:pt idx="1404">
-                  <c:v>761.69100000000003</c:v>
+                  <c:v>761.691</c:v>
                 </c:pt>
                 <c:pt idx="1405">
-                  <c:v>762.13099999999997</c:v>
+                  <c:v>762.131</c:v>
                 </c:pt>
                 <c:pt idx="1406">
                   <c:v>762.57</c:v>
@@ -4902,88 +4904,88 @@
                   <c:v>763.45</c:v>
                 </c:pt>
                 <c:pt idx="1409">
-                  <c:v>763.88900000000001</c:v>
+                  <c:v>763.889</c:v>
                 </c:pt>
                 <c:pt idx="1410">
-                  <c:v>764.32899999999995</c:v>
+                  <c:v>764.329</c:v>
                 </c:pt>
                 <c:pt idx="1411">
-                  <c:v>764.76900000000001</c:v>
+                  <c:v>764.769</c:v>
                 </c:pt>
                 <c:pt idx="1412">
-                  <c:v>765.20899999999995</c:v>
+                  <c:v>765.209</c:v>
                 </c:pt>
                 <c:pt idx="1413">
-                  <c:v>765.64800000000002</c:v>
+                  <c:v>765.648</c:v>
                 </c:pt>
                 <c:pt idx="1414">
-                  <c:v>766.08799999999997</c:v>
+                  <c:v>766.088</c:v>
                 </c:pt>
                 <c:pt idx="1415">
-                  <c:v>766.52800000000002</c:v>
+                  <c:v>766.528</c:v>
                 </c:pt>
                 <c:pt idx="1416">
-                  <c:v>766.96799999999996</c:v>
+                  <c:v>766.968</c:v>
                 </c:pt>
                 <c:pt idx="1417">
-                  <c:v>767.40800000000002</c:v>
+                  <c:v>767.408</c:v>
                 </c:pt>
                 <c:pt idx="1418">
-                  <c:v>767.84799999999996</c:v>
+                  <c:v>767.848</c:v>
                 </c:pt>
                 <c:pt idx="1419">
-                  <c:v>768.28800000000001</c:v>
+                  <c:v>768.288</c:v>
                 </c:pt>
                 <c:pt idx="1420">
-                  <c:v>768.72799999999995</c:v>
+                  <c:v>768.728</c:v>
                 </c:pt>
                 <c:pt idx="1421">
-                  <c:v>769.16800000000001</c:v>
+                  <c:v>769.168</c:v>
                 </c:pt>
                 <c:pt idx="1422">
-                  <c:v>769.60799999999995</c:v>
+                  <c:v>769.608</c:v>
                 </c:pt>
                 <c:pt idx="1423">
                   <c:v>770.048</c:v>
                 </c:pt>
                 <c:pt idx="1424">
-                  <c:v>770.48800000000006</c:v>
+                  <c:v>770.488</c:v>
                 </c:pt>
                 <c:pt idx="1425">
                   <c:v>770.928</c:v>
                 </c:pt>
                 <c:pt idx="1426">
-                  <c:v>771.36800000000005</c:v>
+                  <c:v>771.368</c:v>
                 </c:pt>
                 <c:pt idx="1427">
-                  <c:v>771.80799999999999</c:v>
+                  <c:v>771.808</c:v>
                 </c:pt>
                 <c:pt idx="1428">
-                  <c:v>772.24800000000005</c:v>
+                  <c:v>772.248</c:v>
                 </c:pt>
                 <c:pt idx="1429">
-                  <c:v>772.68799999999999</c:v>
+                  <c:v>772.688</c:v>
                 </c:pt>
                 <c:pt idx="1430">
-                  <c:v>773.12800000000004</c:v>
+                  <c:v>773.128</c:v>
                 </c:pt>
                 <c:pt idx="1431">
-                  <c:v>773.56799999999998</c:v>
+                  <c:v>773.568</c:v>
                 </c:pt>
                 <c:pt idx="1432">
-                  <c:v>774.00800000000004</c:v>
+                  <c:v>774.008</c:v>
                 </c:pt>
                 <c:pt idx="1433">
-                  <c:v>774.44899999999996</c:v>
+                  <c:v>774.449</c:v>
                 </c:pt>
                 <c:pt idx="1434">
-                  <c:v>774.88900000000001</c:v>
+                  <c:v>774.889</c:v>
                 </c:pt>
                 <c:pt idx="1435">
-                  <c:v>775.32899999999995</c:v>
+                  <c:v>775.329</c:v>
                 </c:pt>
                 <c:pt idx="1436">
-                  <c:v>775.76900000000001</c:v>
+                  <c:v>775.769</c:v>
                 </c:pt>
                 <c:pt idx="1437">
                   <c:v>776.21</c:v>
@@ -4995,55 +4997,55 @@
                   <c:v>777.09</c:v>
                 </c:pt>
                 <c:pt idx="1440">
-                  <c:v>777.53099999999995</c:v>
+                  <c:v>777.531</c:v>
                 </c:pt>
                 <c:pt idx="1441">
                   <c:v>777.971</c:v>
                 </c:pt>
                 <c:pt idx="1442">
-                  <c:v>778.41099999999994</c:v>
+                  <c:v>778.411</c:v>
                 </c:pt>
                 <c:pt idx="1443">
-                  <c:v>778.85199999999998</c:v>
+                  <c:v>778.852</c:v>
                 </c:pt>
                 <c:pt idx="1444">
-                  <c:v>779.29200000000003</c:v>
+                  <c:v>779.292</c:v>
                 </c:pt>
                 <c:pt idx="1445">
-                  <c:v>779.73299999999995</c:v>
+                  <c:v>779.733</c:v>
                 </c:pt>
                 <c:pt idx="1446">
                   <c:v>780.173</c:v>
                 </c:pt>
                 <c:pt idx="1447">
-                  <c:v>780.61400000000003</c:v>
+                  <c:v>780.614</c:v>
                 </c:pt>
                 <c:pt idx="1448">
-                  <c:v>781.05399999999997</c:v>
+                  <c:v>781.054</c:v>
                 </c:pt>
                 <c:pt idx="1449">
                   <c:v>781.495</c:v>
                 </c:pt>
                 <c:pt idx="1450">
-                  <c:v>781.93499999999995</c:v>
+                  <c:v>781.935</c:v>
                 </c:pt>
                 <c:pt idx="1451">
-                  <c:v>782.37599999999998</c:v>
+                  <c:v>782.376</c:v>
                 </c:pt>
                 <c:pt idx="1452">
-                  <c:v>782.81600000000003</c:v>
+                  <c:v>782.816</c:v>
                 </c:pt>
                 <c:pt idx="1453">
-                  <c:v>783.25699999999995</c:v>
+                  <c:v>783.257</c:v>
                 </c:pt>
                 <c:pt idx="1454">
-                  <c:v>783.69799999999998</c:v>
+                  <c:v>783.698</c:v>
                 </c:pt>
                 <c:pt idx="1455">
-                  <c:v>784.13800000000003</c:v>
+                  <c:v>784.138</c:v>
                 </c:pt>
                 <c:pt idx="1456">
-                  <c:v>784.57899999999995</c:v>
+                  <c:v>784.579</c:v>
                 </c:pt>
                 <c:pt idx="1457">
                   <c:v>785.02</c:v>
@@ -5052,61 +5054,61 @@
                   <c:v>785.46</c:v>
                 </c:pt>
                 <c:pt idx="1459">
-                  <c:v>785.90099999999995</c:v>
+                  <c:v>785.901</c:v>
                 </c:pt>
                 <c:pt idx="1460">
-                  <c:v>786.34199999999998</c:v>
+                  <c:v>786.342</c:v>
                 </c:pt>
                 <c:pt idx="1461">
-                  <c:v>786.78300000000002</c:v>
+                  <c:v>786.783</c:v>
                 </c:pt>
                 <c:pt idx="1462">
-                  <c:v>787.22299999999996</c:v>
+                  <c:v>787.223</c:v>
                 </c:pt>
                 <c:pt idx="1463">
-                  <c:v>787.66399999999999</c:v>
+                  <c:v>787.664</c:v>
                 </c:pt>
                 <c:pt idx="1464">
-                  <c:v>788.10500000000002</c:v>
+                  <c:v>788.105</c:v>
                 </c:pt>
                 <c:pt idx="1465">
-                  <c:v>788.54600000000005</c:v>
+                  <c:v>788.546</c:v>
                 </c:pt>
                 <c:pt idx="1466">
-                  <c:v>788.98699999999997</c:v>
+                  <c:v>788.987</c:v>
                 </c:pt>
                 <c:pt idx="1467">
                   <c:v>789.428</c:v>
                 </c:pt>
                 <c:pt idx="1468">
-                  <c:v>789.86900000000003</c:v>
+                  <c:v>789.869</c:v>
                 </c:pt>
                 <c:pt idx="1469">
                   <c:v>790.31</c:v>
                 </c:pt>
                 <c:pt idx="1470">
-                  <c:v>790.75099999999998</c:v>
+                  <c:v>790.751</c:v>
                 </c:pt>
                 <c:pt idx="1471">
-                  <c:v>791.19200000000001</c:v>
+                  <c:v>791.192</c:v>
                 </c:pt>
                 <c:pt idx="1472">
-                  <c:v>791.63199999999995</c:v>
+                  <c:v>791.632</c:v>
                 </c:pt>
                 <c:pt idx="1473">
-                  <c:v>792.07299999999998</c:v>
+                  <c:v>792.073</c:v>
                 </c:pt>
                 <c:pt idx="1474">
-                  <c:v>792.51499999999999</c:v>
+                  <c:v>792.515</c:v>
                 </c:pt>
                 <c:pt idx="1475">
-                  <c:v>792.95600000000002</c:v>
+                  <c:v>792.956</c:v>
                 </c:pt>
                 <c:pt idx="1476">
-                  <c:v>793.39700000000005</c:v>
+                  <c:v>793.397</c:v>
                 </c:pt>
                 <c:pt idx="1477">
-                  <c:v>793.83799999999997</c:v>
+                  <c:v>793.838</c:v>
                 </c:pt>
                 <c:pt idx="1478">
                   <c:v>794.279</c:v>
@@ -5115,94 +5117,94 @@
                   <c:v>794.72</c:v>
                 </c:pt>
                 <c:pt idx="1480">
-                  <c:v>795.16099999999994</c:v>
+                  <c:v>795.161</c:v>
                 </c:pt>
                 <c:pt idx="1481">
-                  <c:v>795.60199999999998</c:v>
+                  <c:v>795.602</c:v>
                 </c:pt>
                 <c:pt idx="1482">
-                  <c:v>796.04300000000001</c:v>
+                  <c:v>796.043</c:v>
                 </c:pt>
                 <c:pt idx="1483">
-                  <c:v>796.48500000000001</c:v>
+                  <c:v>796.485</c:v>
                 </c:pt>
                 <c:pt idx="1484">
-                  <c:v>796.92600000000004</c:v>
+                  <c:v>796.926</c:v>
                 </c:pt>
                 <c:pt idx="1485">
-                  <c:v>797.36699999999996</c:v>
+                  <c:v>797.367</c:v>
                 </c:pt>
                 <c:pt idx="1486">
-                  <c:v>797.80799999999999</c:v>
+                  <c:v>797.808</c:v>
                 </c:pt>
                 <c:pt idx="1487">
                   <c:v>798.25</c:v>
                 </c:pt>
                 <c:pt idx="1488">
-                  <c:v>798.69100000000003</c:v>
+                  <c:v>798.691</c:v>
                 </c:pt>
                 <c:pt idx="1489">
-                  <c:v>799.13199999999995</c:v>
+                  <c:v>799.132</c:v>
                 </c:pt>
                 <c:pt idx="1490">
-                  <c:v>799.57399999999996</c:v>
+                  <c:v>799.574</c:v>
                 </c:pt>
                 <c:pt idx="1491">
-                  <c:v>800.01499999999999</c:v>
+                  <c:v>800.015</c:v>
                 </c:pt>
                 <c:pt idx="1492">
-                  <c:v>800.45600000000002</c:v>
+                  <c:v>800.456</c:v>
                 </c:pt>
                 <c:pt idx="1493">
-                  <c:v>800.89800000000002</c:v>
+                  <c:v>800.898</c:v>
                 </c:pt>
                 <c:pt idx="1494">
-                  <c:v>801.33900000000006</c:v>
+                  <c:v>801.339</c:v>
                 </c:pt>
                 <c:pt idx="1495">
-                  <c:v>801.78099999999995</c:v>
+                  <c:v>801.781</c:v>
                 </c:pt>
                 <c:pt idx="1496">
-                  <c:v>802.22199999999998</c:v>
+                  <c:v>802.222</c:v>
                 </c:pt>
                 <c:pt idx="1497">
-                  <c:v>802.66399999999999</c:v>
+                  <c:v>802.664</c:v>
                 </c:pt>
                 <c:pt idx="1498">
-                  <c:v>803.10500000000002</c:v>
+                  <c:v>803.105</c:v>
                 </c:pt>
                 <c:pt idx="1499">
-                  <c:v>803.54700000000003</c:v>
+                  <c:v>803.547</c:v>
                 </c:pt>
                 <c:pt idx="1500">
-                  <c:v>803.98800000000006</c:v>
+                  <c:v>803.988</c:v>
                 </c:pt>
                 <c:pt idx="1501">
                   <c:v>804.43</c:v>
                 </c:pt>
                 <c:pt idx="1502">
-                  <c:v>804.87099999999998</c:v>
+                  <c:v>804.871</c:v>
                 </c:pt>
                 <c:pt idx="1503">
-                  <c:v>805.31299999999999</c:v>
+                  <c:v>805.313</c:v>
                 </c:pt>
                 <c:pt idx="1504">
-                  <c:v>805.75400000000002</c:v>
+                  <c:v>805.754</c:v>
                 </c:pt>
                 <c:pt idx="1505">
-                  <c:v>806.19600000000003</c:v>
+                  <c:v>806.196</c:v>
                 </c:pt>
                 <c:pt idx="1506">
-                  <c:v>806.63800000000003</c:v>
+                  <c:v>806.638</c:v>
                 </c:pt>
                 <c:pt idx="1507">
-                  <c:v>807.07899999999995</c:v>
+                  <c:v>807.079</c:v>
                 </c:pt>
                 <c:pt idx="1508">
-                  <c:v>807.52099999999996</c:v>
+                  <c:v>807.521</c:v>
                 </c:pt>
                 <c:pt idx="1509">
-                  <c:v>807.96299999999997</c:v>
+                  <c:v>807.963</c:v>
                 </c:pt>
                 <c:pt idx="1510">
                   <c:v>808.404</c:v>
@@ -5211,184 +5213,184 @@
                   <c:v>808.846</c:v>
                 </c:pt>
                 <c:pt idx="1512">
-                  <c:v>809.28800000000001</c:v>
+                  <c:v>809.288</c:v>
                 </c:pt>
                 <c:pt idx="1513">
                   <c:v>809.73</c:v>
                 </c:pt>
                 <c:pt idx="1514">
-                  <c:v>810.17100000000005</c:v>
+                  <c:v>810.171</c:v>
                 </c:pt>
                 <c:pt idx="1515">
-                  <c:v>810.61300000000006</c:v>
+                  <c:v>810.613</c:v>
                 </c:pt>
                 <c:pt idx="1516">
-                  <c:v>811.05499999999995</c:v>
+                  <c:v>811.055</c:v>
                 </c:pt>
                 <c:pt idx="1517">
-                  <c:v>811.49699999999996</c:v>
+                  <c:v>811.497</c:v>
                 </c:pt>
                 <c:pt idx="1518">
-                  <c:v>811.93899999999996</c:v>
+                  <c:v>811.939</c:v>
                 </c:pt>
                 <c:pt idx="1519">
-                  <c:v>812.38099999999997</c:v>
+                  <c:v>812.381</c:v>
                 </c:pt>
                 <c:pt idx="1520">
-                  <c:v>812.82299999999998</c:v>
+                  <c:v>812.823</c:v>
                 </c:pt>
                 <c:pt idx="1521">
-                  <c:v>813.26499999999999</c:v>
+                  <c:v>813.265</c:v>
                 </c:pt>
                 <c:pt idx="1522">
-                  <c:v>813.70600000000002</c:v>
+                  <c:v>813.706</c:v>
                 </c:pt>
                 <c:pt idx="1523">
-                  <c:v>814.14800000000002</c:v>
+                  <c:v>814.148</c:v>
                 </c:pt>
                 <c:pt idx="1524">
                   <c:v>814.59</c:v>
                 </c:pt>
                 <c:pt idx="1525">
-                  <c:v>815.03200000000004</c:v>
+                  <c:v>815.032</c:v>
                 </c:pt>
                 <c:pt idx="1526">
-                  <c:v>815.47400000000005</c:v>
+                  <c:v>815.474</c:v>
                 </c:pt>
                 <c:pt idx="1527">
-                  <c:v>815.91600000000005</c:v>
+                  <c:v>815.916</c:v>
                 </c:pt>
                 <c:pt idx="1528">
-                  <c:v>816.35900000000004</c:v>
+                  <c:v>816.359</c:v>
                 </c:pt>
                 <c:pt idx="1529">
-                  <c:v>816.80100000000004</c:v>
+                  <c:v>816.801</c:v>
                 </c:pt>
                 <c:pt idx="1530">
-                  <c:v>817.24300000000005</c:v>
+                  <c:v>817.243</c:v>
                 </c:pt>
                 <c:pt idx="1531">
-                  <c:v>817.68499999999995</c:v>
+                  <c:v>817.685</c:v>
                 </c:pt>
                 <c:pt idx="1532">
-                  <c:v>818.12699999999995</c:v>
+                  <c:v>818.127</c:v>
                 </c:pt>
                 <c:pt idx="1533">
-                  <c:v>818.56899999999996</c:v>
+                  <c:v>818.569</c:v>
                 </c:pt>
                 <c:pt idx="1534">
-                  <c:v>819.01099999999997</c:v>
+                  <c:v>819.011</c:v>
                 </c:pt>
                 <c:pt idx="1535">
-                  <c:v>819.45299999999997</c:v>
+                  <c:v>819.453</c:v>
                 </c:pt>
                 <c:pt idx="1536">
-                  <c:v>819.89599999999996</c:v>
+                  <c:v>819.896</c:v>
                 </c:pt>
                 <c:pt idx="1537">
-                  <c:v>820.33799999999997</c:v>
+                  <c:v>820.338</c:v>
                 </c:pt>
                 <c:pt idx="1538">
                   <c:v>820.78</c:v>
                 </c:pt>
                 <c:pt idx="1539">
-                  <c:v>821.22199999999998</c:v>
+                  <c:v>821.222</c:v>
                 </c:pt>
                 <c:pt idx="1540">
-                  <c:v>821.66499999999996</c:v>
+                  <c:v>821.665</c:v>
                 </c:pt>
                 <c:pt idx="1541">
-                  <c:v>822.10699999999997</c:v>
+                  <c:v>822.107</c:v>
                 </c:pt>
                 <c:pt idx="1542">
-                  <c:v>822.54899999999998</c:v>
+                  <c:v>822.549</c:v>
                 </c:pt>
                 <c:pt idx="1543">
-                  <c:v>822.99199999999996</c:v>
+                  <c:v>822.992</c:v>
                 </c:pt>
                 <c:pt idx="1544">
-                  <c:v>823.43399999999997</c:v>
+                  <c:v>823.434</c:v>
                 </c:pt>
                 <c:pt idx="1545">
-                  <c:v>823.87599999999998</c:v>
+                  <c:v>823.876</c:v>
                 </c:pt>
                 <c:pt idx="1546">
-                  <c:v>824.31899999999996</c:v>
+                  <c:v>824.319</c:v>
                 </c:pt>
                 <c:pt idx="1547">
-                  <c:v>824.76099999999997</c:v>
+                  <c:v>824.761</c:v>
                 </c:pt>
                 <c:pt idx="1548">
-                  <c:v>825.20299999999997</c:v>
+                  <c:v>825.203</c:v>
                 </c:pt>
                 <c:pt idx="1549">
-                  <c:v>825.64599999999996</c:v>
+                  <c:v>825.646</c:v>
                 </c:pt>
                 <c:pt idx="1550">
-                  <c:v>826.08799999999997</c:v>
+                  <c:v>826.088</c:v>
                 </c:pt>
                 <c:pt idx="1551">
-                  <c:v>826.53099999999995</c:v>
+                  <c:v>826.531</c:v>
                 </c:pt>
                 <c:pt idx="1552">
-                  <c:v>826.97299999999996</c:v>
+                  <c:v>826.973</c:v>
                 </c:pt>
                 <c:pt idx="1553">
-                  <c:v>827.41600000000005</c:v>
+                  <c:v>827.416</c:v>
                 </c:pt>
                 <c:pt idx="1554">
-                  <c:v>827.85799999999995</c:v>
+                  <c:v>827.858</c:v>
                 </c:pt>
                 <c:pt idx="1555">
-                  <c:v>828.30100000000004</c:v>
+                  <c:v>828.301</c:v>
                 </c:pt>
                 <c:pt idx="1556">
-                  <c:v>828.74400000000003</c:v>
+                  <c:v>828.744</c:v>
                 </c:pt>
                 <c:pt idx="1557">
-                  <c:v>829.18600000000004</c:v>
+                  <c:v>829.186</c:v>
                 </c:pt>
                 <c:pt idx="1558">
-                  <c:v>829.62900000000002</c:v>
+                  <c:v>829.629</c:v>
                 </c:pt>
                 <c:pt idx="1559">
-                  <c:v>830.07100000000003</c:v>
+                  <c:v>830.071</c:v>
                 </c:pt>
                 <c:pt idx="1560">
-                  <c:v>830.51400000000001</c:v>
+                  <c:v>830.514</c:v>
                 </c:pt>
                 <c:pt idx="1561">
-                  <c:v>830.95699999999999</c:v>
+                  <c:v>830.957</c:v>
                 </c:pt>
                 <c:pt idx="1562">
                   <c:v>831.399</c:v>
                 </c:pt>
                 <c:pt idx="1563">
-                  <c:v>831.84199999999998</c:v>
+                  <c:v>831.842</c:v>
                 </c:pt>
                 <c:pt idx="1564">
-                  <c:v>832.28499999999997</c:v>
+                  <c:v>832.285</c:v>
                 </c:pt>
                 <c:pt idx="1565">
-                  <c:v>832.72699999999998</c:v>
+                  <c:v>832.727</c:v>
                 </c:pt>
                 <c:pt idx="1566">
                   <c:v>833.17</c:v>
                 </c:pt>
                 <c:pt idx="1567">
-                  <c:v>833.61300000000006</c:v>
+                  <c:v>833.613</c:v>
                 </c:pt>
                 <c:pt idx="1568">
-                  <c:v>834.05600000000004</c:v>
+                  <c:v>834.056</c:v>
                 </c:pt>
                 <c:pt idx="1569">
-                  <c:v>834.49800000000005</c:v>
+                  <c:v>834.498</c:v>
                 </c:pt>
                 <c:pt idx="1570">
-                  <c:v>834.94100000000003</c:v>
+                  <c:v>834.941</c:v>
                 </c:pt>
                 <c:pt idx="1571">
-                  <c:v>835.38400000000001</c:v>
+                  <c:v>835.384</c:v>
                 </c:pt>
                 <c:pt idx="1572">
                   <c:v>835.827</c:v>
@@ -5397,163 +5399,163 @@
                   <c:v>836.27</c:v>
                 </c:pt>
                 <c:pt idx="1574">
-                  <c:v>836.71299999999997</c:v>
+                  <c:v>836.713</c:v>
                 </c:pt>
                 <c:pt idx="1575">
-                  <c:v>837.15599999999995</c:v>
+                  <c:v>837.156</c:v>
                 </c:pt>
                 <c:pt idx="1576">
-                  <c:v>837.59900000000005</c:v>
+                  <c:v>837.599</c:v>
                 </c:pt>
                 <c:pt idx="1577">
-                  <c:v>838.04200000000003</c:v>
+                  <c:v>838.042</c:v>
                 </c:pt>
                 <c:pt idx="1578">
-                  <c:v>838.48400000000004</c:v>
+                  <c:v>838.484</c:v>
                 </c:pt>
                 <c:pt idx="1579">
-                  <c:v>838.92700000000002</c:v>
+                  <c:v>838.927</c:v>
                 </c:pt>
                 <c:pt idx="1580">
                   <c:v>839.37</c:v>
                 </c:pt>
                 <c:pt idx="1581">
-                  <c:v>839.81299999999999</c:v>
+                  <c:v>839.813</c:v>
                 </c:pt>
                 <c:pt idx="1582">
-                  <c:v>840.25599999999997</c:v>
+                  <c:v>840.256</c:v>
                 </c:pt>
                 <c:pt idx="1583">
                   <c:v>840.7</c:v>
                 </c:pt>
                 <c:pt idx="1584">
-                  <c:v>841.14300000000003</c:v>
+                  <c:v>841.143</c:v>
                 </c:pt>
                 <c:pt idx="1585">
-                  <c:v>841.58600000000001</c:v>
+                  <c:v>841.586</c:v>
                 </c:pt>
                 <c:pt idx="1586">
                   <c:v>842.029</c:v>
                 </c:pt>
                 <c:pt idx="1587">
-                  <c:v>842.47199999999998</c:v>
+                  <c:v>842.472</c:v>
                 </c:pt>
                 <c:pt idx="1588">
-                  <c:v>842.91499999999996</c:v>
+                  <c:v>842.915</c:v>
                 </c:pt>
                 <c:pt idx="1589">
-                  <c:v>843.35799999999995</c:v>
+                  <c:v>843.358</c:v>
                 </c:pt>
                 <c:pt idx="1590">
-                  <c:v>843.80100000000004</c:v>
+                  <c:v>843.801</c:v>
                 </c:pt>
                 <c:pt idx="1591">
-                  <c:v>844.24400000000003</c:v>
+                  <c:v>844.244</c:v>
                 </c:pt>
                 <c:pt idx="1592">
-                  <c:v>844.68799999999999</c:v>
+                  <c:v>844.688</c:v>
                 </c:pt>
                 <c:pt idx="1593">
-                  <c:v>845.13099999999997</c:v>
+                  <c:v>845.131</c:v>
                 </c:pt>
                 <c:pt idx="1594">
-                  <c:v>845.57399999999996</c:v>
+                  <c:v>845.574</c:v>
                 </c:pt>
                 <c:pt idx="1595">
-                  <c:v>846.01700000000005</c:v>
+                  <c:v>846.017</c:v>
                 </c:pt>
                 <c:pt idx="1596">
-                  <c:v>846.46100000000001</c:v>
+                  <c:v>846.461</c:v>
                 </c:pt>
                 <c:pt idx="1597">
                   <c:v>846.904</c:v>
                 </c:pt>
                 <c:pt idx="1598">
-                  <c:v>847.34699999999998</c:v>
+                  <c:v>847.347</c:v>
                 </c:pt>
                 <c:pt idx="1599">
-                  <c:v>847.79100000000005</c:v>
+                  <c:v>847.791</c:v>
                 </c:pt>
                 <c:pt idx="1600">
-                  <c:v>848.23400000000004</c:v>
+                  <c:v>848.234</c:v>
                 </c:pt>
                 <c:pt idx="1601">
-                  <c:v>848.67700000000002</c:v>
+                  <c:v>848.677</c:v>
                 </c:pt>
                 <c:pt idx="1602">
-                  <c:v>849.12099999999998</c:v>
+                  <c:v>849.121</c:v>
                 </c:pt>
                 <c:pt idx="1603">
-                  <c:v>849.56399999999996</c:v>
+                  <c:v>849.564</c:v>
                 </c:pt>
                 <c:pt idx="1604">
-                  <c:v>850.00699999999995</c:v>
+                  <c:v>850.007</c:v>
                 </c:pt>
                 <c:pt idx="1605">
-                  <c:v>850.45100000000002</c:v>
+                  <c:v>850.451</c:v>
                 </c:pt>
                 <c:pt idx="1606">
-                  <c:v>850.89400000000001</c:v>
+                  <c:v>850.894</c:v>
                 </c:pt>
                 <c:pt idx="1607">
-                  <c:v>851.33799999999997</c:v>
+                  <c:v>851.338</c:v>
                 </c:pt>
                 <c:pt idx="1608">
-                  <c:v>851.78099999999995</c:v>
+                  <c:v>851.781</c:v>
                 </c:pt>
                 <c:pt idx="1609">
-                  <c:v>852.22500000000002</c:v>
+                  <c:v>852.225</c:v>
                 </c:pt>
                 <c:pt idx="1610">
-                  <c:v>852.66800000000001</c:v>
+                  <c:v>852.668</c:v>
                 </c:pt>
                 <c:pt idx="1611">
-                  <c:v>853.11199999999997</c:v>
+                  <c:v>853.112</c:v>
                 </c:pt>
                 <c:pt idx="1612">
-                  <c:v>853.55499999999995</c:v>
+                  <c:v>853.555</c:v>
                 </c:pt>
                 <c:pt idx="1613">
-                  <c:v>853.99900000000002</c:v>
+                  <c:v>853.999</c:v>
                 </c:pt>
                 <c:pt idx="1614">
-                  <c:v>854.44200000000001</c:v>
+                  <c:v>854.442</c:v>
                 </c:pt>
                 <c:pt idx="1615">
-                  <c:v>854.88599999999997</c:v>
+                  <c:v>854.886</c:v>
                 </c:pt>
                 <c:pt idx="1616">
                   <c:v>855.33</c:v>
                 </c:pt>
                 <c:pt idx="1617">
-                  <c:v>855.77300000000002</c:v>
+                  <c:v>855.773</c:v>
                 </c:pt>
                 <c:pt idx="1618">
-                  <c:v>856.21699999999998</c:v>
+                  <c:v>856.217</c:v>
                 </c:pt>
                 <c:pt idx="1619">
                   <c:v>856.66</c:v>
                 </c:pt>
                 <c:pt idx="1620">
-                  <c:v>857.10400000000004</c:v>
+                  <c:v>857.104</c:v>
                 </c:pt>
                 <c:pt idx="1621">
                   <c:v>857.548</c:v>
                 </c:pt>
                 <c:pt idx="1622">
-                  <c:v>857.99199999999996</c:v>
+                  <c:v>857.992</c:v>
                 </c:pt>
                 <c:pt idx="1623">
-                  <c:v>858.43499999999995</c:v>
+                  <c:v>858.435</c:v>
                 </c:pt>
                 <c:pt idx="1624">
-                  <c:v>858.87900000000002</c:v>
+                  <c:v>858.879</c:v>
                 </c:pt>
                 <c:pt idx="1625">
-                  <c:v>859.32299999999998</c:v>
+                  <c:v>859.323</c:v>
                 </c:pt>
                 <c:pt idx="1626">
-                  <c:v>859.76700000000005</c:v>
+                  <c:v>859.767</c:v>
                 </c:pt>
                 <c:pt idx="1627">
                   <c:v>860.21</c:v>
@@ -5562,73 +5564,73 @@
                   <c:v>860.654</c:v>
                 </c:pt>
                 <c:pt idx="1629">
-                  <c:v>861.09799999999996</c:v>
+                  <c:v>861.098</c:v>
                 </c:pt>
                 <c:pt idx="1630">
-                  <c:v>861.54200000000003</c:v>
+                  <c:v>861.542</c:v>
                 </c:pt>
                 <c:pt idx="1631">
-                  <c:v>861.98599999999999</c:v>
+                  <c:v>861.986</c:v>
                 </c:pt>
                 <c:pt idx="1632">
                   <c:v>862.43</c:v>
                 </c:pt>
                 <c:pt idx="1633">
-                  <c:v>862.87300000000005</c:v>
+                  <c:v>862.873</c:v>
                 </c:pt>
                 <c:pt idx="1634">
-                  <c:v>863.31700000000001</c:v>
+                  <c:v>863.317</c:v>
                 </c:pt>
                 <c:pt idx="1635">
-                  <c:v>863.76099999999997</c:v>
+                  <c:v>863.761</c:v>
                 </c:pt>
                 <c:pt idx="1636">
-                  <c:v>864.20500000000004</c:v>
+                  <c:v>864.205</c:v>
                 </c:pt>
                 <c:pt idx="1637">
                   <c:v>864.649</c:v>
                 </c:pt>
                 <c:pt idx="1638">
-                  <c:v>865.09299999999996</c:v>
+                  <c:v>865.093</c:v>
                 </c:pt>
                 <c:pt idx="1639">
-                  <c:v>865.53700000000003</c:v>
+                  <c:v>865.537</c:v>
                 </c:pt>
                 <c:pt idx="1640">
-                  <c:v>865.98099999999999</c:v>
+                  <c:v>865.981</c:v>
                 </c:pt>
                 <c:pt idx="1641">
-                  <c:v>866.42499999999995</c:v>
+                  <c:v>866.425</c:v>
                 </c:pt>
                 <c:pt idx="1642">
-                  <c:v>866.86900000000003</c:v>
+                  <c:v>866.869</c:v>
                 </c:pt>
                 <c:pt idx="1643">
-                  <c:v>867.31299999999999</c:v>
+                  <c:v>867.313</c:v>
                 </c:pt>
                 <c:pt idx="1644">
-                  <c:v>867.75699999999995</c:v>
+                  <c:v>867.757</c:v>
                 </c:pt>
                 <c:pt idx="1645">
-                  <c:v>868.20100000000002</c:v>
+                  <c:v>868.201</c:v>
                 </c:pt>
                 <c:pt idx="1646">
-                  <c:v>868.64499999999998</c:v>
+                  <c:v>868.645</c:v>
                 </c:pt>
                 <c:pt idx="1647">
                   <c:v>869.09</c:v>
                 </c:pt>
                 <c:pt idx="1648">
-                  <c:v>869.53399999999999</c:v>
+                  <c:v>869.534</c:v>
                 </c:pt>
                 <c:pt idx="1649">
-                  <c:v>869.97799999999995</c:v>
+                  <c:v>869.978</c:v>
                 </c:pt>
                 <c:pt idx="1650">
-                  <c:v>870.42200000000003</c:v>
+                  <c:v>870.422</c:v>
                 </c:pt>
                 <c:pt idx="1651">
-                  <c:v>870.86599999999999</c:v>
+                  <c:v>870.866</c:v>
                 </c:pt>
                 <c:pt idx="1652">
                   <c:v>871.31</c:v>
@@ -5637,16 +5639,16 @@
                   <c:v>871.755</c:v>
                 </c:pt>
                 <c:pt idx="1654">
-                  <c:v>872.19899999999996</c:v>
+                  <c:v>872.199</c:v>
                 </c:pt>
                 <c:pt idx="1655">
-                  <c:v>872.64300000000003</c:v>
+                  <c:v>872.643</c:v>
                 </c:pt>
                 <c:pt idx="1656">
-                  <c:v>873.08699999999999</c:v>
+                  <c:v>873.087</c:v>
                 </c:pt>
                 <c:pt idx="1657">
-                  <c:v>873.53200000000004</c:v>
+                  <c:v>873.532</c:v>
                 </c:pt>
                 <c:pt idx="1658">
                   <c:v>873.976</c:v>
@@ -5655,52 +5657,52 @@
                   <c:v>874.42</c:v>
                 </c:pt>
                 <c:pt idx="1660">
-                  <c:v>874.86500000000001</c:v>
+                  <c:v>874.865</c:v>
                 </c:pt>
                 <c:pt idx="1661">
-                  <c:v>875.30899999999997</c:v>
+                  <c:v>875.309</c:v>
                 </c:pt>
                 <c:pt idx="1662">
-                  <c:v>875.75300000000004</c:v>
+                  <c:v>875.753</c:v>
                 </c:pt>
                 <c:pt idx="1663">
-                  <c:v>876.19799999999998</c:v>
+                  <c:v>876.198</c:v>
                 </c:pt>
                 <c:pt idx="1664">
-                  <c:v>876.64200000000005</c:v>
+                  <c:v>876.642</c:v>
                 </c:pt>
                 <c:pt idx="1665">
-                  <c:v>877.08600000000001</c:v>
+                  <c:v>877.086</c:v>
                 </c:pt>
                 <c:pt idx="1666">
-                  <c:v>877.53099999999995</c:v>
+                  <c:v>877.531</c:v>
                 </c:pt>
                 <c:pt idx="1667">
-                  <c:v>877.97500000000002</c:v>
+                  <c:v>877.975</c:v>
                 </c:pt>
                 <c:pt idx="1668">
                   <c:v>878.42</c:v>
                 </c:pt>
                 <c:pt idx="1669">
-                  <c:v>878.86400000000003</c:v>
+                  <c:v>878.864</c:v>
                 </c:pt>
                 <c:pt idx="1670">
-                  <c:v>879.30899999999997</c:v>
+                  <c:v>879.309</c:v>
                 </c:pt>
                 <c:pt idx="1671">
-                  <c:v>879.75300000000004</c:v>
+                  <c:v>879.753</c:v>
                 </c:pt>
                 <c:pt idx="1672">
-                  <c:v>880.19799999999998</c:v>
+                  <c:v>880.198</c:v>
                 </c:pt>
                 <c:pt idx="1673">
-                  <c:v>880.64200000000005</c:v>
+                  <c:v>880.642</c:v>
                 </c:pt>
                 <c:pt idx="1674">
-                  <c:v>881.08699999999999</c:v>
+                  <c:v>881.087</c:v>
                 </c:pt>
                 <c:pt idx="1675">
-                  <c:v>881.53099999999995</c:v>
+                  <c:v>881.531</c:v>
                 </c:pt>
                 <c:pt idx="1676">
                   <c:v>881.976</c:v>
@@ -5709,82 +5711,82 @@
                   <c:v>882.42</c:v>
                 </c:pt>
                 <c:pt idx="1678">
-                  <c:v>882.86500000000001</c:v>
+                  <c:v>882.865</c:v>
                 </c:pt>
                 <c:pt idx="1679">
                   <c:v>883.31</c:v>
                 </c:pt>
                 <c:pt idx="1680">
-                  <c:v>883.75400000000002</c:v>
+                  <c:v>883.754</c:v>
                 </c:pt>
                 <c:pt idx="1681">
-                  <c:v>884.19899999999996</c:v>
+                  <c:v>884.199</c:v>
                 </c:pt>
                 <c:pt idx="1682">
-                  <c:v>884.64400000000001</c:v>
+                  <c:v>884.644</c:v>
                 </c:pt>
                 <c:pt idx="1683">
-                  <c:v>885.08799999999997</c:v>
+                  <c:v>885.088</c:v>
                 </c:pt>
                 <c:pt idx="1684">
-                  <c:v>885.53300000000002</c:v>
+                  <c:v>885.533</c:v>
                 </c:pt>
                 <c:pt idx="1685">
-                  <c:v>885.97799999999995</c:v>
+                  <c:v>885.978</c:v>
                 </c:pt>
                 <c:pt idx="1686">
-                  <c:v>886.42200000000003</c:v>
+                  <c:v>886.422</c:v>
                 </c:pt>
                 <c:pt idx="1687">
-                  <c:v>886.86699999999996</c:v>
+                  <c:v>886.867</c:v>
                 </c:pt>
                 <c:pt idx="1688">
-                  <c:v>887.31200000000001</c:v>
+                  <c:v>887.312</c:v>
                 </c:pt>
                 <c:pt idx="1689">
-                  <c:v>887.75699999999995</c:v>
+                  <c:v>887.757</c:v>
                 </c:pt>
                 <c:pt idx="1690">
-                  <c:v>888.20100000000002</c:v>
+                  <c:v>888.201</c:v>
                 </c:pt>
                 <c:pt idx="1691">
-                  <c:v>888.64599999999996</c:v>
+                  <c:v>888.646</c:v>
                 </c:pt>
                 <c:pt idx="1692">
-                  <c:v>889.09100000000001</c:v>
+                  <c:v>889.091</c:v>
                 </c:pt>
                 <c:pt idx="1693">
-                  <c:v>889.53599999999994</c:v>
+                  <c:v>889.536</c:v>
                 </c:pt>
                 <c:pt idx="1694">
-                  <c:v>889.98099999999999</c:v>
+                  <c:v>889.981</c:v>
                 </c:pt>
                 <c:pt idx="1695">
-                  <c:v>890.42600000000004</c:v>
+                  <c:v>890.426</c:v>
                 </c:pt>
                 <c:pt idx="1696">
-                  <c:v>890.87099999999998</c:v>
+                  <c:v>890.871</c:v>
                 </c:pt>
                 <c:pt idx="1697">
-                  <c:v>891.31500000000005</c:v>
+                  <c:v>891.315</c:v>
                 </c:pt>
                 <c:pt idx="1698">
                   <c:v>891.76</c:v>
                 </c:pt>
                 <c:pt idx="1699">
-                  <c:v>892.20500000000004</c:v>
+                  <c:v>892.205</c:v>
                 </c:pt>
                 <c:pt idx="1700">
                   <c:v>892.65</c:v>
                 </c:pt>
                 <c:pt idx="1701">
-                  <c:v>893.09500000000003</c:v>
+                  <c:v>893.095</c:v>
                 </c:pt>
                 <c:pt idx="1702">
                   <c:v>893.54</c:v>
                 </c:pt>
                 <c:pt idx="1703">
-                  <c:v>893.98500000000001</c:v>
+                  <c:v>893.985</c:v>
                 </c:pt>
                 <c:pt idx="1704">
                   <c:v>894.43</c:v>
@@ -5796,70 +5798,70 @@
                   <c:v>895.32</c:v>
                 </c:pt>
                 <c:pt idx="1707">
-                  <c:v>895.76499999999999</c:v>
+                  <c:v>895.765</c:v>
                 </c:pt>
                 <c:pt idx="1708">
                   <c:v>896.21</c:v>
                 </c:pt>
                 <c:pt idx="1709">
-                  <c:v>896.65499999999997</c:v>
+                  <c:v>896.655</c:v>
                 </c:pt>
                 <c:pt idx="1710">
                   <c:v>897.1</c:v>
                 </c:pt>
                 <c:pt idx="1711">
-                  <c:v>897.54600000000005</c:v>
+                  <c:v>897.546</c:v>
                 </c:pt>
                 <c:pt idx="1712">
-                  <c:v>897.99099999999999</c:v>
+                  <c:v>897.991</c:v>
                 </c:pt>
                 <c:pt idx="1713">
-                  <c:v>898.43600000000004</c:v>
+                  <c:v>898.436</c:v>
                 </c:pt>
                 <c:pt idx="1714">
-                  <c:v>898.88099999999997</c:v>
+                  <c:v>898.881</c:v>
                 </c:pt>
                 <c:pt idx="1715">
-                  <c:v>899.32600000000002</c:v>
+                  <c:v>899.326</c:v>
                 </c:pt>
                 <c:pt idx="1716">
-                  <c:v>899.77099999999996</c:v>
+                  <c:v>899.771</c:v>
                 </c:pt>
                 <c:pt idx="1717">
-                  <c:v>900.21600000000001</c:v>
+                  <c:v>900.216</c:v>
                 </c:pt>
                 <c:pt idx="1718">
-                  <c:v>900.66200000000003</c:v>
+                  <c:v>900.662</c:v>
                 </c:pt>
                 <c:pt idx="1719">
-                  <c:v>901.10699999999997</c:v>
+                  <c:v>901.107</c:v>
                 </c:pt>
                 <c:pt idx="1720">
-                  <c:v>901.55200000000002</c:v>
+                  <c:v>901.552</c:v>
                 </c:pt>
                 <c:pt idx="1721">
-                  <c:v>901.99699999999996</c:v>
+                  <c:v>901.997</c:v>
                 </c:pt>
                 <c:pt idx="1722">
-                  <c:v>902.44299999999998</c:v>
+                  <c:v>902.443</c:v>
                 </c:pt>
                 <c:pt idx="1723">
-                  <c:v>902.88800000000003</c:v>
+                  <c:v>902.888</c:v>
                 </c:pt>
                 <c:pt idx="1724">
-                  <c:v>903.33299999999997</c:v>
+                  <c:v>903.333</c:v>
                 </c:pt>
                 <c:pt idx="1725">
                   <c:v>903.779</c:v>
                 </c:pt>
                 <c:pt idx="1726">
-                  <c:v>904.22400000000005</c:v>
+                  <c:v>904.224</c:v>
                 </c:pt>
                 <c:pt idx="1727">
-                  <c:v>904.66899999999998</c:v>
+                  <c:v>904.669</c:v>
                 </c:pt>
                 <c:pt idx="1728">
-                  <c:v>905.11500000000001</c:v>
+                  <c:v>905.115</c:v>
                 </c:pt>
                 <c:pt idx="1729">
                   <c:v>905.56</c:v>
@@ -5868,112 +5870,112 @@
                   <c:v>906.005</c:v>
                 </c:pt>
                 <c:pt idx="1731">
-                  <c:v>906.45100000000002</c:v>
+                  <c:v>906.451</c:v>
                 </c:pt>
                 <c:pt idx="1732">
-                  <c:v>906.89599999999996</c:v>
+                  <c:v>906.896</c:v>
                 </c:pt>
                 <c:pt idx="1733">
-                  <c:v>907.34199999999998</c:v>
+                  <c:v>907.342</c:v>
                 </c:pt>
                 <c:pt idx="1734">
-                  <c:v>907.78700000000003</c:v>
+                  <c:v>907.787</c:v>
                 </c:pt>
                 <c:pt idx="1735">
-                  <c:v>908.23199999999997</c:v>
+                  <c:v>908.232</c:v>
                 </c:pt>
                 <c:pt idx="1736">
                   <c:v>908.678</c:v>
                 </c:pt>
                 <c:pt idx="1737">
-                  <c:v>909.12300000000005</c:v>
+                  <c:v>909.123</c:v>
                 </c:pt>
                 <c:pt idx="1738">
-                  <c:v>909.56899999999996</c:v>
+                  <c:v>909.569</c:v>
                 </c:pt>
                 <c:pt idx="1739">
-                  <c:v>910.01400000000001</c:v>
+                  <c:v>910.014</c:v>
                 </c:pt>
                 <c:pt idx="1740">
                   <c:v>910.46</c:v>
                 </c:pt>
                 <c:pt idx="1741">
-                  <c:v>910.90599999999995</c:v>
+                  <c:v>910.906</c:v>
                 </c:pt>
                 <c:pt idx="1742">
                   <c:v>911.351</c:v>
                 </c:pt>
                 <c:pt idx="1743">
-                  <c:v>911.79700000000003</c:v>
+                  <c:v>911.797</c:v>
                 </c:pt>
                 <c:pt idx="1744">
-                  <c:v>912.24199999999996</c:v>
+                  <c:v>912.242</c:v>
                 </c:pt>
                 <c:pt idx="1745">
-                  <c:v>912.68799999999999</c:v>
+                  <c:v>912.688</c:v>
                 </c:pt>
                 <c:pt idx="1746">
-                  <c:v>913.13300000000004</c:v>
+                  <c:v>913.133</c:v>
                 </c:pt>
                 <c:pt idx="1747">
-                  <c:v>913.57899999999995</c:v>
+                  <c:v>913.579</c:v>
                 </c:pt>
                 <c:pt idx="1748">
-                  <c:v>914.02499999999998</c:v>
+                  <c:v>914.025</c:v>
                 </c:pt>
                 <c:pt idx="1749">
                   <c:v>914.47</c:v>
                 </c:pt>
                 <c:pt idx="1750">
-                  <c:v>914.91600000000005</c:v>
+                  <c:v>914.916</c:v>
                 </c:pt>
                 <c:pt idx="1751">
-                  <c:v>915.36199999999997</c:v>
+                  <c:v>915.362</c:v>
                 </c:pt>
                 <c:pt idx="1752">
-                  <c:v>915.80700000000002</c:v>
+                  <c:v>915.807</c:v>
                 </c:pt>
                 <c:pt idx="1753">
-                  <c:v>916.25300000000004</c:v>
+                  <c:v>916.253</c:v>
                 </c:pt>
                 <c:pt idx="1754">
-                  <c:v>916.69899999999996</c:v>
+                  <c:v>916.699</c:v>
                 </c:pt>
                 <c:pt idx="1755">
-                  <c:v>917.14499999999998</c:v>
+                  <c:v>917.145</c:v>
                 </c:pt>
                 <c:pt idx="1756">
                   <c:v>917.59</c:v>
                 </c:pt>
                 <c:pt idx="1757">
-                  <c:v>918.03599999999994</c:v>
+                  <c:v>918.036</c:v>
                 </c:pt>
                 <c:pt idx="1758">
-                  <c:v>918.48199999999997</c:v>
+                  <c:v>918.482</c:v>
                 </c:pt>
                 <c:pt idx="1759">
                   <c:v>918.928</c:v>
                 </c:pt>
                 <c:pt idx="1760">
-                  <c:v>919.37300000000005</c:v>
+                  <c:v>919.373</c:v>
                 </c:pt>
                 <c:pt idx="1761">
-                  <c:v>919.81899999999996</c:v>
+                  <c:v>919.819</c:v>
                 </c:pt>
                 <c:pt idx="1762">
-                  <c:v>920.26499999999999</c:v>
+                  <c:v>920.265</c:v>
                 </c:pt>
                 <c:pt idx="1763">
-                  <c:v>920.71100000000001</c:v>
+                  <c:v>920.711</c:v>
                 </c:pt>
                 <c:pt idx="1764">
-                  <c:v>921.15700000000004</c:v>
+                  <c:v>921.157</c:v>
                 </c:pt>
                 <c:pt idx="1765">
-                  <c:v>921.60299999999995</c:v>
+                  <c:v>921.603</c:v>
                 </c:pt>
                 <c:pt idx="1766">
-                  <c:v>922.04899999999998</c:v>
+                  <c:v>922.049</c:v>
                 </c:pt>
                 <c:pt idx="1767">
                   <c:v>922.495</c:v>
@@ -5982,31 +5984,31 @@
                   <c:v>922.94</c:v>
                 </c:pt>
                 <c:pt idx="1769">
-                  <c:v>923.38599999999997</c:v>
+                  <c:v>923.386</c:v>
                 </c:pt>
                 <c:pt idx="1770">
-                  <c:v>923.83199999999999</c:v>
+                  <c:v>923.832</c:v>
                 </c:pt>
                 <c:pt idx="1771">
-                  <c:v>924.27800000000002</c:v>
+                  <c:v>924.278</c:v>
                 </c:pt>
                 <c:pt idx="1772">
-                  <c:v>924.72400000000005</c:v>
+                  <c:v>924.724</c:v>
                 </c:pt>
                 <c:pt idx="1773">
                   <c:v>925.17</c:v>
                 </c:pt>
                 <c:pt idx="1774">
-                  <c:v>925.61599999999999</c:v>
+                  <c:v>925.616</c:v>
                 </c:pt>
                 <c:pt idx="1775">
-                  <c:v>926.06200000000001</c:v>
+                  <c:v>926.062</c:v>
                 </c:pt>
                 <c:pt idx="1776">
-                  <c:v>926.50800000000004</c:v>
+                  <c:v>926.508</c:v>
                 </c:pt>
                 <c:pt idx="1777">
-                  <c:v>926.95399999999995</c:v>
+                  <c:v>926.954</c:v>
                 </c:pt>
                 <c:pt idx="1778">
                   <c:v>927.4</c:v>
@@ -6015,316 +6017,316 @@
                   <c:v>927.846</c:v>
                 </c:pt>
                 <c:pt idx="1780">
-                  <c:v>928.29300000000001</c:v>
+                  <c:v>928.293</c:v>
                 </c:pt>
                 <c:pt idx="1781">
-                  <c:v>928.73900000000003</c:v>
+                  <c:v>928.739</c:v>
                 </c:pt>
                 <c:pt idx="1782">
-                  <c:v>929.18499999999995</c:v>
+                  <c:v>929.185</c:v>
                 </c:pt>
                 <c:pt idx="1783">
-                  <c:v>929.63099999999997</c:v>
+                  <c:v>929.631</c:v>
                 </c:pt>
                 <c:pt idx="1784">
                   <c:v>930.077</c:v>
                 </c:pt>
                 <c:pt idx="1785">
-                  <c:v>930.52300000000002</c:v>
+                  <c:v>930.523</c:v>
                 </c:pt>
                 <c:pt idx="1786">
-                  <c:v>930.96900000000005</c:v>
+                  <c:v>930.969</c:v>
                 </c:pt>
                 <c:pt idx="1787">
-                  <c:v>931.41499999999996</c:v>
+                  <c:v>931.415</c:v>
                 </c:pt>
                 <c:pt idx="1788">
-                  <c:v>931.86199999999997</c:v>
+                  <c:v>931.862</c:v>
                 </c:pt>
                 <c:pt idx="1789">
-                  <c:v>932.30799999999999</c:v>
+                  <c:v>932.308</c:v>
                 </c:pt>
                 <c:pt idx="1790">
-                  <c:v>932.75400000000002</c:v>
+                  <c:v>932.754</c:v>
                 </c:pt>
                 <c:pt idx="1791">
                   <c:v>933.2</c:v>
                 </c:pt>
                 <c:pt idx="1792">
-                  <c:v>933.64700000000005</c:v>
+                  <c:v>933.647</c:v>
                 </c:pt>
                 <c:pt idx="1793">
-                  <c:v>934.09299999999996</c:v>
+                  <c:v>934.093</c:v>
                 </c:pt>
                 <c:pt idx="1794">
-                  <c:v>934.53899999999999</c:v>
+                  <c:v>934.539</c:v>
                 </c:pt>
                 <c:pt idx="1795">
-                  <c:v>934.98500000000001</c:v>
+                  <c:v>934.985</c:v>
                 </c:pt>
                 <c:pt idx="1796">
-                  <c:v>935.43200000000002</c:v>
+                  <c:v>935.432</c:v>
                 </c:pt>
                 <c:pt idx="1797">
-                  <c:v>935.87800000000004</c:v>
+                  <c:v>935.878</c:v>
                 </c:pt>
                 <c:pt idx="1798">
-                  <c:v>936.32399999999996</c:v>
+                  <c:v>936.324</c:v>
                 </c:pt>
                 <c:pt idx="1799">
-                  <c:v>936.77099999999996</c:v>
+                  <c:v>936.771</c:v>
                 </c:pt>
                 <c:pt idx="1800">
-                  <c:v>937.21699999999998</c:v>
+                  <c:v>937.217</c:v>
                 </c:pt>
                 <c:pt idx="1801">
-                  <c:v>937.66300000000001</c:v>
+                  <c:v>937.663</c:v>
                 </c:pt>
                 <c:pt idx="1802">
                   <c:v>938.11</c:v>
                 </c:pt>
                 <c:pt idx="1803">
-                  <c:v>938.55600000000004</c:v>
+                  <c:v>938.556</c:v>
                 </c:pt>
                 <c:pt idx="1804">
-                  <c:v>939.00199999999995</c:v>
+                  <c:v>939.002</c:v>
                 </c:pt>
                 <c:pt idx="1805">
-                  <c:v>939.44899999999996</c:v>
+                  <c:v>939.449</c:v>
                 </c:pt>
                 <c:pt idx="1806">
-                  <c:v>939.89499999999998</c:v>
+                  <c:v>939.895</c:v>
                 </c:pt>
                 <c:pt idx="1807">
-                  <c:v>940.34199999999998</c:v>
+                  <c:v>940.342</c:v>
                 </c:pt>
                 <c:pt idx="1808">
-                  <c:v>940.78800000000001</c:v>
+                  <c:v>940.788</c:v>
                 </c:pt>
                 <c:pt idx="1809">
-                  <c:v>941.23500000000001</c:v>
+                  <c:v>941.235</c:v>
                 </c:pt>
                 <c:pt idx="1810">
-                  <c:v>941.68100000000004</c:v>
+                  <c:v>941.681</c:v>
                 </c:pt>
                 <c:pt idx="1811">
-                  <c:v>942.12800000000004</c:v>
+                  <c:v>942.128</c:v>
                 </c:pt>
                 <c:pt idx="1812">
-                  <c:v>942.57399999999996</c:v>
+                  <c:v>942.574</c:v>
                 </c:pt>
                 <c:pt idx="1813">
-                  <c:v>943.02099999999996</c:v>
+                  <c:v>943.021</c:v>
                 </c:pt>
                 <c:pt idx="1814">
-                  <c:v>943.46699999999998</c:v>
+                  <c:v>943.467</c:v>
                 </c:pt>
                 <c:pt idx="1815">
-                  <c:v>943.91399999999999</c:v>
+                  <c:v>943.914</c:v>
                 </c:pt>
                 <c:pt idx="1816">
                   <c:v>944.36</c:v>
                 </c:pt>
                 <c:pt idx="1817">
-                  <c:v>944.80700000000002</c:v>
+                  <c:v>944.807</c:v>
                 </c:pt>
                 <c:pt idx="1818">
-                  <c:v>945.25300000000004</c:v>
+                  <c:v>945.253</c:v>
                 </c:pt>
                 <c:pt idx="1819">
                   <c:v>945.7</c:v>
                 </c:pt>
                 <c:pt idx="1820">
-                  <c:v>946.14700000000005</c:v>
+                  <c:v>946.147</c:v>
                 </c:pt>
                 <c:pt idx="1821">
-                  <c:v>946.59299999999996</c:v>
+                  <c:v>946.593</c:v>
                 </c:pt>
                 <c:pt idx="1822">
                   <c:v>947.04</c:v>
                 </c:pt>
                 <c:pt idx="1823">
-                  <c:v>947.48599999999999</c:v>
+                  <c:v>947.486</c:v>
                 </c:pt>
                 <c:pt idx="1824">
-                  <c:v>947.93299999999999</c:v>
+                  <c:v>947.933</c:v>
                 </c:pt>
                 <c:pt idx="1825">
                   <c:v>948.38</c:v>
                 </c:pt>
                 <c:pt idx="1826">
-                  <c:v>948.82600000000002</c:v>
+                  <c:v>948.826</c:v>
                 </c:pt>
                 <c:pt idx="1827">
-                  <c:v>949.27300000000002</c:v>
+                  <c:v>949.273</c:v>
                 </c:pt>
                 <c:pt idx="1828">
                   <c:v>949.72</c:v>
                 </c:pt>
                 <c:pt idx="1829">
-                  <c:v>950.16700000000003</c:v>
+                  <c:v>950.167</c:v>
                 </c:pt>
                 <c:pt idx="1830">
-                  <c:v>950.61300000000006</c:v>
+                  <c:v>950.613</c:v>
                 </c:pt>
                 <c:pt idx="1831">
                   <c:v>951.06</c:v>
                 </c:pt>
                 <c:pt idx="1832">
-                  <c:v>951.50699999999995</c:v>
+                  <c:v>951.507</c:v>
                 </c:pt>
                 <c:pt idx="1833">
-                  <c:v>951.95399999999995</c:v>
+                  <c:v>951.954</c:v>
                 </c:pt>
                 <c:pt idx="1834">
                   <c:v>952.4</c:v>
                 </c:pt>
                 <c:pt idx="1835">
-                  <c:v>952.84699999999998</c:v>
+                  <c:v>952.847</c:v>
                 </c:pt>
                 <c:pt idx="1836">
-                  <c:v>953.29399999999998</c:v>
+                  <c:v>953.294</c:v>
                 </c:pt>
                 <c:pt idx="1837">
-                  <c:v>953.74099999999999</c:v>
+                  <c:v>953.741</c:v>
                 </c:pt>
                 <c:pt idx="1838">
-                  <c:v>954.18799999999999</c:v>
+                  <c:v>954.188</c:v>
                 </c:pt>
                 <c:pt idx="1839">
-                  <c:v>954.63400000000001</c:v>
+                  <c:v>954.634</c:v>
                 </c:pt>
                 <c:pt idx="1840">
-                  <c:v>955.08100000000002</c:v>
+                  <c:v>955.081</c:v>
                 </c:pt>
                 <c:pt idx="1841">
-                  <c:v>955.52800000000002</c:v>
+                  <c:v>955.528</c:v>
                 </c:pt>
                 <c:pt idx="1842">
-                  <c:v>955.97500000000002</c:v>
+                  <c:v>955.975</c:v>
                 </c:pt>
                 <c:pt idx="1843">
-                  <c:v>956.42200000000003</c:v>
+                  <c:v>956.422</c:v>
                 </c:pt>
                 <c:pt idx="1844">
-                  <c:v>956.86900000000003</c:v>
+                  <c:v>956.869</c:v>
                 </c:pt>
                 <c:pt idx="1845">
-                  <c:v>957.31600000000003</c:v>
+                  <c:v>957.316</c:v>
                 </c:pt>
                 <c:pt idx="1846">
-                  <c:v>957.76300000000003</c:v>
+                  <c:v>957.763</c:v>
                 </c:pt>
                 <c:pt idx="1847">
                   <c:v>958.21</c:v>
                 </c:pt>
                 <c:pt idx="1848">
-                  <c:v>958.65599999999995</c:v>
+                  <c:v>958.656</c:v>
                 </c:pt>
                 <c:pt idx="1849">
-                  <c:v>959.10299999999995</c:v>
+                  <c:v>959.103</c:v>
                 </c:pt>
                 <c:pt idx="1850">
                   <c:v>959.55</c:v>
                 </c:pt>
                 <c:pt idx="1851">
-                  <c:v>959.99699999999996</c:v>
+                  <c:v>959.997</c:v>
                 </c:pt>
                 <c:pt idx="1852">
-                  <c:v>960.44399999999996</c:v>
+                  <c:v>960.444</c:v>
                 </c:pt>
                 <c:pt idx="1853">
-                  <c:v>960.89099999999996</c:v>
+                  <c:v>960.891</c:v>
                 </c:pt>
                 <c:pt idx="1854">
-                  <c:v>961.33799999999997</c:v>
+                  <c:v>961.338</c:v>
                 </c:pt>
                 <c:pt idx="1855">
-                  <c:v>961.78499999999997</c:v>
+                  <c:v>961.785</c:v>
                 </c:pt>
                 <c:pt idx="1856">
-                  <c:v>962.23299999999995</c:v>
+                  <c:v>962.233</c:v>
                 </c:pt>
                 <c:pt idx="1857">
                   <c:v>962.68</c:v>
                 </c:pt>
                 <c:pt idx="1858">
-                  <c:v>963.12699999999995</c:v>
+                  <c:v>963.127</c:v>
                 </c:pt>
                 <c:pt idx="1859">
-                  <c:v>963.57399999999996</c:v>
+                  <c:v>963.574</c:v>
                 </c:pt>
                 <c:pt idx="1860">
-                  <c:v>964.02099999999996</c:v>
+                  <c:v>964.021</c:v>
                 </c:pt>
                 <c:pt idx="1861">
-                  <c:v>964.46799999999996</c:v>
+                  <c:v>964.468</c:v>
                 </c:pt>
                 <c:pt idx="1862">
-                  <c:v>964.91499999999996</c:v>
+                  <c:v>964.915</c:v>
                 </c:pt>
                 <c:pt idx="1863">
-                  <c:v>965.36199999999997</c:v>
+                  <c:v>965.362</c:v>
                 </c:pt>
                 <c:pt idx="1864">
-                  <c:v>965.80899999999997</c:v>
+                  <c:v>965.809</c:v>
                 </c:pt>
                 <c:pt idx="1865">
-                  <c:v>966.25599999999997</c:v>
+                  <c:v>966.256</c:v>
                 </c:pt>
                 <c:pt idx="1866">
-                  <c:v>966.70399999999995</c:v>
+                  <c:v>966.704</c:v>
                 </c:pt>
                 <c:pt idx="1867">
-                  <c:v>967.15099999999995</c:v>
+                  <c:v>967.151</c:v>
                 </c:pt>
                 <c:pt idx="1868">
-                  <c:v>967.59799999999996</c:v>
+                  <c:v>967.598</c:v>
                 </c:pt>
                 <c:pt idx="1869">
-                  <c:v>968.04499999999996</c:v>
+                  <c:v>968.045</c:v>
                 </c:pt>
                 <c:pt idx="1870">
-                  <c:v>968.49199999999996</c:v>
+                  <c:v>968.492</c:v>
                 </c:pt>
                 <c:pt idx="1871">
                   <c:v>968.94</c:v>
                 </c:pt>
                 <c:pt idx="1872">
-                  <c:v>969.38699999999994</c:v>
+                  <c:v>969.387</c:v>
                 </c:pt>
                 <c:pt idx="1873">
-                  <c:v>969.83399999999995</c:v>
+                  <c:v>969.834</c:v>
                 </c:pt>
                 <c:pt idx="1874">
-                  <c:v>970.28099999999995</c:v>
+                  <c:v>970.281</c:v>
                 </c:pt>
                 <c:pt idx="1875">
-                  <c:v>970.72900000000004</c:v>
+                  <c:v>970.729</c:v>
                 </c:pt>
                 <c:pt idx="1876">
-                  <c:v>971.17600000000004</c:v>
+                  <c:v>971.176</c:v>
                 </c:pt>
                 <c:pt idx="1877">
-                  <c:v>971.62300000000005</c:v>
+                  <c:v>971.623</c:v>
                 </c:pt>
                 <c:pt idx="1878">
                   <c:v>972.07</c:v>
                 </c:pt>
                 <c:pt idx="1879">
-                  <c:v>972.51800000000003</c:v>
+                  <c:v>972.518</c:v>
                 </c:pt>
                 <c:pt idx="1880">
-                  <c:v>972.96500000000003</c:v>
+                  <c:v>972.965</c:v>
                 </c:pt>
                 <c:pt idx="1881">
-                  <c:v>973.41200000000003</c:v>
+                  <c:v>973.412</c:v>
                 </c:pt>
                 <c:pt idx="1882">
                   <c:v>973.86</c:v>
                 </c:pt>
                 <c:pt idx="1883">
-                  <c:v>974.30700000000002</c:v>
+                  <c:v>974.307</c:v>
                 </c:pt>
                 <c:pt idx="1884">
                   <c:v>974.755</c:v>
@@ -6336,166 +6338,166 @@
                   <c:v>975.649</c:v>
                 </c:pt>
                 <c:pt idx="1887">
-                  <c:v>976.09699999999998</c:v>
+                  <c:v>976.097</c:v>
                 </c:pt>
                 <c:pt idx="1888">
-                  <c:v>976.54399999999998</c:v>
+                  <c:v>976.544</c:v>
                 </c:pt>
                 <c:pt idx="1889">
-                  <c:v>976.99199999999996</c:v>
+                  <c:v>976.992</c:v>
                 </c:pt>
                 <c:pt idx="1890">
-                  <c:v>977.43899999999996</c:v>
+                  <c:v>977.439</c:v>
                 </c:pt>
                 <c:pt idx="1891">
-                  <c:v>977.88599999999997</c:v>
+                  <c:v>977.886</c:v>
                 </c:pt>
                 <c:pt idx="1892">
-                  <c:v>978.33399999999995</c:v>
+                  <c:v>978.334</c:v>
                 </c:pt>
                 <c:pt idx="1893">
-                  <c:v>978.78099999999995</c:v>
+                  <c:v>978.781</c:v>
                 </c:pt>
                 <c:pt idx="1894">
-                  <c:v>979.22900000000004</c:v>
+                  <c:v>979.229</c:v>
                 </c:pt>
                 <c:pt idx="1895">
-                  <c:v>979.67600000000004</c:v>
+                  <c:v>979.676</c:v>
                 </c:pt>
                 <c:pt idx="1896">
-                  <c:v>980.12400000000002</c:v>
+                  <c:v>980.124</c:v>
                 </c:pt>
                 <c:pt idx="1897">
-                  <c:v>980.57100000000003</c:v>
+                  <c:v>980.571</c:v>
                 </c:pt>
                 <c:pt idx="1898">
-                  <c:v>981.01900000000001</c:v>
+                  <c:v>981.019</c:v>
                 </c:pt>
                 <c:pt idx="1899">
-                  <c:v>981.46600000000001</c:v>
+                  <c:v>981.466</c:v>
                 </c:pt>
                 <c:pt idx="1900">
-                  <c:v>981.91399999999999</c:v>
+                  <c:v>981.914</c:v>
                 </c:pt>
                 <c:pt idx="1901">
-                  <c:v>982.36199999999997</c:v>
+                  <c:v>982.362</c:v>
                 </c:pt>
                 <c:pt idx="1902">
-                  <c:v>982.80899999999997</c:v>
+                  <c:v>982.809</c:v>
                 </c:pt>
                 <c:pt idx="1903">
-                  <c:v>983.25699999999995</c:v>
+                  <c:v>983.257</c:v>
                 </c:pt>
                 <c:pt idx="1904">
-                  <c:v>983.70399999999995</c:v>
+                  <c:v>983.704</c:v>
                 </c:pt>
                 <c:pt idx="1905">
-                  <c:v>984.15200000000004</c:v>
+                  <c:v>984.152</c:v>
                 </c:pt>
                 <c:pt idx="1906">
                   <c:v>984.6</c:v>
                 </c:pt>
                 <c:pt idx="1907">
-                  <c:v>985.04700000000003</c:v>
+                  <c:v>985.047</c:v>
                 </c:pt>
                 <c:pt idx="1908">
                   <c:v>985.495</c:v>
                 </c:pt>
                 <c:pt idx="1909">
-                  <c:v>985.94200000000001</c:v>
+                  <c:v>985.942</c:v>
                 </c:pt>
                 <c:pt idx="1910">
                   <c:v>986.39</c:v>
                 </c:pt>
                 <c:pt idx="1911">
-                  <c:v>986.83799999999997</c:v>
+                  <c:v>986.838</c:v>
                 </c:pt>
                 <c:pt idx="1912">
-                  <c:v>987.28499999999997</c:v>
+                  <c:v>987.285</c:v>
                 </c:pt>
                 <c:pt idx="1913">
-                  <c:v>987.73299999999995</c:v>
+                  <c:v>987.733</c:v>
                 </c:pt>
                 <c:pt idx="1914">
-                  <c:v>988.18100000000004</c:v>
+                  <c:v>988.181</c:v>
                 </c:pt>
                 <c:pt idx="1915">
-                  <c:v>988.62900000000002</c:v>
+                  <c:v>988.629</c:v>
                 </c:pt>
                 <c:pt idx="1916">
-                  <c:v>989.07600000000002</c:v>
+                  <c:v>989.076</c:v>
                 </c:pt>
                 <c:pt idx="1917">
                   <c:v>989.524</c:v>
                 </c:pt>
                 <c:pt idx="1918">
-                  <c:v>989.97199999999998</c:v>
+                  <c:v>989.972</c:v>
                 </c:pt>
                 <c:pt idx="1919">
                   <c:v>990.42</c:v>
                 </c:pt>
                 <c:pt idx="1920">
-                  <c:v>990.86699999999996</c:v>
+                  <c:v>990.867</c:v>
                 </c:pt>
                 <c:pt idx="1921">
-                  <c:v>991.31500000000005</c:v>
+                  <c:v>991.315</c:v>
                 </c:pt>
                 <c:pt idx="1922">
-                  <c:v>991.76300000000003</c:v>
+                  <c:v>991.763</c:v>
                 </c:pt>
                 <c:pt idx="1923">
-                  <c:v>992.21100000000001</c:v>
+                  <c:v>992.211</c:v>
                 </c:pt>
                 <c:pt idx="1924">
-                  <c:v>992.65800000000002</c:v>
+                  <c:v>992.658</c:v>
                 </c:pt>
                 <c:pt idx="1925">
-                  <c:v>993.10599999999999</c:v>
+                  <c:v>993.106</c:v>
                 </c:pt>
                 <c:pt idx="1926">
-                  <c:v>993.55399999999997</c:v>
+                  <c:v>993.554</c:v>
                 </c:pt>
                 <c:pt idx="1927">
-                  <c:v>994.00199999999995</c:v>
+                  <c:v>994.002</c:v>
                 </c:pt>
                 <c:pt idx="1928">
                   <c:v>994.45</c:v>
                 </c:pt>
                 <c:pt idx="1929">
-                  <c:v>994.89800000000002</c:v>
+                  <c:v>994.898</c:v>
                 </c:pt>
                 <c:pt idx="1930">
                   <c:v>995.346</c:v>
                 </c:pt>
                 <c:pt idx="1931">
-                  <c:v>995.79300000000001</c:v>
+                  <c:v>995.793</c:v>
                 </c:pt>
                 <c:pt idx="1932">
-                  <c:v>996.24099999999999</c:v>
+                  <c:v>996.241</c:v>
                 </c:pt>
                 <c:pt idx="1933">
-                  <c:v>996.68899999999996</c:v>
+                  <c:v>996.689</c:v>
                 </c:pt>
                 <c:pt idx="1934">
-                  <c:v>997.13699999999994</c:v>
+                  <c:v>997.137</c:v>
                 </c:pt>
                 <c:pt idx="1935">
-                  <c:v>997.58500000000004</c:v>
+                  <c:v>997.585</c:v>
                 </c:pt>
                 <c:pt idx="1936">
-                  <c:v>998.03300000000002</c:v>
+                  <c:v>998.033</c:v>
                 </c:pt>
                 <c:pt idx="1937">
-                  <c:v>998.48099999999999</c:v>
+                  <c:v>998.481</c:v>
                 </c:pt>
                 <c:pt idx="1938">
-                  <c:v>998.92899999999997</c:v>
+                  <c:v>998.929</c:v>
                 </c:pt>
                 <c:pt idx="1939">
-                  <c:v>999.37699999999995</c:v>
+                  <c:v>999.377</c:v>
                 </c:pt>
                 <c:pt idx="1940">
-                  <c:v>999.82500000000005</c:v>
+                  <c:v>999.825</c:v>
                 </c:pt>
                 <c:pt idx="1941">
                   <c:v>1000.273</c:v>
@@ -6510,7 +6512,7 @@
                   <c:v>1001.617</c:v>
                 </c:pt>
                 <c:pt idx="1945">
-                  <c:v>1002.0650000000001</c:v>
+                  <c:v>1002.065</c:v>
                 </c:pt>
                 <c:pt idx="1946">
                   <c:v>1002.513</c:v>
@@ -6525,7 +6527,7 @@
                   <c:v>1003.857</c:v>
                 </c:pt>
                 <c:pt idx="1950">
-                  <c:v>1004.3049999999999</c:v>
+                  <c:v>1004.305</c:v>
                 </c:pt>
                 <c:pt idx="1951">
                   <c:v>1004.753</c:v>
@@ -6555,7 +6557,7 @@
                   <c:v>1008.338</c:v>
                 </c:pt>
                 <c:pt idx="1960">
-                  <c:v>1008.7859999999999</c:v>
+                  <c:v>1008.786</c:v>
                 </c:pt>
                 <c:pt idx="1961">
                   <c:v>1009.235</c:v>
@@ -6603,7 +6605,7 @@
                   <c:v>1015.51</c:v>
                 </c:pt>
                 <c:pt idx="1976">
-                  <c:v>1015.9589999999999</c:v>
+                  <c:v>1015.959</c:v>
                 </c:pt>
                 <c:pt idx="1977">
                   <c:v>1016.407</c:v>
@@ -6639,7 +6641,7 @@
                   <c:v>1020.891</c:v>
                 </c:pt>
                 <c:pt idx="1988">
-                  <c:v>1021.3390000000001</c:v>
+                  <c:v>1021.339</c:v>
                 </c:pt>
                 <c:pt idx="1989">
                   <c:v>1021.788</c:v>
@@ -6648,7 +6650,7 @@
                   <c:v>1022.236</c:v>
                 </c:pt>
                 <c:pt idx="1991">
-                  <c:v>1022.6849999999999</c:v>
+                  <c:v>1022.685</c:v>
                 </c:pt>
                 <c:pt idx="1992">
                   <c:v>1023.133</c:v>
@@ -6663,16 +6665,16 @@
                   <c:v>1024.479</c:v>
                 </c:pt>
                 <c:pt idx="1996">
-                  <c:v>1024.9269999999999</c:v>
+                  <c:v>1024.927</c:v>
                 </c:pt>
                 <c:pt idx="1997">
                   <c:v>1025.376</c:v>
                 </c:pt>
                 <c:pt idx="1998">
-                  <c:v>1025.8240000000001</c:v>
+                  <c:v>1025.824</c:v>
                 </c:pt>
                 <c:pt idx="1999">
-                  <c:v>1026.2729999999999</c:v>
+                  <c:v>1026.273</c:v>
                 </c:pt>
                 <c:pt idx="2000">
                   <c:v>1026.721</c:v>
@@ -6681,22 +6683,22 @@
                   <c:v>1027.17</c:v>
                 </c:pt>
                 <c:pt idx="2002">
-                  <c:v>1027.6179999999999</c:v>
+                  <c:v>1027.618</c:v>
                 </c:pt>
                 <c:pt idx="2003">
                   <c:v>1028.067</c:v>
                 </c:pt>
                 <c:pt idx="2004">
-                  <c:v>1028.5160000000001</c:v>
+                  <c:v>1028.516</c:v>
                 </c:pt>
                 <c:pt idx="2005">
-                  <c:v>1028.9639999999999</c:v>
+                  <c:v>1028.964</c:v>
                 </c:pt>
                 <c:pt idx="2006">
                   <c:v>1029.413</c:v>
                 </c:pt>
                 <c:pt idx="2007">
-                  <c:v>1029.8610000000001</c:v>
+                  <c:v>1029.861</c:v>
                 </c:pt>
                 <c:pt idx="2008">
                   <c:v>1030.31</c:v>
@@ -6705,16 +6707,16 @@
                   <c:v>1030.759</c:v>
                 </c:pt>
                 <c:pt idx="2010">
-                  <c:v>1031.2070000000001</c:v>
+                  <c:v>1031.207</c:v>
                 </c:pt>
                 <c:pt idx="2011">
-                  <c:v>1031.6559999999999</c:v>
+                  <c:v>1031.656</c:v>
                 </c:pt>
                 <c:pt idx="2012">
                   <c:v>1032.105</c:v>
                 </c:pt>
                 <c:pt idx="2013">
-                  <c:v>1032.5530000000001</c:v>
+                  <c:v>1032.553</c:v>
                 </c:pt>
                 <c:pt idx="2014">
                   <c:v>1033.002</c:v>
@@ -6723,7 +6725,7 @@
                   <c:v>1033.451</c:v>
                 </c:pt>
                 <c:pt idx="2016">
-                  <c:v>1033.8989999999999</c:v>
+                  <c:v>1033.899</c:v>
                 </c:pt>
                 <c:pt idx="2017">
                   <c:v>1034.348</c:v>
@@ -6732,7 +6734,7 @@
                   <c:v>1034.797</c:v>
                 </c:pt>
                 <c:pt idx="2019">
-                  <c:v>1035.2449999999999</c:v>
+                  <c:v>1035.245</c:v>
                 </c:pt>
                 <c:pt idx="2020">
                   <c:v>1035.694</c:v>
@@ -6741,7 +6743,7 @@
                   <c:v>1036.143</c:v>
                 </c:pt>
                 <c:pt idx="2022">
-                  <c:v>1036.5920000000001</c:v>
+                  <c:v>1036.592</c:v>
                 </c:pt>
                 <c:pt idx="2023">
                   <c:v>1037.04</c:v>
@@ -6750,25 +6752,25 @@
                   <c:v>1037.489</c:v>
                 </c:pt>
                 <c:pt idx="2025">
-                  <c:v>1037.9380000000001</c:v>
+                  <c:v>1037.938</c:v>
                 </c:pt>
                 <c:pt idx="2026">
-                  <c:v>1038.3869999999999</c:v>
+                  <c:v>1038.387</c:v>
                 </c:pt>
                 <c:pt idx="2027">
                   <c:v>1038.836</c:v>
                 </c:pt>
                 <c:pt idx="2028">
-                  <c:v>1039.2840000000001</c:v>
+                  <c:v>1039.284</c:v>
                 </c:pt>
                 <c:pt idx="2029">
-                  <c:v>1039.7329999999999</c:v>
+                  <c:v>1039.733</c:v>
                 </c:pt>
                 <c:pt idx="2030">
                   <c:v>1040.182</c:v>
                 </c:pt>
                 <c:pt idx="2031">
-                  <c:v>1040.6310000000001</c:v>
+                  <c:v>1040.631</c:v>
                 </c:pt>
                 <c:pt idx="2032">
                   <c:v>1041.08</c:v>
@@ -6777,19 +6779,19 @@
                   <c:v>1041.528</c:v>
                 </c:pt>
                 <c:pt idx="2034">
-                  <c:v>1041.9770000000001</c:v>
+                  <c:v>1041.977</c:v>
                 </c:pt>
                 <c:pt idx="2035">
-                  <c:v>1042.4259999999999</c:v>
+                  <c:v>1042.426</c:v>
                 </c:pt>
                 <c:pt idx="2036">
                   <c:v>1042.875</c:v>
                 </c:pt>
                 <c:pt idx="2037">
-                  <c:v>1043.3240000000001</c:v>
+                  <c:v>1043.324</c:v>
                 </c:pt>
                 <c:pt idx="2038">
-                  <c:v>1043.7729999999999</c:v>
+                  <c:v>1043.773</c:v>
                 </c:pt>
                 <c:pt idx="2039">
                   <c:v>1044.222</c:v>
@@ -6798,10 +6800,10 @@
                   <c:v>1044.671</c:v>
                 </c:pt>
                 <c:pt idx="2041">
-                  <c:v>1045.1189999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1045.119</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -13687,7 +13689,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{777A858F-0E1A-4D53-9679-28C65F744EA2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14046,11 +14048,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E544EAB-D695-474F-AC5E-EC4B6A23AEDC}">
   <dimension ref="A1:H2043"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A1503" workbookViewId="0">
+      <selection activeCell="C1509" sqref="C1509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -14058,8 +14063,8 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
-        <v>174.41499999999999</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
